--- a/lang_cheet_sheet.xlsx
+++ b/lang_cheet_sheet.xlsx
@@ -6,10 +6,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F15994-FEDB-43DA-ABED-DB207C7471CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F707FAC3-26A2-4CD6-A925-179839540F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="438">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1671,6 +1671,15 @@
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wbTrgtBook.Name</t>
+  </si>
+  <si>
+    <t>wbTrgtBook.Path</t>
+  </si>
+  <si>
+    <t>wbTrgtBook.FullName</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1904,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1972,6 +1981,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2321,10 +2333,10 @@
   <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C169" sqref="C169"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5941,8 +5953,8 @@
         <f>"WScript.ScriptFullName"</f>
         <v>WScript.ScriptFullName</v>
       </c>
-      <c r="D187" s="23" t="s">
-        <v>409</v>
+      <c r="D187" s="26" t="s">
+        <v>437</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="11" t="s">
@@ -5958,8 +5970,8 @@
         <f>"WScript.ScriptName"</f>
         <v>WScript.ScriptName</v>
       </c>
-      <c r="D188" s="23" t="s">
-        <v>409</v>
+      <c r="D188" s="26" t="s">
+        <v>435</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="11" t="s">
@@ -6009,8 +6021,8 @@
         <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
         <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
       </c>
-      <c r="D191" s="23" t="s">
-        <v>409</v>
+      <c r="D191" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="11" t="s">
@@ -7847,8 +7859,8 @@
         <v>409</v>
       </c>
       <c r="D288" s="4" t="str">
-        <f>"数値変数 = .Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>数値変数 = .Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>127</v>
@@ -7866,8 +7878,8 @@
         <v>409</v>
       </c>
       <c r="D289" s="4" t="str">
-        <f>"数値変数 = .Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>数値変数 = .Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>127</v>
@@ -7885,8 +7897,8 @@
         <v>409</v>
       </c>
       <c r="D290" s="4" t="str">
-        <f>"数値変数 = .Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>数値変数 = .Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>127</v>
@@ -7904,8 +7916,8 @@
         <v>409</v>
       </c>
       <c r="D291" s="4" t="str">
-        <f>"数値変数 = .Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>数値変数 = .Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>127</v>

--- a/lang_cheet_sheet.xlsx
+++ b/lang_cheet_sheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F707FAC3-26A2-4CD6-A925-179839540F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5785E42A-972F-4AC8-829A-88604EEB0C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="475">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1272,10 +1272,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>"ABCDE"→"ABC"、"A"→"A  "</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>フォルダ 特殊フォルダパス取得</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1612,67 +1608,63 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>=5（String.vbs/LenByte()を利用する）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1⇒True、"a"⇒False、""⇒False</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(ex. Chr(Asc(""①"") + 1) ⇒ ②</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8→値の詳細はこちら</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>vbNewLine</t>
+  </si>
+  <si>
+    <t>第二引数：ウィンドウの表示スタイル（ウィンドウを非表示、別のウィンドウをアクティブ）、第三引数：プログラムの実行が終了するまでスクリプトを待機させるかどうか</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>User:現在のユーザー, Process:現在のプロセス, System:全ユーザー, Volatile:現在のログオン</t>
+  </si>
+  <si>
+    <t>先頭からの位置、１オリジン（いない場合は0が返る)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>末尾からの位置、１オリジン（いない場合は0が返る)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dim aVal(5) As Integer</t>
+  </si>
+  <si>
+    <t>要素数ではなく最終要素番号！要素数は０オリジン。左の例では要素数６の配列が作成される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Const NUM = 1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CLng("&amp;H" &amp; "FA")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#VALUEを返却（エラー値の詳細はこちら）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>=5（String.vbs/LenByte()を利用する）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1⇒True、"a"⇒False、""⇒False</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(ex. Chr(Asc(""①"") + 1) ⇒ ②</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>8→値の詳細はこちら</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>vbNewLine</t>
-  </si>
-  <si>
-    <t>第二引数：ウィンドウの表示スタイル（ウィンドウを非表示、別のウィンドウをアクティブ）、第三引数：プログラムの実行が終了するまでスクリプトを待機させるかどうか</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>User:現在のユーザー, Process:現在のプロセス, System:全ユーザー, Volatile:現在のログオン</t>
-  </si>
-  <si>
-    <t>先頭からの位置、１オリジン（いない場合は0が返る)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>末尾からの位置、１オリジン（いない場合は0が返る)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Dim aVal(5) As Integer</t>
-  </si>
-  <si>
-    <t>要素数ではなく最終要素番号！要素数は０オリジン。左の例では要素数６の配列が作成される</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Const NUM = 1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CLng("&amp;H" &amp; "FA")</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#VALUEを返却（エラー値の詳細はこちら）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>wbTrgtBook.Name</t>
   </si>
   <si>
@@ -1680,6 +1672,170 @@
   </si>
   <si>
     <t>wbTrgtBook.FullName</t>
+  </si>
+  <si>
+    <t>vbsは非対応</t>
+    <rPh sb="4" eb="7">
+      <t>ヒタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Private 変数名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dim 変数名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Public 変数名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ReDim 変数名(4)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dim 変数名 As 型名</t>
+    <rPh sb="11" eb="13">
+      <t>カタメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Private 変数名 As 型名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Public 変数名 As 型名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ReDim 変数名(4) As 型名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"ABCDE"→"ABC"、"A"→"A  "。vbsは非対応</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cTrgtPaths.Add "c:\test\a.txt"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cTrgtPaths(0)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cTrgtPaths.Item(0)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cTrgtPaths.Count</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cTrgtPaths.Remove "c:\test\b.xlsx"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cTrgtPaths.Add Item:="c:\test\e.ppt", After:=2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cTrgtPaths.Sort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cTrgtPaths.Clear</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>vbs はおそらく非対応</t>
+    <rPh sb="9" eb="12">
+      <t>ヒタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oPriceOfFruit.Exists("リンゴ")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oPriceOfFruit.Item("リンゴ")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oPriceOfFruit.Keys()(0)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oPriceOfFruit.Items()(0)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oPriceOfFruit.Key("リンゴ") = "りんご"</t>
+  </si>
+  <si>
+    <t>oPriceOfFruit.Item("リンゴ") = "200円"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oPriceOfFruit.Count</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oPriceOfFruit.Remove("リンゴ")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oPriceOfFruit.RemoveAll</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>asFruitPrice = oPriceOfFruit.Items</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>asFruitName = oPriceOfFruit.Keys</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oPriceOfFruit.CompareMode = vbBinaryCompare</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>objWshShell.Exec("C:\test.bat")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>objWshShell.Run "C:\test.bat", 0, True</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>objWshShell.RegRead("HKCU\WshTest\Test1")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG_SZ")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>objWshShell.ExpandEnvironmentStrings( "%MYPATH_CODES%" )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>objWshShell.SpecialFolders("Desktop")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1941,9 +2097,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
@@ -1985,6 +2138,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2333,10 +2489,10 @@
   <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2350,29 +2506,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27">
-      <c r="A2" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="A2" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>131</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -2380,13 +2536,13 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21" t="s">
-        <v>368</v>
+      <c r="A3" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -2418,12 +2574,11 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="str">
-        <f>"Dim 変数名"</f>
-        <v>Dim 変数名</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>419</v>
+      <c r="C5" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="11" t="s">
@@ -2435,12 +2590,11 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="str">
-        <f>"Private 変数名"</f>
-        <v>Private 変数名</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>419</v>
+      <c r="C6" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="11" t="s">
@@ -2452,12 +2606,11 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <f>"Public 変数名"</f>
-        <v>Public 変数名</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>419</v>
+      <c r="C7" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="11" t="s">
@@ -2469,12 +2622,11 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="str">
-        <f>"ReDim 変数名"</f>
-        <v>ReDim 変数名</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>419</v>
+      <c r="C8" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="11" t="s">
@@ -2491,10 +2643,10 @@
         <v>Dim 配列変数名(最終要素番号)</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>127</v>
@@ -2505,12 +2657,14 @@
       <c r="B10" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="22" t="s">
+        <v>408</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>348</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>127</v>
@@ -2522,7 +2676,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>"Const NUM As Integer = 1"</f>
@@ -2540,16 +2694,21 @@
       <c r="B12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="22" t="s">
+        <v>408</v>
+      </c>
       <c r="D12" s="4" t="str">
-        <f>"Type T\_XXX"&amp;CHAR(10)&amp;"iVal1 As Integer"&amp;CHAR(10)&amp;"iVal2 As Integer"&amp;CHAR(10)&amp;"End Type"</f>
-        <v>Type T\_XXX
-iVal1 As Integer
-iVal2 As Integer
+        <f>"Type T_XXX
+    iVal1 As Integer
+    iVal2 As Integer
+End Type"</f>
+        <v>Type T_XXX
+    iVal1 As Integer
+    iVal2 As Integer
 End Type</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>127</v>
+        <v>436</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>127</v>
@@ -2560,16 +2719,21 @@
       <c r="B13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="22" t="s">
+        <v>408</v>
+      </c>
       <c r="D13" s="4" t="str">
-        <f>"Enum E\_XXX"&amp;CHAR(10)&amp;"NUM1"&amp;CHAR(10)&amp;"NUM2"&amp;CHAR(10)&amp;"End Enum"</f>
-        <v>Enum E\_XXX
-NUM1
-NUM2
+        <f>"Enum E_XXX
+    NUM1
+    NUM2
+End Enum"</f>
+        <v>Enum E_XXX
+    NUM1
+    NUM2
 End Enum</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>127</v>
+        <v>436</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>127</v>
@@ -2580,10 +2744,28 @@
       <c r="B14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="4" t="str">
-        <f>"Public Sub SubA ( sVal1 As String, sVal2 As Integer )"&amp;CHAR(10)&amp;"End Sub"</f>
-        <v>Public Sub SubA ( sVal1 As String, sVal2 As Integer )
+      <c r="C14" s="10" t="str">
+        <f>"Public Sub SubA ( _
+    ByVal sVal1, _
+    ByRef sVal2 _
+)
+End Sub"</f>
+        <v>Public Sub SubA ( _
+    ByVal sVal1, _
+    ByRef sVal2 _
+)
+End Sub</v>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f>"Public Sub SubA ( _
+    ByVal sVal1 As String, _
+    ByRef sVal2 As Integer _
+) As Boolean
+End Sub"</f>
+        <v>Public Sub SubA ( _
+    ByVal sVal1 As String, _
+    ByRef sVal2 As Integer _
+) As Boolean
 End Sub</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2599,14 +2781,27 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>"Function FuncA( ByVal Val1, ByRef Val2 )"&amp;CHAR(10)&amp;"FuncA = Val1"&amp;CHAR(10)&amp;"End Function"</f>
-        <v>Function FuncA( ByVal Val1, ByRef Val2 )
-FuncA = Val1
+        <f>"Private Function FuncA ( _
+    ByVal sVal1, _
+    ByRef sVal2 _
+)
+End Function"</f>
+        <v>Private Function FuncA ( _
+    ByVal sVal1, _
+    ByRef sVal2 _
+)
 End Function</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>"Private Function FuncA ( sVal1 As String, sVal2 As Integer )"&amp;CHAR(10)&amp;"End Function"</f>
-        <v>Private Function FuncA ( sVal1 As String, sVal2 As Integer )
+        <f>"Private Function FuncA ( _
+    ByVal sVal1 As String, _
+    ByRef sVal2 As Integer _
+) As Boolean
+End Function"</f>
+        <v>Private Function FuncA ( _
+    ByVal sVal1 As String, _
+    ByRef sVal2 As Integer _
+) As Boolean
 End Function</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2659,7 +2854,7 @@
     <row r="18" spans="1:6" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>"If iVal = 1 Or iVal = 2 Then"&amp;CHAR(10)&amp;"ElseIf iVal = 3 Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
@@ -2685,7 +2880,7 @@
     <row r="19" spans="1:6" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>"If objTest Is Nothing Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
@@ -2709,7 +2904,7 @@
     <row r="20" spans="1:6" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>"Select Case iVal"&amp;CHAR(10)&amp;"Case 1"&amp;CHAR(10)&amp;"Case Else"&amp;CHAR(10)&amp;"End Select"</f>
@@ -2735,7 +2930,7 @@
     <row r="21" spans="1:6" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>"For iVal1 = 1 To 3 [Step 1]"&amp;CHAR(10)&amp;"Next"</f>
@@ -2757,7 +2952,7 @@
     <row r="22" spans="1:6" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>"For Each Value in Values"&amp;CHAR(10)&amp;"Next"</f>
@@ -2780,7 +2975,7 @@
     <row r="23" spans="1:6" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>"Do"&amp;CHAR(10)&amp;CHAR(9)&amp;" 条件式＝真 "&amp;CHAR(10)&amp;"Loop While 条件式"</f>
@@ -2804,7 +2999,7 @@
     <row r="24" spans="1:6" outlineLevel="1">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>"Do While 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝真"&amp;CHAR(10)&amp;"Loop"</f>
@@ -2828,7 +3023,7 @@
     <row r="25" spans="1:6" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>"Do Until 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝偽"&amp;CHAR(10)&amp;"Loop"</f>
@@ -2894,7 +3089,7 @@
     <row r="28" spans="1:6" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>"sStr = InputBox( ""message"", ""title"", ""default value"" )"</f>
@@ -2914,17 +3109,17 @@
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>"MsgBox ""Hello world"", vbOKOnly, ""title"""</f>
         <v>MsgBox "Hello world", vbOKOnly, "title"</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>127</v>
@@ -2933,7 +3128,7 @@
     <row r="30" spans="1:6" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>"WScript.Echo ""Hello world"""</f>
@@ -2953,14 +3148,14 @@
     <row r="31" spans="1:6" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>"Wscript.StdOut.WriteLine ""Hello world"""</f>
         <v>Wscript.StdOut.WriteLine "Hello world"</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>409</v>
+      <c r="D31" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>128</v>
@@ -2972,7 +3167,7 @@
     <row r="32" spans="1:6" outlineLevel="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>"Dim vAnswer" &amp; CHAR(10) &amp; "vAnswer = MsgBox(""処理を継続しますか？"", vbOkCancel, ""title"")" &amp; CHAR(10) &amp; "If vAnswer = vbCancel Then" &amp; CHAR(10) &amp; "    MsgBox ""キャンセルが押されたため、処理を中断します。"", vbExclamation, ""title""" &amp; CHAR(10) &amp; "    WScript.Quit" &amp; CHAR(10) &amp; "End If"</f>
@@ -3002,10 +3197,10 @@
     <row r="33" spans="1:6" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>409</v>
+        <v>396</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D33" s="4" t="str">
         <f>"Debug.Assert 条件式"</f>
@@ -3084,8 +3279,8 @@
       <c r="B37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>409</v>
+      <c r="C37" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D37" s="4" t="str">
         <f>"Stop"</f>
@@ -3123,27 +3318,30 @@
       <c r="B39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="22" t="s">
+        <v>408</v>
+      </c>
       <c r="D39" s="4" t="str">
-        <f>"Dim vRetVal As Variant"&amp;CHAR(10)&amp;"vRetVal = CVErr(xlErrRef)"</f>
+        <f>"Dim vRetVal As Variant
+vRetVal = CVErr(xlErrRef)"</f>
         <v>Dim vRetVal As Variant
 vRetVal = CVErr(xlErrRef)</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="21" t="s">
-        <v>367</v>
+      <c r="A40" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F40" s="11" t="s">
@@ -3184,7 +3382,7 @@
         <v>InStr("abcabc", "bc")</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>127</v>
@@ -3204,7 +3402,7 @@
         <v>InStrRev("abcabc", "bc")</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>127</v>
@@ -3377,7 +3575,7 @@
         <v>324</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>127</v>
@@ -3417,7 +3615,7 @@
         <v>IsNumeric( sStr )</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>127</v>
@@ -3437,7 +3635,7 @@
         <v>Chr(ASCIIコード)</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>127</v>
@@ -3647,7 +3845,7 @@
         <v>VarType("Test")</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>127</v>
@@ -3683,7 +3881,7 @@
         <v>CLng("&amp;H" &amp; "FA")</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>127</v>
@@ -3802,7 +4000,7 @@
         <v>vbNewLine</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>141</v>
@@ -4172,13 +4370,13 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="21" t="s">
-        <v>356</v>
+      <c r="A92" s="20" t="s">
+        <v>355</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F92" s="11" t="s">
@@ -4191,7 +4389,7 @@
         <v>30</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D93" s="4" t="str">
         <f>"On Error Resume Next"</f>
@@ -4269,7 +4467,9 @@
       <c r="B97" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C97" s="13"/>
+      <c r="C97" s="22" t="s">
+        <v>408</v>
+      </c>
       <c r="D97" s="4" t="str">
         <f>"On Error GoTo ErrorLabel"</f>
         <v>On Error GoTo ErrorLabel</v>
@@ -4286,7 +4486,9 @@
       <c r="B98" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="22" t="s">
+        <v>408</v>
+      </c>
       <c r="D98" s="4" t="str">
         <f>"ErrorLabel:"</f>
         <v>ErrorLabel:</v>
@@ -4299,13 +4501,13 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="21" t="s">
-        <v>355</v>
+      <c r="A99" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F99" s="11" t="s">
@@ -4315,27 +4517,29 @@
     <row r="100" spans="1:6" outlineLevel="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="20" t="s">
         <v>357</v>
-      </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="21" t="s">
-        <v>358</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="22" t="s">
+      <c r="E101" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F101" s="11" t="s">
@@ -4345,14 +4549,14 @@
     <row r="102" spans="1:6" outlineLevel="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C102" s="4" t="str">
         <f>"Dim objTxtFile"</f>
         <v>Dim objTxtFile</v>
       </c>
-      <c r="D102" s="23" t="s">
-        <v>409</v>
+      <c r="D102" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>127</v>
@@ -4371,7 +4575,7 @@
         <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>127</v>
@@ -4390,7 +4594,7 @@
         <v>objTxtFile.Close</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="11" t="s">
@@ -4400,7 +4604,7 @@
     <row r="105" spans="1:6" outlineLevel="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C105" s="4" t="str">
         <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
@@ -4464,10 +4668,10 @@
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>409</v>
+        <v>417</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D108" s="4" t="str">
         <f>"Set wTargetBook = Workbooks.Open(sTargetBookName)"&amp;CHAR(10)&amp;"wTargetBook.Close SaveChanges:=True"</f>
@@ -4482,13 +4686,13 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="21" t="s">
-        <v>359</v>
+      <c r="A109" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="22" t="s">
+      <c r="E109" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F109" s="11" t="s">
@@ -4609,13 +4813,13 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="21" t="s">
-        <v>370</v>
+      <c r="A115" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
-      <c r="E115" s="22" t="s">
+      <c r="E115" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F115" s="11" t="s">
@@ -4625,11 +4829,17 @@
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C116" s="13"/>
+        <v>361</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <f>"Dim cTrgtPaths
+Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
+        <v>Dim cTrgtPaths
+Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
+      </c>
       <c r="D116" s="4" t="str">
-        <f>"Dim cTrgtPaths As Variant"&amp;CHAR(10)&amp;"Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
+        <f>"Dim cTrgtPaths As Variant
+Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
@@ -4643,12 +4853,13 @@
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="4" t="str">
-        <f>"cTrgtPaths.Add ""c:\test\a.txt"""</f>
-        <v>cTrgtPaths.Add "c:\test\a.txt"</v>
+        <v>370</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>127</v>
@@ -4660,12 +4871,13 @@
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="4" t="str">
-        <f>"cTrgtPaths(0)"</f>
-        <v>cTrgtPaths(0)</v>
+        <v>378</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>127</v>
@@ -4677,12 +4889,13 @@
     <row r="119" spans="1:6" outlineLevel="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="4" t="str">
-        <f>"cTrgtPaths.Item(0)"</f>
-        <v>cTrgtPaths.Item(0)</v>
+        <v>379</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>129</v>
@@ -4694,14 +4907,26 @@
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C120" s="13"/>
+        <v>377</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <f>"Dim vTrgtPath
+For Each vTrgtPath In cTrgtPaths
+    MsgBox vTrgtPath
+Next"</f>
+        <v>Dim vTrgtPath
+For Each vTrgtPath In cTrgtPaths
+    MsgBox vTrgtPath
+Next</v>
+      </c>
       <c r="D120" s="4" t="str">
-        <f>"Dim vTrgtPath As Variant"&amp;CHAR(10)&amp;"For Each vTrgtPath In cTrgtPaths"&amp;CHAR(10)&amp;"MsgBox vTrgtPath"&amp;CHAR(10)&amp;"Next"</f>
+        <f>"Dim vTrgtPath As Variant
+For Each vTrgtPath In cTrgtPaths
+    MsgBox vTrgtPath
+Next"</f>
         <v>Dim vTrgtPath As Variant
 For Each vTrgtPath In cTrgtPaths
-MsgBox vTrgtPath
+    MsgBox vTrgtPath
 Next</v>
       </c>
       <c r="E120" s="5" t="s">
@@ -4714,12 +4939,13 @@
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C121" s="13"/>
-      <c r="D121" s="4" t="str">
-        <f>"cTrgtPaths.Count"</f>
-        <v>cTrgtPaths.Count</v>
+        <v>371</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>276</v>
@@ -4731,12 +4957,13 @@
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="4" t="str">
-        <f>"cTrgtPaths.Remove ""c:\test\b.xlsx"""</f>
-        <v>cTrgtPaths.Remove "c:\test\b.xlsx"</v>
+        <v>372</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>277</v>
@@ -4748,15 +4975,16 @@
     <row r="123" spans="1:6" outlineLevel="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C123" s="13"/>
-      <c r="D123" s="4" t="str">
-        <f>"cTrgtPaths.Add Item:=""c:\test\e.ppt"", After:=2"</f>
-        <v>cTrgtPaths.Add Item:="c:\test\e.ppt", After:=2</v>
+        <v>373</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>127</v>
+        <v>454</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>127</v>
@@ -4765,12 +4993,13 @@
     <row r="124" spans="1:6" outlineLevel="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="4" t="str">
-        <f>"cTrgtPaths.Sort"</f>
-        <v>cTrgtPaths.Sort</v>
+        <v>374</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>127</v>
@@ -4782,11 +5011,17 @@
     <row r="125" spans="1:6" outlineLevel="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C125" s="13"/>
+        <v>375</v>
+      </c>
+      <c r="C125" s="4" t="str">
+        <f>"Dim avTrgtPaths
+avTrgtPaths = cTrgtPaths.ToArray()"</f>
+        <v>Dim avTrgtPaths
+avTrgtPaths = cTrgtPaths.ToArray()</v>
+      </c>
       <c r="D125" s="4" t="str">
-        <f>"Dim avTrgtPaths As Variant"&amp;CHAR(10)&amp;"avTrgtPaths = cTrgtPaths.ToArray()"</f>
+        <f>"Dim avTrgtPaths As Variant
+avTrgtPaths = cTrgtPaths.ToArray()"</f>
         <v>Dim avTrgtPaths As Variant
 avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
@@ -4800,12 +5035,13 @@
     <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="4" t="str">
-        <f>"cTrgtPaths.Clear"</f>
-        <v>cTrgtPaths.Clear</v>
+        <v>376</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>127</v>
@@ -4815,13 +5051,13 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="21" t="s">
-        <v>369</v>
+      <c r="A127" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
-      <c r="E127" s="22" t="s">
+      <c r="E127" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F127" s="11" t="s">
@@ -4831,11 +5067,17 @@
     <row r="128" spans="1:6" outlineLevel="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C128" s="13"/>
+        <v>361</v>
+      </c>
+      <c r="C128" s="4" t="str">
+        <f>"Dim oPriceOfFruit
+Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
+        <v>Dim oPriceOfFruit
+Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
+      </c>
       <c r="D128" s="4" t="str">
-        <f>"Dim oPriceOfFruit As Object"&amp;CHAR(10)&amp;"Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
+        <f>"Dim oPriceOfFruit As Object
+Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
@@ -4851,9 +5093,11 @@
       <c r="B129" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="13"/>
+      <c r="C129" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="D129" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>127</v>
@@ -4867,10 +5111,11 @@
       <c r="B130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="4" t="str">
-        <f>"oPriceOfFruit.Exists(""リンゴ"")"</f>
-        <v>oPriceOfFruit.Exists("リンゴ")</v>
+      <c r="C130" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>127</v>
@@ -4884,11 +5129,20 @@
       <c r="B131" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C131" s="13"/>
+      <c r="C131" s="4" t="str">
+        <f>"For Each vKey In oPriceOfFruit
+    MsgBox vKey
+Next"</f>
+        <v>For Each vKey In oPriceOfFruit
+    MsgBox vKey
+Next</v>
+      </c>
       <c r="D131" s="4" t="str">
-        <f>"For Each vKey In oPriceOfFruit"&amp;CHAR(10)&amp;"Debug.print vKey"&amp;CHAR(10)&amp;"Next"</f>
+        <f>"For Each vKey In oPriceOfFruit
+    Debug.print vKey
+Next"</f>
         <v>For Each vKey In oPriceOfFruit
-Debug.print vKey
+    Debug.print vKey
 Next</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -4903,10 +5157,11 @@
       <c r="B132" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="4" t="str">
-        <f>"oPriceOfFruit.Item(""リンゴ"")"</f>
-        <v>oPriceOfFruit.Item("リンゴ")</v>
+      <c r="C132" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>127</v>
@@ -4920,10 +5175,11 @@
       <c r="B133" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="4" t="str">
-        <f>"oPriceOfFruit.Keys()(0)"</f>
-        <v>oPriceOfFruit.Keys()(0)</v>
+      <c r="C133" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>280</v>
@@ -4937,10 +5193,11 @@
       <c r="B134" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="4" t="str">
-        <f>"oPriceOfFruit.Items()(0)"</f>
-        <v>oPriceOfFruit.Items()(0)</v>
+      <c r="C134" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>458</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>280</v>
@@ -4954,10 +5211,11 @@
       <c r="B135" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="4" t="str">
-        <f>"oPriceOfFruit.Key(""リンゴ"") = ""りんご"""</f>
-        <v>oPriceOfFruit.Key("リンゴ") = "りんご"</v>
+      <c r="C135" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>127</v>
@@ -4971,10 +5229,11 @@
       <c r="B136" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C136" s="13"/>
-      <c r="D136" s="4" t="str">
-        <f>"oPriceOfFruit.Item(""リンゴ"") = ""200円"""</f>
-        <v>oPriceOfFruit.Item("リンゴ") = "200円"</v>
+      <c r="C136" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>127</v>
@@ -4988,10 +5247,11 @@
       <c r="B137" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C137" s="13"/>
-      <c r="D137" s="4" t="str">
-        <f>"oPriceOfFruit.Count"</f>
-        <v>oPriceOfFruit.Count</v>
+      <c r="C137" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>127</v>
@@ -5005,10 +5265,11 @@
       <c r="B138" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="4" t="str">
-        <f>"oPriceOfFruit.Remove(""リンゴ"")"</f>
-        <v>oPriceOfFruit.Remove("リンゴ")</v>
+      <c r="C138" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>281</v>
@@ -5022,10 +5283,11 @@
       <c r="B139" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="13"/>
-      <c r="D139" s="4" t="str">
-        <f>"oPriceOfFruit.RemoveAll"</f>
-        <v>oPriceOfFruit.RemoveAll</v>
+      <c r="C139" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>127</v>
@@ -5039,10 +5301,11 @@
       <c r="B140" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="4" t="str">
-        <f>"asFruitPrice = oPriceOfFruit.Items"</f>
-        <v>asFruitPrice = oPriceOfFruit.Items</v>
+      <c r="C140" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>282</v>
@@ -5056,10 +5319,11 @@
       <c r="B141" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="4" t="str">
-        <f>"asFruitName = oPriceOfFruit.Keys"</f>
-        <v>asFruitName = oPriceOfFruit.Keys</v>
+      <c r="C141" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>282</v>
@@ -5073,10 +5337,11 @@
       <c r="B142" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C142" s="13"/>
-      <c r="D142" s="4" t="str">
-        <f>"oPriceOfFruit.CompareMode = vbBinaryCompare"</f>
-        <v>oPriceOfFruit.CompareMode = vbBinaryCompare</v>
+      <c r="C142" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>283</v>
@@ -5086,13 +5351,13 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="21" t="s">
-        <v>361</v>
+      <c r="A143" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="22" t="s">
+      <c r="E143" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F143" s="11" t="s">
@@ -5102,7 +5367,7 @@
     <row r="144" spans="1:6" outlineLevel="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C144" s="4" t="str">
         <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = WScript.CreateObject(""WScript.Shell"")"</f>
@@ -5110,7 +5375,8 @@
 Set objWshShell = WScript.CreateObject("WScript.Shell")</v>
       </c>
       <c r="D144" s="4" t="str">
-        <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = CreateObject(""WScript.Shell"")"</f>
+        <f>"Dim objWshShell
+Set objWshShell = CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = CreateObject("WScript.Shell")</v>
       </c>
@@ -5130,9 +5396,8 @@
         <f>"objWshShell.Exec(""C:\test.bat"")"</f>
         <v>objWshShell.Exec("C:\test.bat")</v>
       </c>
-      <c r="D145" s="4" t="str">
-        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
-        <v>objWshShell.Exec("C:\test.bat")</v>
+      <c r="D145" s="4" t="s">
+        <v>467</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>285</v>
@@ -5150,12 +5415,11 @@
         <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
         <v>objWshShell.Run "C:\test.bat", 0, True</v>
       </c>
-      <c r="D146" s="4" t="str">
-        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
-        <v>objWshShell.Run "C:\test.bat", 0, True</v>
+      <c r="D146" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>127</v>
@@ -5170,8 +5434,8 @@
         <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
         <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
       </c>
-      <c r="D147" s="12" t="s">
-        <v>434</v>
+      <c r="D147" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="F147" s="11" t="s">
         <v>127</v>
@@ -5186,9 +5450,8 @@
         <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
         <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
       </c>
-      <c r="D148" s="4" t="str">
-        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
-        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
+      <c r="D148" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>127</v>
@@ -5206,9 +5469,8 @@
         <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
         <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
       </c>
-      <c r="D149" s="4" t="str">
-        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
-        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
+      <c r="D149" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>286</v>
@@ -5226,12 +5488,11 @@
         <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
         <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
       </c>
-      <c r="D150" s="4" t="str">
-        <f>"objWshShell.ExpandEnvironmentStrings( ""%MYPATH\_CODES%"" )"</f>
-        <v>objWshShell.ExpandEnvironmentStrings( "%MYPATH\_CODES%" )</v>
+      <c r="D150" s="4" t="s">
+        <v>472</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F150" s="11" t="s">
         <v>127</v>
@@ -5240,14 +5501,14 @@
     <row r="151" spans="1:6" outlineLevel="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C151" s="4" t="str">
         <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
         <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
       </c>
-      <c r="D151" s="13" t="s">
-        <v>434</v>
+      <c r="D151" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="11" t="s">
@@ -5257,15 +5518,14 @@
     <row r="152" spans="1:6" outlineLevel="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C152" s="4" t="str">
         <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
         <v>objWshShell.SpecialFolders("Desktop")</v>
       </c>
-      <c r="D152" s="4" t="str">
-        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
-        <v>objWshShell.SpecialFolders("Desktop")</v>
+      <c r="D152" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>152</v>
@@ -5287,10 +5547,13 @@
 End With</v>
       </c>
       <c r="D153" s="4" t="str">
-        <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
+        <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
+    .TargetPath = ""c:\test\dst.txt""
+    .Save
+End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
-.TargetPath = "c:\test\dst.txt"
-.Save
+    .TargetPath = "c:\test\dst.txt"
+    .Save
 End With</v>
       </c>
       <c r="E153" s="5" t="s">
@@ -5309,9 +5572,8 @@
         <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
         <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
       </c>
-      <c r="D154" s="4" t="str">
-        <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
-        <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
+      <c r="D154" s="4" t="s">
+        <v>474</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>287</v>
@@ -5333,10 +5595,13 @@
 End With</v>
       </c>
       <c r="D155" s="4" t="str">
-        <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst2.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
+        <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
+    .TargetPath = ""c:\test\dst2.txt""
+    .Save
+End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
-.TargetPath = "c:\test\dst2.txt"
-.Save
+    .TargetPath = "c:\test\dst2.txt"
+    .Save
 End With</v>
       </c>
       <c r="E155" s="5" t="s">
@@ -5358,8 +5623,8 @@
 .Save
 End With</v>
       </c>
-      <c r="D156" s="13" t="s">
-        <v>434</v>
+      <c r="D156" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="11" t="s">
@@ -5378,8 +5643,8 @@
 .Save
 End With</v>
       </c>
-      <c r="D157" s="13" t="s">
-        <v>434</v>
+      <c r="D157" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="11" t="s">
@@ -5395,8 +5660,8 @@
         <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
         <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
       </c>
-      <c r="D158" s="13" t="s">
-        <v>434</v>
+      <c r="D158" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="11" t="s">
@@ -5412,8 +5677,8 @@
         <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
-      <c r="D159" s="13" t="s">
-        <v>434</v>
+      <c r="D159" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="11" t="s">
@@ -5429,8 +5694,8 @@
         <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
-      <c r="D160" s="13" t="s">
-        <v>434</v>
+      <c r="D160" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="11" t="s">
@@ -5438,13 +5703,13 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="21" t="s">
-        <v>381</v>
+      <c r="A161" s="20" t="s">
+        <v>380</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="22" t="s">
+      <c r="E161" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F161" s="11" t="s">
@@ -5454,7 +5719,7 @@
     <row r="162" spans="1:6" outlineLevel="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C162" s="4" t="str">
         <f>"Dim objFSO"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
@@ -5475,10 +5740,10 @@
     </row>
     <row r="163" spans="1:6" outlineLevel="1">
       <c r="B163" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C163" s="24" t="s">
-        <v>409</v>
+        <v>403</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>408</v>
       </c>
       <c r="D163" s="4" t="str">
         <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
@@ -5596,8 +5861,8 @@
       <c r="B169" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C169" s="23" t="s">
-        <v>409</v>
+      <c r="C169" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D169" s="4" t="str">
         <f>"If Dir(""C:\Book1.xlsx"") &lt;&gt; """" Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"存在"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"非存在"&amp;CHAR(10)&amp;"End If"</f>
@@ -5860,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D182" s="4" t="str">
         <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
@@ -5876,7 +6141,7 @@
     <row r="183" spans="1:6" outlineLevel="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C183" s="4" t="str">
         <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
@@ -5896,7 +6161,7 @@
     <row r="184" spans="1:6" outlineLevel="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C184" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
@@ -5915,29 +6180,29 @@
     </row>
     <row r="185" spans="1:6" outlineLevel="1">
       <c r="B185" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="D185" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E185" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="F185" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="21" t="s">
-        <v>410</v>
+      <c r="A186" s="20" t="s">
+        <v>409</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
-      <c r="E186" s="22" t="s">
+      <c r="E186" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F186" s="11" t="s">
@@ -5953,8 +6218,8 @@
         <f>"WScript.ScriptFullName"</f>
         <v>WScript.ScriptFullName</v>
       </c>
-      <c r="D187" s="26" t="s">
-        <v>437</v>
+      <c r="D187" s="25" t="s">
+        <v>435</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="11" t="s">
@@ -5970,8 +6235,8 @@
         <f>"WScript.ScriptName"</f>
         <v>WScript.ScriptName</v>
       </c>
-      <c r="D188" s="26" t="s">
-        <v>435</v>
+      <c r="D188" s="25" t="s">
+        <v>433</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="11" t="s">
@@ -5987,8 +6252,8 @@
         <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
         <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
       </c>
-      <c r="D189" s="23" t="s">
-        <v>409</v>
+      <c r="D189" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="11" t="s">
@@ -6004,8 +6269,8 @@
         <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
         <v>objFSO.GetBaseName( WScript.ScriptName )</v>
       </c>
-      <c r="D190" s="23" t="s">
-        <v>409</v>
+      <c r="D190" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="11" t="s">
@@ -6022,7 +6287,7 @@
         <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="11" t="s">
@@ -6038,8 +6303,8 @@
         <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
         <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
       </c>
-      <c r="D192" s="23" t="s">
-        <v>409</v>
+      <c r="D192" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="11" t="s">
@@ -6047,13 +6312,13 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="21" t="s">
-        <v>411</v>
+      <c r="A193" s="20" t="s">
+        <v>410</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="22" t="s">
+      <c r="E193" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F193" s="11" t="s">
@@ -6063,10 +6328,10 @@
     <row r="194" spans="1:6" outlineLevel="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C194" s="23" t="s">
-        <v>409</v>
+        <v>361</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D194" s="4" t="str">
         <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
@@ -6085,8 +6350,8 @@
       <c r="B195" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C195" s="23" t="s">
-        <v>409</v>
+      <c r="C195" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D195" s="4" t="str">
         <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
@@ -6104,8 +6369,8 @@
       <c r="B196" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C196" s="23" t="s">
-        <v>409</v>
+      <c r="C196" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D196" s="4" t="str">
         <f>"oChartObj.Delete"</f>
@@ -6123,8 +6388,8 @@
       <c r="B197" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C197" s="23" t="s">
-        <v>409</v>
+      <c r="C197" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D197" s="4" t="str">
         <f>"oChartObj.Chart.ChartArea.Copy"</f>
@@ -6142,8 +6407,8 @@
       <c r="B198" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C198" s="23" t="s">
-        <v>409</v>
+      <c r="C198" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D198" s="4" t="str">
         <f>"oChartObj.Top = 10"</f>
@@ -6161,8 +6426,8 @@
       <c r="B199" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C199" s="23" t="s">
-        <v>409</v>
+      <c r="C199" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D199" s="4" t="str">
         <f>"oChartObj.Left = 20"</f>
@@ -6180,8 +6445,8 @@
       <c r="B200" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C200" s="23" t="s">
-        <v>409</v>
+      <c r="C200" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D200" s="4" t="str">
         <f>"oChartObj.Width = 200"</f>
@@ -6199,8 +6464,8 @@
       <c r="B201" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C201" s="23" t="s">
-        <v>409</v>
+      <c r="C201" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D201" s="4" t="str">
         <f>"oChartObj.Height = 300"</f>
@@ -6218,8 +6483,8 @@
       <c r="B202" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C202" s="23" t="s">
-        <v>409</v>
+      <c r="C202" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D202" s="4" t="str">
         <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
@@ -6237,8 +6502,8 @@
       <c r="B203" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C203" s="23" t="s">
-        <v>409</v>
+      <c r="C203" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D203" s="4" t="str">
         <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
@@ -6256,8 +6521,8 @@
       <c r="B204" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C204" s="23" t="s">
-        <v>409</v>
+      <c r="C204" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D204" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
@@ -6275,8 +6540,8 @@
       <c r="B205" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C205" s="23" t="s">
-        <v>409</v>
+      <c r="C205" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D205" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
@@ -6294,8 +6559,8 @@
       <c r="B206" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C206" s="23" t="s">
-        <v>409</v>
+      <c r="C206" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D206" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
@@ -6313,8 +6578,8 @@
       <c r="B207" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C207" s="23" t="s">
-        <v>409</v>
+      <c r="C207" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D207" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
@@ -6332,8 +6597,8 @@
       <c r="B208" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C208" s="23" t="s">
-        <v>409</v>
+      <c r="C208" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D208" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
@@ -6351,8 +6616,8 @@
       <c r="B209" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C209" s="23" t="s">
-        <v>409</v>
+      <c r="C209" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D209" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
@@ -6370,8 +6635,8 @@
       <c r="B210" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C210" s="25" t="s">
-        <v>409</v>
+      <c r="C210" s="24" t="s">
+        <v>408</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>266</v>
@@ -6388,8 +6653,8 @@
       <c r="B211" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C211" s="23" t="s">
-        <v>409</v>
+      <c r="C211" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D211" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
@@ -6407,8 +6672,8 @@
       <c r="B212" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C212" s="23" t="s">
-        <v>409</v>
+      <c r="C212" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D212" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
@@ -6426,8 +6691,8 @@
       <c r="B213" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C213" s="23" t="s">
-        <v>409</v>
+      <c r="C213" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D213" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
@@ -6445,8 +6710,8 @@
       <c r="B214" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C214" s="23" t="s">
-        <v>409</v>
+      <c r="C214" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D214" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
@@ -6464,8 +6729,8 @@
       <c r="B215" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C215" s="23" t="s">
-        <v>409</v>
+      <c r="C215" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D215" s="4" t="str">
         <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
@@ -6483,8 +6748,8 @@
       <c r="B216" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C216" s="23" t="s">
-        <v>409</v>
+      <c r="C216" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>267</v>
@@ -6501,8 +6766,8 @@
       <c r="B217" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C217" s="23" t="s">
-        <v>409</v>
+      <c r="C217" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D217" s="4" t="str">
         <f>"oChartObj.Chart.HasTitle = True"</f>
@@ -6520,8 +6785,8 @@
       <c r="B218" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C218" s="23" t="s">
-        <v>409</v>
+      <c r="C218" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D218" s="4" t="str">
         <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
@@ -6539,8 +6804,8 @@
       <c r="B219" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C219" s="23" t="s">
-        <v>409</v>
+      <c r="C219" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D219" s="4" t="str">
         <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
@@ -6558,8 +6823,8 @@
       <c r="B220" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C220" s="23" t="s">
-        <v>409</v>
+      <c r="C220" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D220" s="4" t="str">
         <f>"oChartObj.Chart.HasLegend = True"</f>
@@ -6577,8 +6842,8 @@
       <c r="B221" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C221" s="23" t="s">
-        <v>409</v>
+      <c r="C221" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D221" s="4" t="str">
         <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
@@ -6596,8 +6861,8 @@
       <c r="B222" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C222" s="23" t="s">
-        <v>409</v>
+      <c r="C222" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D222" s="4" t="str">
         <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
@@ -6615,8 +6880,8 @@
       <c r="B223" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C223" s="23" t="s">
-        <v>409</v>
+      <c r="C223" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D223" s="10" t="str">
         <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
@@ -6631,12 +6896,12 @@
     </row>
     <row r="224" spans="1:6" outlineLevel="1">
       <c r="A224" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
-      <c r="E224" s="22" t="s">
+      <c r="E224" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F224" s="11" t="s">
@@ -6648,8 +6913,8 @@
       <c r="B225" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C225" s="23" t="s">
-        <v>409</v>
+      <c r="C225" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D225" s="4" t="str">
         <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
@@ -6668,8 +6933,8 @@
       <c r="B226" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C226" s="23" t="s">
-        <v>409</v>
+      <c r="C226" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D226" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
@@ -6686,12 +6951,12 @@
     </row>
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
-      <c r="E227" s="22" t="s">
+      <c r="E227" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F227" s="11" t="s">
@@ -6703,8 +6968,8 @@
       <c r="B228" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C228" s="23" t="s">
-        <v>409</v>
+      <c r="C228" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D228" s="4" t="str">
         <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
@@ -6722,8 +6987,8 @@
       <c r="B229" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C229" s="23" t="s">
-        <v>409</v>
+      <c r="C229" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D229" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
@@ -6739,12 +7004,12 @@
     </row>
     <row r="230" spans="1:6" outlineLevel="1">
       <c r="A230" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
-      <c r="E230" s="22" t="s">
+      <c r="E230" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F230" s="11" t="s">
@@ -6754,13 +7019,13 @@
     <row r="231" spans="1:6" outlineLevel="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C231" s="23" t="s">
-        <v>409</v>
+        <v>399</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>127</v>
@@ -6771,12 +7036,12 @@
     </row>
     <row r="232" spans="1:6" outlineLevel="1">
       <c r="A232" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
-      <c r="E232" s="22" t="s">
+      <c r="E232" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F232" s="11" t="s">
@@ -6788,8 +7053,8 @@
       <c r="B233" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C233" s="23" t="s">
-        <v>409</v>
+      <c r="C233" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D233" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
@@ -6810,8 +7075,8 @@
       <c r="B234" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C234" s="23" t="s">
-        <v>409</v>
+      <c r="C234" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D234" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
@@ -6829,12 +7094,12 @@
     </row>
     <row r="235" spans="1:6" outlineLevel="1">
       <c r="A235" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
-      <c r="E235" s="22" t="s">
+      <c r="E235" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F235" s="11" t="s">
@@ -6846,8 +7111,8 @@
       <c r="B236" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C236" s="23" t="s">
-        <v>409</v>
+      <c r="C236" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D236" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
@@ -6867,8 +7132,8 @@
       <c r="B237" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C237" s="23" t="s">
-        <v>409</v>
+      <c r="C237" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D237" s="4" t="str">
         <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
@@ -6887,8 +7152,8 @@
       <c r="B238" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C238" s="23" t="s">
-        <v>409</v>
+      <c r="C238" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D238" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
@@ -6908,8 +7173,8 @@
       <c r="B239" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C239" s="23" t="s">
-        <v>409</v>
+      <c r="C239" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D239" s="4" t="str">
         <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
@@ -6928,8 +7193,8 @@
       <c r="B240" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C240" s="23" t="s">
-        <v>409</v>
+      <c r="C240" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D240" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
@@ -6947,12 +7212,12 @@
     </row>
     <row r="241" spans="1:6" outlineLevel="1">
       <c r="A241" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
-      <c r="E241" s="22" t="s">
+      <c r="E241" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F241" s="11" t="s">
@@ -6964,8 +7229,8 @@
       <c r="B242" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C242" s="23" t="s">
-        <v>409</v>
+      <c r="C242" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D242" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
@@ -6985,8 +7250,8 @@
       <c r="B243" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C243" s="23" t="s">
-        <v>409</v>
+      <c r="C243" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D243" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
@@ -7008,8 +7273,8 @@
       <c r="B244" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C244" s="23" t="s">
-        <v>409</v>
+      <c r="C244" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D244" s="4" t="str">
         <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
@@ -7028,8 +7293,8 @@
       <c r="B245" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C245" s="23" t="s">
-        <v>409</v>
+      <c r="C245" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D245" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
@@ -7047,8 +7312,8 @@
       <c r="B246" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C246" s="23" t="s">
-        <v>409</v>
+      <c r="C246" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D246" s="4" t="str">
         <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
@@ -7066,8 +7331,8 @@
       <c r="B247" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C247" s="23" t="s">
-        <v>409</v>
+      <c r="C247" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D247" s="4" t="str">
         <f>".Sheets.Count"</f>
@@ -7085,8 +7350,8 @@
       <c r="B248" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C248" s="23" t="s">
-        <v>409</v>
+      <c r="C248" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D248" s="4" t="str">
         <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
@@ -7105,8 +7370,8 @@
       <c r="B249" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C249" s="23" t="s">
-        <v>409</v>
+      <c r="C249" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D249" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
@@ -7124,8 +7389,8 @@
       <c r="B250" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C250" s="23" t="s">
-        <v>409</v>
+      <c r="C250" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D250" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
@@ -7145,8 +7410,8 @@
       <c r="B251" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C251" s="23" t="s">
-        <v>409</v>
+      <c r="C251" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D251" s="4" t="str">
         <f>".Sheets(シート名).Visible = (True\|False)"</f>
@@ -7164,8 +7429,8 @@
       <c r="B252" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C252" s="23" t="s">
-        <v>409</v>
+      <c r="C252" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D252" s="4" t="str">
         <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
@@ -7183,8 +7448,8 @@
       <c r="B253" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C253" s="23" t="s">
-        <v>409</v>
+      <c r="C253" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D253" s="4" t="str">
         <f>"Application.ScreenUpdating = True"</f>
@@ -7202,8 +7467,8 @@
       <c r="B254" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C254" s="23" t="s">
-        <v>409</v>
+      <c r="C254" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D254" s="4" t="str">
         <f>"Application.ScreenUpdating = False"</f>
@@ -7221,8 +7486,8 @@
       <c r="B255" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C255" s="23" t="s">
-        <v>409</v>
+      <c r="C255" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D255" s="4" t="str">
         <f>"Application.Calculation = xlCalculationAutomatic"</f>
@@ -7240,8 +7505,8 @@
       <c r="B256" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C256" s="23" t="s">
-        <v>409</v>
+      <c r="C256" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D256" s="4" t="str">
         <f>"Application.Calculation = xlCalculationManual"</f>
@@ -7259,8 +7524,8 @@
       <c r="B257" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C257" s="23" t="s">
-        <v>409</v>
+      <c r="C257" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D257" s="4" t="str">
         <f>"Application.Calculate"</f>
@@ -7278,8 +7543,8 @@
       <c r="B258" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C258" s="23" t="s">
-        <v>409</v>
+      <c r="C258" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D258" s="4" t="str">
         <f>"Application.CalculateFull"</f>
@@ -7293,13 +7558,13 @@
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="21" t="s">
-        <v>412</v>
+      <c r="A259" s="20" t="s">
+        <v>411</v>
       </c>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
-      <c r="E259" s="22" t="s">
+      <c r="E259" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F259" s="11" t="s">
@@ -7311,8 +7576,8 @@
       <c r="B260" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C260" s="23" t="s">
-        <v>409</v>
+      <c r="C260" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D260" s="4" t="str">
         <f>"Application.DisplayAlerts = False"</f>
@@ -7330,8 +7595,8 @@
       <c r="B261" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C261" s="23" t="s">
-        <v>409</v>
+      <c r="C261" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D261" s="4" t="str">
         <f>"Application.DisplayAlerts = True"</f>
@@ -7349,8 +7614,8 @@
       <c r="B262" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C262" s="23" t="s">
-        <v>409</v>
+      <c r="C262" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D262" s="4" t="str">
         <f>".Rows(2).Select"</f>
@@ -7368,8 +7633,8 @@
       <c r="B263" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C263" s="23" t="s">
-        <v>409</v>
+      <c r="C263" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D263" s="4" t="str">
         <f>".Columns(2).Select"</f>
@@ -7387,8 +7652,8 @@
       <c r="B264" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C264" s="23" t="s">
-        <v>409</v>
+      <c r="C264" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D264" s="4" t="str">
         <f>".Cells(1,1).Select"</f>
@@ -7406,8 +7671,8 @@
       <c r="B265" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C265" s="23" t="s">
-        <v>409</v>
+      <c r="C265" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D265" s="4" t="str">
         <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
@@ -7425,8 +7690,8 @@
       <c r="B266" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C266" s="23" t="s">
-        <v>409</v>
+      <c r="C266" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D266" s="4" t="str">
         <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
@@ -7444,8 +7709,8 @@
       <c r="B267" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C267" s="23" t="s">
-        <v>409</v>
+      <c r="C267" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D267" s="4" t="str">
         <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
@@ -7463,8 +7728,8 @@
       <c r="B268" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C268" s="23" t="s">
-        <v>409</v>
+      <c r="C268" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D268" s="4" t="str">
         <f>".Cells(X, Y).Value"</f>
@@ -7482,8 +7747,8 @@
       <c r="B269" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C269" s="23" t="s">
-        <v>409</v>
+      <c r="C269" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D269" s="4" t="str">
         <f>".Cells(1, 1).Top"</f>
@@ -7501,8 +7766,8 @@
       <c r="B270" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C270" s="23" t="s">
-        <v>409</v>
+      <c r="C270" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D270" s="4" t="str">
         <f>".Cells(1, 1).Left"</f>
@@ -7520,8 +7785,8 @@
       <c r="B271" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C271" s="23" t="s">
-        <v>409</v>
+      <c r="C271" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D271" s="4" t="str">
         <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
@@ -7539,8 +7804,8 @@
       <c r="B272" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C272" s="23" t="s">
-        <v>409</v>
+      <c r="C272" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D272" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
@@ -7559,8 +7824,8 @@
       <c r="B273" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C273" s="23" t="s">
-        <v>409</v>
+      <c r="C273" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D273" s="4" t="str">
         <f>".Cells(行, 列).Font.Strikethrough"</f>
@@ -7578,8 +7843,8 @@
       <c r="B274" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C274" s="23" t="s">
-        <v>409</v>
+      <c r="C274" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D274" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
@@ -7598,8 +7863,8 @@
       <c r="B275" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C275" s="23" t="s">
-        <v>409</v>
+      <c r="C275" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D275" s="4" t="str">
         <f>".Range(""A1"").EntireRow.Hidden"</f>
@@ -7617,8 +7882,8 @@
       <c r="B276" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C276" s="23" t="s">
-        <v>409</v>
+      <c r="C276" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D276" s="4" t="str">
         <f>".Range(""A1"").EntireColumn.Hidden"</f>
@@ -7636,8 +7901,8 @@
       <c r="B277" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C277" s="23" t="s">
-        <v>409</v>
+      <c r="C277" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D277" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
@@ -7665,8 +7930,8 @@
       <c r="B278" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C278" s="23" t="s">
-        <v>409</v>
+      <c r="C278" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D278" s="4" t="str">
         <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
@@ -7684,8 +7949,8 @@
       <c r="B279" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C279" s="23" t="s">
-        <v>409</v>
+      <c r="C279" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D279" s="4" t="str">
         <f>".Range(""A1"").Font.Size = 14"</f>
@@ -7703,8 +7968,8 @@
       <c r="B280" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C280" s="23" t="s">
-        <v>409</v>
+      <c r="C280" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D280" s="4" t="str">
         <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
@@ -7722,8 +7987,8 @@
       <c r="B281" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C281" s="23" t="s">
-        <v>409</v>
+      <c r="C281" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D281" s="4" t="str">
         <f>".Range(""A1"").Font.Bold = True"</f>
@@ -7741,8 +8006,8 @@
       <c r="B282" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C282" s="23" t="s">
-        <v>409</v>
+      <c r="C282" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D282" s="4" t="str">
         <f>".Range(""A1"").Font.Underline = True"</f>
@@ -7760,8 +8025,8 @@
       <c r="B283" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C283" s="23" t="s">
-        <v>409</v>
+      <c r="C283" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D283" s="4" t="str">
         <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
@@ -7779,8 +8044,8 @@
       <c r="B284" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C284" s="23" t="s">
-        <v>409</v>
+      <c r="C284" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D284" s="4" t="str">
         <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
@@ -7798,8 +8063,8 @@
       <c r="B285" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C285" s="23" t="s">
-        <v>409</v>
+      <c r="C285" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D285" s="4" t="str">
         <f>".Range(""A1:C3"").MergeCells = True"</f>
@@ -7817,8 +8082,8 @@
       <c r="B286" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C286" s="23" t="s">
-        <v>409</v>
+      <c r="C286" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D286" s="4" t="str">
         <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
@@ -7836,8 +8101,8 @@
       <c r="B287" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C287" s="23" t="s">
-        <v>409</v>
+      <c r="C287" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D287" s="4" t="str">
         <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
@@ -7855,8 +8120,8 @@
       <c r="B288" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C288" s="23" t="s">
-        <v>409</v>
+      <c r="C288" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D288" s="4" t="str">
         <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
@@ -7874,8 +8139,8 @@
       <c r="B289" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C289" s="23" t="s">
-        <v>409</v>
+      <c r="C289" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D289" s="4" t="str">
         <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
@@ -7893,8 +8158,8 @@
       <c r="B290" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C290" s="23" t="s">
-        <v>409</v>
+      <c r="C290" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D290" s="4" t="str">
         <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
@@ -7912,8 +8177,8 @@
       <c r="B291" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C291" s="23" t="s">
-        <v>409</v>
+      <c r="C291" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D291" s="4" t="str">
         <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
@@ -7931,8 +8196,8 @@
       <c r="B292" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C292" s="23" t="s">
-        <v>409</v>
+      <c r="C292" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D292" s="4" t="str">
         <f>"Selection(1).Row"</f>
@@ -7950,8 +8215,8 @@
       <c r="B293" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C293" s="23" t="s">
-        <v>409</v>
+      <c r="C293" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D293" s="4" t="str">
         <f>"Selection(Selection.Count).Row"</f>
@@ -7969,8 +8234,8 @@
       <c r="B294" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C294" s="23" t="s">
-        <v>409</v>
+      <c r="C294" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D294" s="4" t="str">
         <f>"Selection(1).Column"</f>
@@ -7988,8 +8253,8 @@
       <c r="B295" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C295" s="23" t="s">
-        <v>409</v>
+      <c r="C295" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D295" s="4" t="str">
         <f>"Selection(Selection.Count).Column"</f>
@@ -8007,8 +8272,8 @@
       <c r="B296" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C296" s="23" t="s">
-        <v>409</v>
+      <c r="C296" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>330</v>
@@ -8025,8 +8290,8 @@
       <c r="B297" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C297" s="23" t="s">
-        <v>409</v>
+      <c r="C297" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>331</v>
@@ -8043,8 +8308,8 @@
       <c r="B298" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C298" s="23" t="s">
-        <v>409</v>
+      <c r="C298" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>335</v>
@@ -8061,8 +8326,8 @@
       <c r="B299" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C299" s="23" t="s">
-        <v>409</v>
+      <c r="C299" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D299" s="4" t="str">
         <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
@@ -8080,8 +8345,8 @@
       <c r="B300" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C300" s="23" t="s">
-        <v>409</v>
+      <c r="C300" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D300" s="4" t="str">
         <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
@@ -8099,8 +8364,8 @@
       <c r="B301" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C301" s="23" t="s">
-        <v>409</v>
+      <c r="C301" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D301" s="4" t="str">
         <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
@@ -8118,8 +8383,8 @@
       <c r="B302" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C302" s="23" t="s">
-        <v>409</v>
+      <c r="C302" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D302" s="4" t="str">
         <f>".Range(""A1:A2"").ClearContents"</f>
@@ -8137,8 +8402,8 @@
       <c r="B303" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C303" s="23" t="s">
-        <v>409</v>
+      <c r="C303" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D303" s="4" t="str">
         <f>".Range(""A1:A2"").ClearFormats"</f>
@@ -8156,8 +8421,8 @@
       <c r="B304" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C304" s="23" t="s">
-        <v>409</v>
+      <c r="C304" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D304" s="4" t="str">
         <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
@@ -8175,8 +8440,8 @@
       <c r="B305" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C305" s="23" t="s">
-        <v>409</v>
+      <c r="C305" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D305" s="4" t="str">
         <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
@@ -8194,8 +8459,8 @@
       <c r="B306" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C306" s="23" t="s">
-        <v>409</v>
+      <c r="C306" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D306" s="4" t="str">
         <f>".Range(""A1"").ColumnWidth = 5"</f>
@@ -8213,8 +8478,8 @@
       <c r="B307" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C307" s="23" t="s">
-        <v>409</v>
+      <c r="C307" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D307" s="4" t="str">
         <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
@@ -8232,8 +8497,8 @@
       <c r="B308" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C308" s="23" t="s">
-        <v>409</v>
+      <c r="C308" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D308" s="4" t="str">
         <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
@@ -8251,8 +8516,8 @@
       <c r="B309" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C309" s="23" t="s">
-        <v>409</v>
+      <c r="C309" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D309" s="4" t="str">
         <f>"Application.CutCopyMode = False"</f>
@@ -8270,8 +8535,8 @@
       <c r="B310" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C310" s="23" t="s">
-        <v>409</v>
+      <c r="C310" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D310" s="4" t="str">
         <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
@@ -8289,8 +8554,8 @@
       <c r="B311" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C311" s="23" t="s">
-        <v>409</v>
+      <c r="C311" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D311" s="4" t="str">
         <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
@@ -8308,8 +8573,8 @@
       <c r="B312" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C312" s="23" t="s">
-        <v>409</v>
+      <c r="C312" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D312" s="4" t="str">
         <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
@@ -8327,8 +8592,8 @@
       <c r="B313" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C313" s="23" t="s">
-        <v>409</v>
+      <c r="C313" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D313" s="4" t="str">
         <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
@@ -8346,8 +8611,8 @@
       <c r="B314" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C314" s="23" t="s">
-        <v>409</v>
+      <c r="C314" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D314" s="4" t="str">
         <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
@@ -8365,8 +8630,8 @@
       <c r="B315" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C315" s="23" t="s">
-        <v>409</v>
+      <c r="C315" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D315" s="4" t="str">
         <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
@@ -8384,8 +8649,8 @@
       <c r="B316" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C316" s="23" t="s">
-        <v>409</v>
+      <c r="C316" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D316" s="4" t="str">
         <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
@@ -8404,8 +8669,8 @@
       <c r="B317" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C317" s="23" t="s">
-        <v>409</v>
+      <c r="C317" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D317" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
@@ -8424,8 +8689,8 @@
       <c r="B318" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C318" s="23" t="s">
-        <v>409</v>
+      <c r="C318" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D318" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
@@ -8444,8 +8709,8 @@
       <c r="B319" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C319" s="23" t="s">
-        <v>409</v>
+      <c r="C319" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D319" s="4" t="str">
         <f>"ActiveWindow.FreezePanes = False"</f>
@@ -8463,8 +8728,8 @@
       <c r="B320" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C320" s="23" t="s">
-        <v>409</v>
+      <c r="C320" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D320" s="4" t="str">
         <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
@@ -8482,8 +8747,8 @@
       <c r="B321" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C321" s="23" t="s">
-        <v>409</v>
+      <c r="C321" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D321" s="4" t="str">
         <f>"CreateObject(""WScript.Network"").UserName"</f>
@@ -8501,8 +8766,8 @@
       <c r="B322" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C322" s="23" t="s">
-        <v>409</v>
+      <c r="C322" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>345</v>
@@ -8517,19 +8782,19 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/lang_cheet_sheet.xlsx
+++ b/lang_cheet_sheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5785E42A-972F-4AC8-829A-88604EEB0C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DBE068-9DFE-4F0C-9995-4A3A13A04138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C103" authorId="0" shapeId="0" xr:uid="{A28ED36A-D87E-4F2B-9BC4-F256870A96AA}">
+    <comment ref="C101" authorId="0" shapeId="0" xr:uid="{A28ED36A-D87E-4F2B-9BC4-F256870A96AA}">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="501">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1293,15 +1293,8 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>正規表現</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>エラー</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>サンプルコード参照</t>
   </si>
   <si>
     <t>ファイル操作</t>
@@ -1835,6 +1828,209 @@
   </si>
   <si>
     <t>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート存在確認</t>
+  </si>
+  <si>
+    <t>セル検索</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索実行</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サンプルコード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oRegExp.IgnoreCase = True</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oRegExp.Global = True</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oMatchResult.Count</t>
+  </si>
+  <si>
+    <t>検索結果 ヒット数取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果 サブマッチ数取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果 結果取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>置換実行</t>
+    <rPh sb="0" eb="2">
+      <t>チカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索設定 検索パターン</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索設定 大小文字区別</t>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索設定 文字列全体検索</t>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索設定 検索対象</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oMatchResult(0).SubMatches.Count</t>
+  </si>
+  <si>
+    <t>oMatchResult(2)</t>
+  </si>
+  <si>
+    <t>oMatchResult(1).SubMatches(1)</t>
+  </si>
+  <si>
+    <t>sReplacedStr = oRegExp.Replace(sTargetStr, "★$1")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★TestFunc01 ★TestFunc02 ★TestFunc03</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3（0オリジン）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TestFunc03(int bbb)（0オリジン）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>char（0オリジン）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>True:区別しない False:区別する</t>
+    <rPh sb="5" eb="7">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>クベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正規表現検索</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2486,13 +2682,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:F351"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2523,10 +2719,10 @@
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>131</v>
@@ -2537,7 +2733,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2575,10 +2771,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="11" t="s">
@@ -2591,10 +2787,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="11" t="s">
@@ -2607,10 +2803,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="11" t="s">
@@ -2623,10 +2819,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="11" t="s">
@@ -2643,10 +2839,10 @@
         <v>Dim 配列変数名(最終要素番号)</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>127</v>
@@ -2658,13 +2854,13 @@
         <v>347</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>348</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>127</v>
@@ -2676,7 +2872,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>"Const NUM As Integer = 1"</f>
@@ -2695,7 +2891,7 @@
         <v>145</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>"Type T_XXX
@@ -2708,7 +2904,7 @@
 End Type</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>127</v>
@@ -2720,7 +2916,7 @@
         <v>148</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>"Enum E_XXX
@@ -2733,7 +2929,7 @@
 End Enum</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>127</v>
@@ -2854,7 +3050,7 @@
     <row r="18" spans="1:6" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>"If iVal = 1 Or iVal = 2 Then"&amp;CHAR(10)&amp;"ElseIf iVal = 3 Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
@@ -2880,7 +3076,7 @@
     <row r="19" spans="1:6" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>"If objTest Is Nothing Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
@@ -2904,7 +3100,7 @@
     <row r="20" spans="1:6" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>"Select Case iVal"&amp;CHAR(10)&amp;"Case 1"&amp;CHAR(10)&amp;"Case Else"&amp;CHAR(10)&amp;"End Select"</f>
@@ -2930,7 +3126,7 @@
     <row r="21" spans="1:6" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>"For iVal1 = 1 To 3 [Step 1]"&amp;CHAR(10)&amp;"Next"</f>
@@ -2952,7 +3148,7 @@
     <row r="22" spans="1:6" outlineLevel="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>"For Each Value in Values"&amp;CHAR(10)&amp;"Next"</f>
@@ -2975,7 +3171,7 @@
     <row r="23" spans="1:6" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>"Do"&amp;CHAR(10)&amp;CHAR(9)&amp;" 条件式＝真 "&amp;CHAR(10)&amp;"Loop While 条件式"</f>
@@ -2999,7 +3195,7 @@
     <row r="24" spans="1:6" outlineLevel="1">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>"Do While 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝真"&amp;CHAR(10)&amp;"Loop"</f>
@@ -3023,7 +3219,7 @@
     <row r="25" spans="1:6" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>"Do Until 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝偽"&amp;CHAR(10)&amp;"Loop"</f>
@@ -3089,7 +3285,7 @@
     <row r="28" spans="1:6" outlineLevel="1">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>"sStr = InputBox( ""message"", ""title"", ""default value"" )"</f>
@@ -3109,17 +3305,17 @@
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>"MsgBox ""Hello world"", vbOKOnly, ""title"""</f>
         <v>MsgBox "Hello world", vbOKOnly, "title"</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>127</v>
@@ -3128,7 +3324,7 @@
     <row r="30" spans="1:6" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>"WScript.Echo ""Hello world"""</f>
@@ -3148,14 +3344,14 @@
     <row r="31" spans="1:6" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>"Wscript.StdOut.WriteLine ""Hello world"""</f>
         <v>Wscript.StdOut.WriteLine "Hello world"</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>128</v>
@@ -3167,7 +3363,7 @@
     <row r="32" spans="1:6" outlineLevel="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>"Dim vAnswer" &amp; CHAR(10) &amp; "vAnswer = MsgBox(""処理を継続しますか？"", vbOkCancel, ""title"")" &amp; CHAR(10) &amp; "If vAnswer = vbCancel Then" &amp; CHAR(10) &amp; "    MsgBox ""キャンセルが押されたため、処理を中断します。"", vbExclamation, ""title""" &amp; CHAR(10) &amp; "    WScript.Quit" &amp; CHAR(10) &amp; "End If"</f>
@@ -3197,10 +3393,10 @@
     <row r="33" spans="1:6" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D33" s="4" t="str">
         <f>"Debug.Assert 条件式"</f>
@@ -3280,7 +3476,7 @@
         <v>149</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D37" s="4" t="str">
         <f>"Stop"</f>
@@ -3319,7 +3515,7 @@
         <v>146</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D39" s="4" t="str">
         <f>"Dim vRetVal As Variant
@@ -3328,7 +3524,7 @@
 vRetVal = CVErr(xlErrRef)</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>127</v>
@@ -3336,7 +3532,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3382,7 +3578,7 @@
         <v>InStr("abcabc", "bc")</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>127</v>
@@ -3402,7 +3598,7 @@
         <v>InStrRev("abcabc", "bc")</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>127</v>
@@ -3575,7 +3771,7 @@
         <v>324</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>127</v>
@@ -3615,7 +3811,7 @@
         <v>IsNumeric( sStr )</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>127</v>
@@ -3635,7 +3831,7 @@
         <v>Chr(ASCIIコード)</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>127</v>
@@ -3845,7 +4041,7 @@
         <v>VarType("Test")</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>127</v>
@@ -3881,7 +4077,7 @@
         <v>CLng("&amp;H" &amp; "FA")</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>127</v>
@@ -4000,7 +4196,7 @@
         <v>vbNewLine</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>141</v>
@@ -4371,7 +4567,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -4389,7 +4585,7 @@
         <v>30</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D93" s="4" t="str">
         <f>"On Error Resume Next"</f>
@@ -4468,7 +4664,7 @@
         <v>150</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D97" s="4" t="str">
         <f>"On Error GoTo ErrorLabel"</f>
@@ -4487,7 +4683,7 @@
         <v>151</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D98" s="4" t="str">
         <f>"ErrorLabel:"</f>
@@ -4502,7 +4698,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -4517,13 +4713,14 @@
     <row r="100" spans="1:6" outlineLevel="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>356</v>
+        <v>414</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <f>"Dim objTxtFile"</f>
+        <v>Dim objTxtFile</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>127</v>
@@ -4532,14 +4729,19 @@
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="21" t="s">
+    <row r="101" spans="1:6" outlineLevel="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="4" t="str">
+        <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
+        <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F101" s="11" t="s">
@@ -4549,18 +4751,16 @@
     <row r="102" spans="1:6" outlineLevel="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>416</v>
+        <v>64</v>
       </c>
       <c r="C102" s="4" t="str">
-        <f>"Dim objTxtFile"</f>
-        <v>Dim objTxtFile</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>127</v>
-      </c>
+        <f>"objTxtFile.Close"</f>
+        <v>objTxtFile.Close</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E102" s="5"/>
       <c r="F102" s="11" t="s">
         <v>127</v>
       </c>
@@ -4568,56 +4768,60 @@
     <row r="103" spans="1:6" outlineLevel="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>413</v>
       </c>
       <c r="C103" s="4" t="str">
-        <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
-        <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" outlineLevel="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="4" t="str">
-        <f>"objTxtFile.Close"</f>
-        <v>objTxtFile.Close</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" outlineLevel="1">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C105" s="4" t="str">
         <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
         <v>Do Until objTxtFile.AtEndOfStream
 strLine = objTxtFile.ReadLine
 Loop</v>
       </c>
-      <c r="D105" s="4" t="str">
+      <c r="D103" s="4" t="str">
         <f>"Do Until EOF(1)"&amp;CHAR(10)&amp;"    Line Input #1, 文字列変数"&amp;CHAR(10)&amp;"Loop"</f>
         <v>Do Until EOF(1)
     Line Input #1, 文字列変数
 Loop</v>
       </c>
+      <c r="E103" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" outlineLevel="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <f>"sTextAll = objTxtFile.ReadAll"</f>
+        <v>sTextAll = objTxtFile.ReadAll</v>
+      </c>
+      <c r="D104" s="4" t="str">
+        <f>"sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll"</f>
+        <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" outlineLevel="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="4" t="str">
+        <f>"objTxtFile.WriteLine strLine"</f>
+        <v>objTxtFile.WriteLine strLine</v>
+      </c>
+      <c r="D105" s="4" t="str">
+        <f>"Print #1, 文字列変数"</f>
+        <v>Print #1, 文字列変数</v>
+      </c>
       <c r="E105" s="5" t="s">
         <v>127</v>
       </c>
@@ -4628,37 +4832,31 @@
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106" s="4" t="str">
-        <f>"sTextAll = objTxtFile.ReadAll"</f>
-        <v>sTextAll = objTxtFile.ReadAll</v>
+        <v>415</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="D106" s="4" t="str">
-        <f>"sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll"</f>
-        <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
+        <f>"Set wTargetBook = Workbooks.Open(sTargetBookName)"&amp;CHAR(10)&amp;"wTargetBook.Close SaveChanges:=True"</f>
+        <v>Set wTargetBook = Workbooks.Open(sTargetBookName)
+wTargetBook.Close SaveChanges:=True</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:6" outlineLevel="1">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C107" s="4" t="str">
-        <f>"objTxtFile.WriteLine strLine"</f>
-        <v>objTxtFile.WriteLine strLine</v>
-      </c>
-      <c r="D107" s="4" t="str">
-        <f>"Print #1, 文字列変数"</f>
-        <v>Print #1, 文字列変数</v>
-      </c>
-      <c r="E107" s="5" t="s">
+    <row r="107" spans="1:6">
+      <c r="A107" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F107" s="11" t="s">
@@ -4668,32 +4866,38 @@
     <row r="108" spans="1:6" outlineLevel="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>408</v>
+        <v>115</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <f>"Now()"</f>
+        <v>Now()</v>
       </c>
       <c r="D108" s="4" t="str">
-        <f>"Set wTargetBook = Workbooks.Open(sTargetBookName)"&amp;CHAR(10)&amp;"wTargetBook.Close SaveChanges:=True"</f>
-        <v>Set wTargetBook = Workbooks.Open(sTargetBookName)
-wTargetBook.Close SaveChanges:=True</v>
+        <f>"Now"</f>
+        <v>Now</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="F108" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="21" t="s">
-        <v>127</v>
+    <row r="109" spans="1:6" outlineLevel="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="4" t="str">
+        <f>"Date()"</f>
+        <v>Date()</v>
+      </c>
+      <c r="D109" s="4" t="str">
+        <f>"Date"</f>
+        <v>Date</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>127</v>
@@ -4702,18 +4906,18 @@
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C110" s="4" t="str">
-        <f>"Now()"</f>
-        <v>Now()</v>
+        <f>"Timer()"</f>
+        <v>Timer()</v>
       </c>
       <c r="D110" s="4" t="str">
-        <f>"Now"</f>
-        <v>Now</v>
+        <f>"Timer"</f>
+        <v>Timer</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>127</v>
@@ -4722,49 +4926,9 @@
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C111" s="4" t="str">
-        <f>"Date()"</f>
-        <v>Date()</v>
-      </c>
-      <c r="D111" s="4" t="str">
-        <f>"Date"</f>
-        <v>Date</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" outlineLevel="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" s="4" t="str">
-        <f>"Timer()"</f>
-        <v>Timer()</v>
-      </c>
-      <c r="D112" s="4" t="str">
-        <f>"Timer"</f>
-        <v>Timer</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" outlineLevel="1">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C113" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
         <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
 	'sModDate が新しい
@@ -4774,7 +4938,7 @@
 	'sModDate = sCmpBaseTime
 End If</v>
       </c>
-      <c r="D113" s="4" t="str">
+      <c r="D111" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
         <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
 	sModDate が新しい
@@ -4784,8 +4948,43 @@
 	sModDate = sCmpBaseTime
 End If</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>305</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" outlineLevel="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <f>"WScript.sleep(3000)"</f>
+        <v>WScript.sleep(3000)</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <f>"Public Declare Sub Sleep Lib ""kernel32"" (ByVal dwMilliseconds As Long)"&amp;CHAR(10)&amp;"Sleep 1000"</f>
+        <v>Public Declare Sub Sleep Lib "kernel32" (ByVal dwMilliseconds As Long)
+Sleep 1000</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>127</v>
@@ -4794,55 +4993,56 @@
     <row r="114" spans="1:6" outlineLevel="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>359</v>
       </c>
       <c r="C114" s="4" t="str">
-        <f>"WScript.sleep(3000)"</f>
-        <v>WScript.sleep(3000)</v>
-      </c>
-      <c r="D114" s="4" t="str">
-        <f>"Public Declare Sub Sleep Lib ""kernel32"" (ByVal dwMilliseconds As Long)"&amp;CHAR(10)&amp;"Sleep 1000"</f>
-        <v>Public Declare Sub Sleep Lib "kernel32" (ByVal dwMilliseconds As Long)
-Sleep 1000</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" outlineLevel="1">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C116" s="4" t="str">
         <f>"Dim cTrgtPaths
 Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
-      <c r="D116" s="4" t="str">
+      <c r="D114" s="4" t="str">
         <f>"Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
+      <c r="E114" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" outlineLevel="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" outlineLevel="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="E116" s="5" t="s">
         <v>127</v>
       </c>
@@ -4853,7 +5053,7 @@
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>446</v>
@@ -4862,7 +5062,7 @@
         <v>446</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>127</v>
@@ -4871,45 +5071,9 @@
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" outlineLevel="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" outlineLevel="1">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C120" s="4" t="str">
+        <v>375</v>
+      </c>
+      <c r="C118" s="4" t="str">
         <f>"Dim vTrgtPath
 For Each vTrgtPath In cTrgtPaths
     MsgBox vTrgtPath
@@ -4919,7 +5083,7 @@
     MsgBox vTrgtPath
 Next</v>
       </c>
-      <c r="D120" s="4" t="str">
+      <c r="D118" s="4" t="str">
         <f>"Dim vTrgtPath As Variant
 For Each vTrgtPath In cTrgtPaths
     MsgBox vTrgtPath
@@ -4929,8 +5093,44 @@
     MsgBox vTrgtPath
 Next</v>
       </c>
+      <c r="E118" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" outlineLevel="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" outlineLevel="1">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>448</v>
+      </c>
       <c r="E120" s="5" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>127</v>
@@ -4941,14 +5141,14 @@
       <c r="B121" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>449</v>
+      <c r="C121" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>449</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>276</v>
+        <v>452</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>127</v>
@@ -4966,7 +5166,7 @@
         <v>450</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>127</v>
@@ -4977,14 +5177,20 @@
       <c r="B123" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C123" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>451</v>
+      <c r="C123" s="4" t="str">
+        <f>"Dim avTrgtPaths
+avTrgtPaths = cTrgtPaths.ToArray()"</f>
+        <v>Dim avTrgtPaths
+avTrgtPaths = cTrgtPaths.ToArray()</v>
+      </c>
+      <c r="D123" s="4" t="str">
+        <f>"Dim avTrgtPaths As Variant
+avTrgtPaths = cTrgtPaths.ToArray()"</f>
+        <v>Dim avTrgtPaths As Variant
+avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>454</v>
+        <v>278</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>127</v>
@@ -4996,10 +5202,10 @@
         <v>374</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>127</v>
@@ -5008,25 +5214,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:6" outlineLevel="1">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C125" s="4" t="str">
-        <f>"Dim avTrgtPaths
-avTrgtPaths = cTrgtPaths.ToArray()"</f>
-        <v>Dim avTrgtPaths
-avTrgtPaths = cTrgtPaths.ToArray()</v>
-      </c>
-      <c r="D125" s="4" t="str">
-        <f>"Dim avTrgtPaths As Variant
-avTrgtPaths = cTrgtPaths.ToArray()"</f>
-        <v>Dim avTrgtPaths As Variant
-avTrgtPaths = cTrgtPaths.ToArray()</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>278</v>
+    <row r="125" spans="1:6">
+      <c r="A125" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>127</v>
@@ -5035,54 +5231,58 @@
     <row r="126" spans="1:6" outlineLevel="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" outlineLevel="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C128" s="4" t="str">
+        <v>359</v>
+      </c>
+      <c r="C126" s="4" t="str">
         <f>"Dim oPriceOfFruit
 Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
-      <c r="D128" s="4" t="str">
+      <c r="D126" s="4" t="str">
         <f>"Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
+      <c r="E126" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" outlineLevel="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" outlineLevel="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="E128" s="5" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>127</v>
@@ -5091,45 +5291,9 @@
     <row r="129" spans="1:6" outlineLevel="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" outlineLevel="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" outlineLevel="1">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C131" s="4" t="str">
+      <c r="C129" s="4" t="str">
         <f>"For Each vKey In oPriceOfFruit
     MsgBox vKey
 Next"</f>
@@ -5137,7 +5301,7 @@
     MsgBox vKey
 Next</v>
       </c>
-      <c r="D131" s="4" t="str">
+      <c r="D129" s="4" t="str">
         <f>"For Each vKey In oPriceOfFruit
     Debug.print vKey
 Next"</f>
@@ -5145,8 +5309,44 @@
     Debug.print vKey
 Next</v>
       </c>
+      <c r="E129" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" outlineLevel="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" outlineLevel="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="E131" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>127</v>
@@ -5155,7 +5355,7 @@
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>456</v>
@@ -5164,7 +5364,7 @@
         <v>456</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="F132" s="11" t="s">
         <v>127</v>
@@ -5173,7 +5373,7 @@
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>457</v>
@@ -5182,7 +5382,7 @@
         <v>457</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>127</v>
@@ -5191,7 +5391,7 @@
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>458</v>
@@ -5200,7 +5400,7 @@
         <v>458</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>127</v>
@@ -5209,7 +5409,7 @@
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>459</v>
@@ -5227,7 +5427,7 @@
     <row r="136" spans="1:6" outlineLevel="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>460</v>
@@ -5236,7 +5436,7 @@
         <v>460</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>127</v>
@@ -5245,7 +5445,7 @@
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>461</v>
@@ -5263,7 +5463,7 @@
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>462</v>
@@ -5272,7 +5472,7 @@
         <v>462</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>127</v>
@@ -5281,7 +5481,7 @@
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>463</v>
@@ -5290,7 +5490,7 @@
         <v>463</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="F139" s="11" t="s">
         <v>127</v>
@@ -5299,7 +5499,7 @@
     <row r="140" spans="1:6" outlineLevel="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>464</v>
@@ -5308,25 +5508,21 @@
         <v>464</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="141" spans="1:6" outlineLevel="1">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>282</v>
+    <row r="141" spans="1:6">
+      <c r="A141" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>127</v>
@@ -5335,53 +5531,59 @@
     <row r="142" spans="1:6" outlineLevel="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" outlineLevel="1">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C144" s="4" t="str">
+        <v>359</v>
+      </c>
+      <c r="C142" s="4" t="str">
         <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = WScript.CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = WScript.CreateObject("WScript.Shell")</v>
       </c>
-      <c r="D144" s="4" t="str">
+      <c r="D142" s="4" t="str">
         <f>"Dim objWshShell
 Set objWshShell = CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = CreateObject("WScript.Shell")</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>127</v>
+      <c r="E142" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" outlineLevel="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" s="4" t="str">
+        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
+        <v>objWshShell.Exec("C:\test.bat")</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" outlineLevel="1">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="4" t="str">
+        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
+        <v>objWshShell.Run "C:\test.bat", 0, True</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="F144" s="11" t="s">
         <v>127</v>
@@ -5390,17 +5592,14 @@
     <row r="145" spans="1:6" outlineLevel="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C145" s="4" t="str">
-        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
-        <v>objWshShell.Exec("C:\test.bat")</v>
+        <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
+        <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="F145" s="11" t="s">
         <v>127</v>
@@ -5409,17 +5608,17 @@
     <row r="146" spans="1:6" outlineLevel="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C146" s="4" t="str">
-        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
-        <v>objWshShell.Run "C:\test.bat", 0, True</v>
+        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
+        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E146" s="9" t="s">
-        <v>423</v>
+      <c r="E146" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>127</v>
@@ -5428,14 +5627,17 @@
     <row r="147" spans="1:6" outlineLevel="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C147" s="4" t="str">
-        <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
-        <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
+        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
+        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>469</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="F147" s="11" t="s">
         <v>127</v>
@@ -5444,17 +5646,17 @@
     <row r="148" spans="1:6" outlineLevel="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C148" s="4" t="str">
-        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
-        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
+        <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
+        <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>470</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>127</v>
+        <v>422</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>127</v>
@@ -5463,18 +5665,16 @@
     <row r="149" spans="1:6" outlineLevel="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="C149" s="4" t="str">
-        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
-        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>286</v>
-      </c>
+        <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
+        <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E149" s="5"/>
       <c r="F149" s="11" t="s">
         <v>127</v>
       </c>
@@ -5482,17 +5682,17 @@
     <row r="150" spans="1:6" outlineLevel="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>39</v>
+        <v>402</v>
       </c>
       <c r="C150" s="4" t="str">
-        <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
-        <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
+        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
+        <v>objWshShell.SpecialFolders("Desktop")</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="F150" s="11" t="s">
         <v>127</v>
@@ -5501,52 +5701,16 @@
     <row r="151" spans="1:6" outlineLevel="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="C151" s="4" t="str">
-        <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
-        <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="E151" s="5"/>
-      <c r="F151" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" outlineLevel="1">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C152" s="4" t="str">
-        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
-        <v>objWshShell.SpecialFolders("Desktop")</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" outlineLevel="1">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C153" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst.txt"
 .Save
 End With</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D151" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
     .TargetPath = ""c:\test\dst.txt""
     .Save
@@ -5556,45 +5720,45 @@
     .Save
 End With</v>
       </c>
-      <c r="E153" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" outlineLevel="1">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2" t="s">
+      <c r="E151" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" outlineLevel="1">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C154" s="4" t="str">
+      <c r="C152" s="4" t="str">
         <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
         <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="E154" s="5" t="s">
+      <c r="D152" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E152" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F154" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" outlineLevel="1">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2" t="s">
+      <c r="F152" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" outlineLevel="1">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C155" s="4" t="str">
+      <c r="C153" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst2.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst2.txt"
 .Save
 End With</v>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D153" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
     .TargetPath = ""c:\test\dst2.txt""
     .Save
@@ -5604,47 +5768,81 @@
     .Save
 End With</v>
       </c>
-      <c r="E155" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" outlineLevel="1">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2" t="s">
+      <c r="E153" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" outlineLevel="1">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C156" s="4" t="str">
+      <c r="C154" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".Description = ""テストコメント"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .Description = "テストコメント"
 .Save
 End With</v>
       </c>
-      <c r="D156" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="E156" s="5"/>
-      <c r="F156" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" outlineLevel="1">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2" t="s">
+      <c r="D154" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" outlineLevel="1">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C157" s="4" t="str">
+      <c r="C155" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".Arguments = "" /b"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .Arguments = " /b"
 .Save
 End With</v>
       </c>
+      <c r="D155" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" outlineLevel="1">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C156" s="4" t="str">
+        <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
+        <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E156" s="5"/>
+      <c r="F156" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" outlineLevel="1">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="4" t="str">
+        <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
+        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
+      </c>
       <c r="D157" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="11" t="s">
@@ -5654,33 +5852,30 @@
     <row r="158" spans="1:6" outlineLevel="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C158" s="4" t="str">
-        <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
-        <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
+        <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
+        <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="1:6" outlineLevel="1">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C159" s="4" t="str">
-        <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
-        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="E159" s="5"/>
+    <row r="159" spans="1:6">
+      <c r="A159" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="F159" s="11" t="s">
         <v>127</v>
       </c>
@@ -5688,28 +5883,37 @@
     <row r="160" spans="1:6" outlineLevel="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>144</v>
+        <v>359</v>
       </c>
       <c r="C160" s="4" t="str">
-        <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
-        <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="E160" s="5"/>
+        <f>"Dim objFSO"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
+        <v>Dim objFSO
+Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
+      </c>
+      <c r="D160" s="4" t="str">
+        <f>"Dim objFSO As Object"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
+        <v>Dim objFSO As Object
+Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F160" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="21" t="s">
+    <row r="161" spans="1:6" outlineLevel="1">
+      <c r="B161" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D161" s="4" t="str">
+        <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
+        <v>objFSO.CopyFile ThisWorkbook.FullName, "c:\temp\test.xlsm"</v>
+      </c>
+      <c r="E161" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F161" s="11" t="s">
@@ -5719,38 +5923,38 @@
     <row r="162" spans="1:6" outlineLevel="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>361</v>
+        <v>46</v>
       </c>
       <c r="C162" s="4" t="str">
-        <f>"Dim objFSO"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
-        <v>Dim objFSO
-Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
       <c r="D162" s="4" t="str">
-        <f>"Dim objFSO As Object"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
-        <v>Dim objFSO As Object
-Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:6" outlineLevel="1">
+      <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C163" s="23" t="s">
-        <v>408</v>
+        <v>47</v>
+      </c>
+      <c r="C163" s="4" t="str">
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
       <c r="D163" s="4" t="str">
-        <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
-        <v>objFSO.CopyFile ThisWorkbook.FullName, "c:\temp\test.xlsm"</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F163" s="11" t="s">
         <v>127</v>
@@ -5759,18 +5963,18 @@
     <row r="164" spans="1:6" outlineLevel="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C164" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="D164" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="F164" s="11" t="s">
         <v>127</v>
@@ -5779,18 +5983,18 @@
     <row r="165" spans="1:6" outlineLevel="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C165" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="D165" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="F165" s="11" t="s">
         <v>127</v>
@@ -5799,18 +6003,18 @@
     <row r="166" spans="1:6" outlineLevel="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="C166" s="4" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
+        <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt") 'True</v>
       </c>
       <c r="D166" s="4" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
+        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt")</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F166" s="11" t="s">
         <v>127</v>
@@ -5819,52 +6023,12 @@
     <row r="167" spans="1:6" outlineLevel="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C167" s="4" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
+        <v>154</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="D167" s="4" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" outlineLevel="1">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C168" s="4" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt") 'True</v>
-      </c>
-      <c r="D168" s="4" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt")</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F168" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" outlineLevel="1">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C169" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D169" s="4" t="str">
         <f>"If Dir(""C:\Book1.xlsx"") &lt;&gt; """" Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"存在"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"非存在"&amp;CHAR(10)&amp;"End If"</f>
         <v>If Dir("C:\Book1.xlsx") &lt;&gt; "" Then
 	存在
@@ -5872,6 +6036,46 @@
 	非存在
 End If</v>
       </c>
+      <c r="E167" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" outlineLevel="1">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C168" s="4" t="str">
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
+      </c>
+      <c r="D168" s="4" t="str">
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" outlineLevel="1">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C169" s="4" t="str">
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
+      </c>
+      <c r="D169" s="4" t="str">
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
+      </c>
       <c r="E169" s="5" t="s">
         <v>127</v>
       </c>
@@ -5882,18 +6086,18 @@
     <row r="170" spans="1:6" outlineLevel="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C170" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D170" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>142</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>127</v>
@@ -5902,18 +6106,18 @@
     <row r="171" spans="1:6" outlineLevel="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C171" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D171" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="F171" s="11" t="s">
         <v>127</v>
@@ -5922,18 +6126,18 @@
     <row r="172" spans="1:6" outlineLevel="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C172" s="4" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D172" s="4" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F172" s="11" t="s">
         <v>127</v>
@@ -5942,18 +6146,18 @@
     <row r="173" spans="1:6" outlineLevel="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C173" s="4" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D173" s="4" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F173" s="11" t="s">
         <v>127</v>
@@ -5962,18 +6166,18 @@
     <row r="174" spans="1:6" outlineLevel="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C174" s="4" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D174" s="4" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F174" s="11" t="s">
         <v>127</v>
@@ -5982,18 +6186,18 @@
     <row r="175" spans="1:6" outlineLevel="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C175" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D175" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F175" s="11" t="s">
         <v>127</v>
@@ -6002,18 +6206,18 @@
     <row r="176" spans="1:6" outlineLevel="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C176" s="4" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="D176" s="4" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="F176" s="11" t="s">
         <v>127</v>
@@ -6022,18 +6226,18 @@
     <row r="177" spans="1:6" outlineLevel="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C177" s="4" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="D177" s="4" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F177" s="11" t="s">
         <v>127</v>
@@ -6042,18 +6246,18 @@
     <row r="178" spans="1:6" outlineLevel="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C178" s="4" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="D178" s="4" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F178" s="11" t="s">
         <v>127</v>
@@ -6062,18 +6266,18 @@
     <row r="179" spans="1:6" outlineLevel="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C179" s="4" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="D179" s="4" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F179" s="11" t="s">
         <v>127</v>
@@ -6082,18 +6286,17 @@
     <row r="180" spans="1:6" outlineLevel="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C180" s="4" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <v>62</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="D180" s="4" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
+        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F180" s="11" t="s">
         <v>127</v>
@@ -6102,18 +6305,18 @@
     <row r="181" spans="1:6" outlineLevel="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
-        <v>61</v>
+        <v>398</v>
       </c>
       <c r="C181" s="4" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
       </c>
       <c r="D181" s="4" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>293</v>
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
+      </c>
+      <c r="E181" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="F181" s="11" t="s">
         <v>127</v>
@@ -6122,87 +6325,83 @@
     <row r="182" spans="1:6" outlineLevel="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D182" s="4" t="str">
-        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
-        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" outlineLevel="1">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C183" s="4" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
-      </c>
-      <c r="D183" s="4" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
-      </c>
-      <c r="E183" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" outlineLevel="1">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C184" s="4" t="str">
+        <v>399</v>
+      </c>
+      <c r="C182" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
         <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
       </c>
-      <c r="D184" s="4" t="str">
+      <c r="D182" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
         <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E182" s="5" t="s">
         <v>275</v>
       </c>
+      <c r="F182" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" outlineLevel="1">
+      <c r="B183" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="F184" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="185" spans="1:6" outlineLevel="1">
+      <c r="A185" s="2"/>
       <c r="B185" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>350</v>
+        <v>359</v>
+      </c>
+      <c r="C185" s="26"/>
+      <c r="D185" s="10" t="str">
+        <f>"Dim oRegExp As Object
+Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
+        <v>Dim oRegExp As Object
+Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>351</v>
+        <v>127</v>
       </c>
       <c r="F185" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="21" t="s">
+    <row r="186" spans="1:6" outlineLevel="1">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C186" s="26"/>
+      <c r="D186" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E186" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F186" s="11" t="s">
@@ -6212,16 +6411,18 @@
     <row r="187" spans="1:6" outlineLevel="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C187" s="4" t="str">
-        <f>"WScript.ScriptFullName"</f>
-        <v>WScript.ScriptFullName</v>
-      </c>
-      <c r="D187" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="E187" s="5"/>
+        <v>485</v>
+      </c>
+      <c r="C187" s="26"/>
+      <c r="D187" s="10" t="str">
+        <f>"sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
+oRegExp.Pattern = sSearchPattern"</f>
+        <v>sSearchPattern = "(\w+)\((\w+) (\w+)\)"
+oRegExp.Pattern = sSearchPattern</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F187" s="11" t="s">
         <v>127</v>
       </c>
@@ -6229,16 +6430,15 @@
     <row r="188" spans="1:6" outlineLevel="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C188" s="4" t="str">
-        <f>"WScript.ScriptName"</f>
-        <v>WScript.ScriptName</v>
-      </c>
-      <c r="D188" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="E188" s="5"/>
+        <v>486</v>
+      </c>
+      <c r="C188" s="26"/>
+      <c r="D188" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>499</v>
+      </c>
       <c r="F188" s="11" t="s">
         <v>127</v>
       </c>
@@ -6246,16 +6446,15 @@
     <row r="189" spans="1:6" outlineLevel="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C189" s="4" t="str">
-        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
-        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
-      </c>
-      <c r="D189" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E189" s="5"/>
+        <v>487</v>
+      </c>
+      <c r="C189" s="26"/>
+      <c r="D189" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F189" s="11" t="s">
         <v>127</v>
       </c>
@@ -6263,16 +6462,18 @@
     <row r="190" spans="1:6" outlineLevel="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C190" s="4" t="str">
-        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
-        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
-      </c>
-      <c r="D190" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E190" s="5"/>
+        <v>476</v>
+      </c>
+      <c r="C190" s="26"/>
+      <c r="D190" s="10" t="str">
+        <f>"Dim oMatchResult As Object
+Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
+        <v>Dim oMatchResult As Object
+Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F190" s="11" t="s">
         <v>127</v>
       </c>
@@ -6280,16 +6481,15 @@
     <row r="191" spans="1:6" outlineLevel="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C191" s="4" t="str">
-        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
-        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C191" s="26"/>
       <c r="D191" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="E191" s="5"/>
+        <v>480</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>490</v>
+      </c>
       <c r="F191" s="11" t="s">
         <v>127</v>
       </c>
@@ -6297,29 +6497,30 @@
     <row r="192" spans="1:6" outlineLevel="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C192" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
-        <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
-      </c>
-      <c r="D192" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E192" s="5"/>
+        <v>482</v>
+      </c>
+      <c r="C192" s="26"/>
+      <c r="D192" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="F192" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="21" t="s">
-        <v>127</v>
+    <row r="193" spans="1:6" outlineLevel="1">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C193" s="26"/>
+      <c r="D193" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="F193" s="11" t="s">
         <v>127</v>
@@ -6328,206 +6529,178 @@
     <row r="194" spans="1:6" outlineLevel="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C194" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="C194" s="26"/>
+      <c r="D194" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F194" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" outlineLevel="1">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C195" s="26"/>
+      <c r="D195" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F195" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" outlineLevel="1">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C197" s="4" t="str">
+        <f>"WScript.ScriptFullName"</f>
+        <v>WScript.ScriptFullName</v>
+      </c>
+      <c r="D197" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="E197" s="5"/>
+      <c r="F197" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" outlineLevel="1">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C198" s="4" t="str">
+        <f>"WScript.ScriptName"</f>
+        <v>WScript.ScriptName</v>
+      </c>
+      <c r="D198" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="E198" s="5"/>
+      <c r="F198" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" outlineLevel="1">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C199" s="4" t="str">
+        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
+        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="E199" s="5"/>
+      <c r="F199" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" outlineLevel="1">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C200" s="4" t="str">
+        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
+        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" outlineLevel="1">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C201" s="4" t="str">
+        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
+        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E201" s="5"/>
+      <c r="F201" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" outlineLevel="1">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C202" s="4" t="str">
+        <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
+        <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="E202" s="5"/>
+      <c r="F202" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="D194" s="4" t="str">
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F203" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" outlineLevel="1">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D204" s="4" t="str">
         <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
         <v>Dim oChartObj As ChartObject
 Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
       </c>
-      <c r="E194" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F194" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" outlineLevel="1">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C195" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D195" s="4" t="str">
-        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
-        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F195" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" outlineLevel="1">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C196" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D196" s="4" t="str">
-        <f>"oChartObj.Delete"</f>
-        <v>oChartObj.Delete</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F196" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" outlineLevel="1">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C197" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D197" s="4" t="str">
-        <f>"oChartObj.Chart.ChartArea.Copy"</f>
-        <v>oChartObj.Chart.ChartArea.Copy</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" outlineLevel="1">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C198" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D198" s="4" t="str">
-        <f>"oChartObj.Top = 10"</f>
-        <v>oChartObj.Top = 10</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" outlineLevel="1">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C199" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D199" s="4" t="str">
-        <f>"oChartObj.Left = 20"</f>
-        <v>oChartObj.Left = 20</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F199" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" outlineLevel="1">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D200" s="4" t="str">
-        <f>"oChartObj.Width = 200"</f>
-        <v>oChartObj.Width = 200</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" outlineLevel="1">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D201" s="4" t="str">
-        <f>"oChartObj.Height = 300"</f>
-        <v>oChartObj.Height = 300</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" outlineLevel="1">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C202" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D202" s="4" t="str">
-        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
-        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" outlineLevel="1">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C203" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D203" s="4" t="str">
-        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
-        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" outlineLevel="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C204" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D204" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
-      </c>
       <c r="E204" s="5" t="s">
         <v>127</v>
       </c>
@@ -6538,17 +6711,17 @@
     <row r="205" spans="1:6" outlineLevel="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D205" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
-        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
+        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
+        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="F205" s="11" t="s">
         <v>127</v>
@@ -6557,14 +6730,14 @@
     <row r="206" spans="1:6" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D206" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
+        <f>"oChartObj.Delete"</f>
+        <v>oChartObj.Delete</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>127</v>
@@ -6576,14 +6749,14 @@
     <row r="207" spans="1:6" outlineLevel="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D207" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
+        <f>"oChartObj.Chart.ChartArea.Copy"</f>
+        <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>127</v>
@@ -6595,14 +6768,14 @@
     <row r="208" spans="1:6" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D208" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
+        <f>"oChartObj.Top = 10"</f>
+        <v>oChartObj.Top = 10</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>127</v>
@@ -6614,14 +6787,14 @@
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D209" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
+        <f>"oChartObj.Left = 20"</f>
+        <v>oChartObj.Left = 20</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>127</v>
@@ -6633,13 +6806,14 @@
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C210" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>266</v>
+        <v>229</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D210" s="4" t="str">
+        <f>"oChartObj.Width = 200"</f>
+        <v>oChartObj.Width = 200</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>127</v>
@@ -6651,14 +6825,14 @@
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D211" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
+        <f>"oChartObj.Height = 300"</f>
+        <v>oChartObj.Height = 300</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>127</v>
@@ -6670,17 +6844,17 @@
     <row r="212" spans="1:6" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D212" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
+        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>127</v>
@@ -6689,17 +6863,17 @@
     <row r="213" spans="1:6" outlineLevel="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D213" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
+        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
+        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>127</v>
@@ -6708,14 +6882,14 @@
     <row r="214" spans="1:6" outlineLevel="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C214" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D214" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>127</v>
@@ -6727,14 +6901,14 @@
     <row r="215" spans="1:6" outlineLevel="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D215" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
+        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>127</v>
@@ -6746,13 +6920,14 @@
     <row r="216" spans="1:6" outlineLevel="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>267</v>
+        <v>406</v>
+      </c>
+      <c r="D216" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>127</v>
@@ -6764,14 +6939,14 @@
     <row r="217" spans="1:6" outlineLevel="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D217" s="4" t="str">
-        <f>"oChartObj.Chart.HasTitle = True"</f>
-        <v>oChartObj.Chart.HasTitle = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>127</v>
@@ -6783,14 +6958,14 @@
     <row r="218" spans="1:6" outlineLevel="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D218" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
-        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>127</v>
@@ -6802,17 +6977,17 @@
     <row r="219" spans="1:6" outlineLevel="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D219" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="F219" s="11" t="s">
         <v>127</v>
@@ -6821,14 +6996,13 @@
     <row r="220" spans="1:6" outlineLevel="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C220" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D220" s="4" t="str">
-        <f>"oChartObj.Chart.HasLegend = True"</f>
-        <v>oChartObj.Chart.HasLegend = True</v>
+        <v>239</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>127</v>
@@ -6840,17 +7014,17 @@
     <row r="221" spans="1:6" outlineLevel="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D221" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
-        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="F221" s="11" t="s">
         <v>127</v>
@@ -6859,17 +7033,17 @@
     <row r="222" spans="1:6" outlineLevel="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D222" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="F222" s="11" t="s">
         <v>127</v>
@@ -6878,14 +7052,14 @@
     <row r="223" spans="1:6" outlineLevel="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D223" s="10" t="str">
-        <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
-        <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
+        <v>406</v>
+      </c>
+      <c r="D223" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>127</v>
@@ -6895,13 +7069,18 @@
       </c>
     </row>
     <row r="224" spans="1:6" outlineLevel="1">
-      <c r="A224" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="21" t="s">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C224" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D224" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+      </c>
+      <c r="E224" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F224" s="11" t="s">
@@ -6911,349 +7090,533 @@
     <row r="225" spans="1:6" outlineLevel="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D225" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F225" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" outlineLevel="1">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F226" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" outlineLevel="1">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D227" s="4" t="str">
+        <f>"oChartObj.Chart.HasTitle = True"</f>
+        <v>oChartObj.Chart.HasTitle = True</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F227" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" outlineLevel="1">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D228" s="4" t="str">
+        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
+        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F228" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" outlineLevel="1">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C229" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D229" s="4" t="str">
+        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" outlineLevel="1">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C230" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D230" s="4" t="str">
+        <f>"oChartObj.Chart.HasLegend = True"</f>
+        <v>oChartObj.Chart.HasLegend = True</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F230" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" outlineLevel="1">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D231" s="4" t="str">
+        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
+        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F231" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" outlineLevel="1">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C232" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D232" s="4" t="str">
+        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F232" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" outlineLevel="1">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D233" s="10" t="str">
+        <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
+        <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" outlineLevel="1">
+      <c r="A234" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" outlineLevel="1">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C225" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D225" s="4" t="str">
+      <c r="C235" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D235" s="4" t="str">
         <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
         <v>Dim goPrgrsBar As New ProgressBar
 goPrgrsBar.Show vbModeless</v>
       </c>
-      <c r="E225" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F225" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" outlineLevel="1">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2" t="s">
+      <c r="E235" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" outlineLevel="1">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C226" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D226" s="4" t="str">
+      <c r="C236" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D236" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
         <v>goPrgrsBar.Hide
 Unload goPrgrsBar
 Set goPrgrsBar = Nothing</v>
       </c>
-      <c r="E226" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F226" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" outlineLevel="1">
-      <c r="A227" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F227" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" outlineLevel="1">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2" t="s">
+      <c r="E236" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" outlineLevel="1">
+      <c r="A237" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F237" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" outlineLevel="1">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C228" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D228" s="4" t="str">
+      <c r="C238" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D238" s="4" t="str">
         <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
         <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
       </c>
-      <c r="E228" s="5" t="s">
+      <c r="E238" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F228" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" outlineLevel="1">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2" t="s">
+      <c r="F238" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" outlineLevel="1">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C229" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D229" s="4" t="str">
+      <c r="C239" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D239" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
         <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
 End Sub</v>
       </c>
-      <c r="E229" s="5" t="s">
+      <c r="E239" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F229" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" outlineLevel="1">
-      <c r="A230" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F230" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" outlineLevel="1">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C231" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F231" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" outlineLevel="1">
-      <c r="A232" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F232" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" outlineLevel="1">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2" t="s">
+      <c r="F239" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" outlineLevel="1">
+      <c r="A240" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" outlineLevel="1">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C241" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F241" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" outlineLevel="1">
+      <c r="A242" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+      <c r="D242" s="8"/>
+      <c r="E242" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F242" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" outlineLevel="1">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C233" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D233" s="4" t="str">
+      <c r="C243" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D243" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.GetFromClipboard
 	sText = .GetText
 End With</v>
       </c>
-      <c r="E233" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F233" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" outlineLevel="1">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2" t="s">
+      <c r="E243" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" outlineLevel="1">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C234" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D234" s="4" t="str">
+      <c r="C244" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D244" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.SetText sText
 	.PutInClipboard
 End With</v>
       </c>
-      <c r="E234" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F234" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" outlineLevel="1">
-      <c r="A235" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" outlineLevel="1">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2" t="s">
+      <c r="E244" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" outlineLevel="1">
+      <c r="A245" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F245" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" outlineLevel="1">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C236" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D236" s="4" t="str">
+      <c r="C246" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D246" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
         <v>Dim wWord As Object
 Set wWord = CreateObject("Word.Application")
 wWord.Visible = False</v>
       </c>
-      <c r="E236" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F236" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" outlineLevel="1">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2" t="s">
+      <c r="E246" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" outlineLevel="1">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C237" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D237" s="4" t="str">
+      <c r="C247" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D247" s="4" t="str">
         <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
         <v>dDoc.Close
 Set dDoc = Nothing</v>
       </c>
-      <c r="E237" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F237" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" outlineLevel="1">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2" t="s">
+      <c r="E247" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F247" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" outlineLevel="1">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C238" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D238" s="4" t="str">
+      <c r="C248" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D248" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
         <v>wWord.Visible = False
 wWord.Quit
 Set wWord = Nothing</v>
       </c>
-      <c r="E238" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F238" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" outlineLevel="1">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2" t="s">
+      <c r="E248" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" outlineLevel="1">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C239" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D239" s="4" t="str">
+      <c r="C249" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D249" s="4" t="str">
         <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
         <v>Dim dDoc As Object
 Set dDoc = wWord.Documents.Open("sFilePath")</v>
       </c>
-      <c r="E239" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F239" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" outlineLevel="1">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2" t="s">
+      <c r="E249" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F249" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" outlineLevel="1">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C240" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D240" s="4" t="str">
+      <c r="C250" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D250" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
         <v>Dim sParagraph As Object
 For Each sParagraph In dDoc.Paragraphs
 	'～処理～
 Next sParagraph</v>
       </c>
-      <c r="E240" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F240" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" outlineLevel="1">
-      <c r="A241" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F241" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" outlineLevel="1">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2" t="s">
+      <c r="E250" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" outlineLevel="1">
+      <c r="A251" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" outlineLevel="1">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C242" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D242" s="4" t="str">
+      <c r="C252" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D252" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
         <v>Dim wTrgtBook As Workbook
 Application.SheetsInNewWorkbook = 1
 Set wTrgtBook = Workbooks.Add</v>
       </c>
-      <c r="E242" s="5" t="s">
+      <c r="E252" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F242" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" outlineLevel="1">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2" t="s">
+      <c r="F252" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" outlineLevel="1">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C243" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D243" s="4" t="str">
+      <c r="C253" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D253" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
         <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
 	処理
@@ -7261,328 +7624,143 @@
 	エラー
 End If</v>
       </c>
-      <c r="E243" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F243" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" outlineLevel="1">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2" t="s">
+      <c r="E253" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" outlineLevel="1">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C244" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D244" s="4" t="str">
+      <c r="C254" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D254" s="4" t="str">
         <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
         <v>Dim bAddBook As Workbook
 Set bAddBook = Workbooks.Add</v>
       </c>
-      <c r="E244" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F244" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" outlineLevel="1">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2" t="s">
+      <c r="E254" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" outlineLevel="1">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C245" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D245" s="4" t="str">
+      <c r="C255" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D255" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
         <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
-      <c r="E245" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F245" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" outlineLevel="1">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2" t="s">
+      <c r="E255" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" outlineLevel="1">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C246" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D246" s="4" t="str">
+      <c r="C256" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D256" s="4" t="str">
         <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
         <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
       </c>
-      <c r="E246" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F246" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" outlineLevel="1">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2" t="s">
+      <c r="E256" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" outlineLevel="1">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C247" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D247" s="4" t="str">
+      <c r="C257" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D257" s="4" t="str">
         <f>".Sheets.Count"</f>
         <v>.Sheets.Count</v>
       </c>
-      <c r="E247" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F247" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" outlineLevel="1">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2" t="s">
+      <c r="E257" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F257" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" outlineLevel="1">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C248" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D248" s="4" t="str">
+      <c r="C258" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D258" s="4" t="str">
         <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
         <v>Dim shAddSht As Worksheet
 Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
-      <c r="E248" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F248" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" outlineLevel="1">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2" t="s">
+      <c r="E258" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" outlineLevel="1">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C249" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D249" s="4" t="str">
+      <c r="C259" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D259" s="4" t="str">
         <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
         <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
       </c>
-      <c r="E249" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F249" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" outlineLevel="1">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2" t="s">
+      <c r="E259" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F259" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" outlineLevel="1">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C250" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D250" s="4" t="str">
+      <c r="C260" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D260" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
         <v>Application.DisplayAlerts = False
 .Sheets(シート名).Delete
 Application.DisplayAlerts = True</v>
       </c>
-      <c r="E250" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" outlineLevel="1">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C251" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D251" s="4" t="str">
-        <f>".Sheets(シート名).Visible = (True\|False)"</f>
-        <v>.Sheets(シート名).Visible = (True\|False)</v>
-      </c>
-      <c r="E251" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F251" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" outlineLevel="1">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C252" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D252" s="4" t="str">
-        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
-        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
-      </c>
-      <c r="E252" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F252" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" outlineLevel="1">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C253" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D253" s="4" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
-      </c>
-      <c r="E253" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C254" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D254" s="4" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
-      </c>
-      <c r="E254" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" outlineLevel="1">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C255" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D255" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" outlineLevel="1">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C256" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D256" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
-      </c>
-      <c r="E256" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" outlineLevel="1">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C257" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D257" s="4" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
-      </c>
-      <c r="E257" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F257" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" outlineLevel="1">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C258" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D258" s="4" t="str">
-        <f>"Application.CalculateFull"</f>
-        <v>Application.CalculateFull</v>
-      </c>
-      <c r="E258" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F259" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" outlineLevel="1">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C260" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D260" s="4" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
-      </c>
       <c r="E260" s="5" t="s">
         <v>127</v>
       </c>
@@ -7593,14 +7771,14 @@
     <row r="261" spans="1:6" outlineLevel="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="C261" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D261" s="4" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
+        <f>".Sheets(シート名).Visible = (True\|False)"</f>
+        <v>.Sheets(シート名).Visible = (True\|False)</v>
       </c>
       <c r="E261" s="5" t="s">
         <v>127</v>
@@ -7612,14 +7790,14 @@
     <row r="262" spans="1:6" outlineLevel="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C262" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D262" s="4" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
+        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
       <c r="E262" s="5" t="s">
         <v>127</v>
@@ -7631,14 +7809,14 @@
     <row r="263" spans="1:6" outlineLevel="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C263" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D263" s="4" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="E263" s="5" t="s">
         <v>127</v>
@@ -7650,14 +7828,14 @@
     <row r="264" spans="1:6" outlineLevel="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C264" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D264" s="4" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>127</v>
@@ -7669,14 +7847,14 @@
     <row r="265" spans="1:6" outlineLevel="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D265" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>127</v>
@@ -7688,14 +7866,14 @@
     <row r="266" spans="1:6" outlineLevel="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D266" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>127</v>
@@ -7707,14 +7885,14 @@
     <row r="267" spans="1:6" outlineLevel="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D267" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>127</v>
@@ -7726,36 +7904,31 @@
     <row r="268" spans="1:6" outlineLevel="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D268" s="4" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>"Application.CalculateFull"</f>
+        <v>Application.CalculateFull</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="F268" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="269" spans="1:6" outlineLevel="1">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C269" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D269" s="4" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>309</v>
+    <row r="269" spans="1:6">
+      <c r="A269" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="F269" s="11" t="s">
         <v>127</v>
@@ -7764,17 +7937,17 @@
     <row r="270" spans="1:6" outlineLevel="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="C270" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D270" s="4" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="F270" s="11" t="s">
         <v>127</v>
@@ -7783,14 +7956,14 @@
     <row r="271" spans="1:6" outlineLevel="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="C271" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D271" s="4" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E271" s="5" t="s">
         <v>127</v>
@@ -7802,109 +7975,299 @@
     <row r="272" spans="1:6" outlineLevel="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D272" s="4" t="str">
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F272" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" outlineLevel="1">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D273" s="4" t="str">
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F273" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" outlineLevel="1">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D274" s="4" t="str">
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F274" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" outlineLevel="1">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D275" s="4" t="str">
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F275" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" outlineLevel="1">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D276" s="4" t="str">
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" outlineLevel="1">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D277" s="4" t="str">
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F277" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" outlineLevel="1">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D278" s="4" t="str">
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F278" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" outlineLevel="1">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D279" s="4" t="str">
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" outlineLevel="1">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D280" s="4" t="str">
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F280" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" outlineLevel="1">
+      <c r="A281" s="2"/>
+      <c r="B281" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D281" s="4" t="str">
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F281" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" outlineLevel="1">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C272" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D272" s="4" t="str">
+      <c r="C282" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D282" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
         <v>Application.CutCopyMode = False
 .Range("2:4").Insert</v>
       </c>
-      <c r="E272" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F272" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" outlineLevel="1">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2" t="s">
+      <c r="E282" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F282" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" outlineLevel="1">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C273" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D273" s="4" t="str">
+      <c r="C283" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D283" s="4" t="str">
         <f>".Cells(行, 列).Font.Strikethrough"</f>
         <v>.Cells(行, 列).Font.Strikethrough</v>
       </c>
-      <c r="E273" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F273" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" outlineLevel="1">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2" t="s">
+      <c r="E283" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F283" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" outlineLevel="1">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C274" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D274" s="4" t="str">
+      <c r="C284" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D284" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
         <v>wTrgtBook.Sheets(シート名).Activate
 ActiveWindow.DisplayGridlines = False</v>
       </c>
-      <c r="E274" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F274" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" outlineLevel="1">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2" t="s">
+      <c r="E284" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F284" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" outlineLevel="1">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C275" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D275" s="4" t="str">
+      <c r="C285" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D285" s="4" t="str">
         <f>".Range(""A1"").EntireRow.Hidden"</f>
         <v>.Range("A1").EntireRow.Hidden</v>
       </c>
-      <c r="E275" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F275" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" outlineLevel="1">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2" t="s">
+      <c r="E285" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F285" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" outlineLevel="1">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C276" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D276" s="4" t="str">
+      <c r="C286" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D286" s="4" t="str">
         <f>".Range(""A1"").EntireColumn.Hidden"</f>
         <v>.Range("A1").EntireColumn.Hidden</v>
       </c>
-      <c r="E276" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F276" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" outlineLevel="1">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2" t="s">
+      <c r="E286" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F286" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" outlineLevel="1">
+      <c r="A287" s="2"/>
+      <c r="B287" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C277" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D277" s="4" t="str">
+      <c r="C287" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D287" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -7918,198 +8281,8 @@
 End If
 </v>
       </c>
-      <c r="E277" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F277" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" outlineLevel="1">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C278" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D278" s="4" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
-      </c>
-      <c r="E278" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F278" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" outlineLevel="1">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D279" s="4" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F279" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" outlineLevel="1">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C280" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D280" s="4" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
-      </c>
-      <c r="E280" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F280" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" outlineLevel="1">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C281" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D281" s="4" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
-      </c>
-      <c r="E281" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F281" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" outlineLevel="1">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C282" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D282" s="4" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
-      </c>
-      <c r="E282" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F282" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" outlineLevel="1">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C283" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D283" s="4" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F283" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" outlineLevel="1">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C284" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D284" s="4" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F284" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" outlineLevel="1">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C285" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D285" s="4" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
-      </c>
-      <c r="E285" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F285" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" outlineLevel="1">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C286" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D286" s="4" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
-      </c>
-      <c r="E286" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F286" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" outlineLevel="1">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C287" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D287" s="4" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
-      </c>
       <c r="E287" s="5" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F287" s="11" t="s">
         <v>127</v>
@@ -8118,14 +8291,14 @@
     <row r="288" spans="1:6" outlineLevel="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D288" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>127</v>
@@ -8137,14 +8310,14 @@
     <row r="289" spans="1:6" outlineLevel="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C289" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D289" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>127</v>
@@ -8156,14 +8329,14 @@
     <row r="290" spans="1:6" outlineLevel="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D290" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>127</v>
@@ -8175,14 +8348,14 @@
     <row r="291" spans="1:6" outlineLevel="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C291" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D291" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>127</v>
@@ -8194,14 +8367,14 @@
     <row r="292" spans="1:6" outlineLevel="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D292" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>127</v>
@@ -8213,14 +8386,14 @@
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D293" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>127</v>
@@ -8232,14 +8405,14 @@
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C294" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D294" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>127</v>
@@ -8251,14 +8424,14 @@
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C295" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D295" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>127</v>
@@ -8270,16 +8443,17 @@
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="C296" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>330</v>
+        <v>406</v>
+      </c>
+      <c r="D296" s="4" t="str">
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="F296" s="11" t="s">
         <v>127</v>
@@ -8288,16 +8462,17 @@
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>333</v>
+        <v>195</v>
       </c>
       <c r="C297" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D297" s="4" t="s">
-        <v>331</v>
+        <v>406</v>
+      </c>
+      <c r="D297" s="4" t="str">
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>336</v>
+        <v>196</v>
       </c>
       <c r="F297" s="11" t="s">
         <v>127</v>
@@ -8306,16 +8481,17 @@
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>334</v>
+        <v>197</v>
       </c>
       <c r="C298" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D298" s="4" t="s">
-        <v>335</v>
+        <v>406</v>
+      </c>
+      <c r="D298" s="4" t="str">
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="F298" s="11" t="s">
         <v>127</v>
@@ -8324,14 +8500,14 @@
     <row r="299" spans="1:6" outlineLevel="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C299" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D299" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>127</v>
@@ -8343,14 +8519,14 @@
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C300" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D300" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>127</v>
@@ -8362,14 +8538,14 @@
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C301" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D301" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E301" s="5" t="s">
         <v>127</v>
@@ -8381,14 +8557,14 @@
     <row r="302" spans="1:6" outlineLevel="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D302" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>127</v>
@@ -8400,14 +8576,14 @@
     <row r="303" spans="1:6" outlineLevel="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C303" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D303" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E303" s="5" t="s">
         <v>127</v>
@@ -8419,17 +8595,17 @@
     <row r="304" spans="1:6" outlineLevel="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D304" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F304" s="11" t="s">
         <v>127</v>
@@ -8438,14 +8614,14 @@
     <row r="305" spans="1:6" outlineLevel="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C305" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D305" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>127</v>
@@ -8457,17 +8633,16 @@
     <row r="306" spans="1:6" outlineLevel="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="C306" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D306" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <v>406</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="F306" s="11" t="s">
         <v>127</v>
@@ -8476,17 +8651,16 @@
     <row r="307" spans="1:6" outlineLevel="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="C307" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D307" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <v>406</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="F307" s="11" t="s">
         <v>127</v>
@@ -8495,17 +8669,16 @@
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="C308" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D308" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <v>406</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="F308" s="11" t="s">
         <v>127</v>
@@ -8514,14 +8687,14 @@
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C309" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D309" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E309" s="5" t="s">
         <v>127</v>
@@ -8533,17 +8706,17 @@
     <row r="310" spans="1:6" outlineLevel="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C310" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D310" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="F310" s="11" t="s">
         <v>127</v>
@@ -8552,17 +8725,17 @@
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D311" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="F311" s="11" t="s">
         <v>127</v>
@@ -8571,14 +8744,14 @@
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D312" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>127</v>
@@ -8590,14 +8763,14 @@
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C313" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D313" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>127</v>
@@ -8609,17 +8782,17 @@
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C314" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D314" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="F314" s="11" t="s">
         <v>127</v>
@@ -8628,14 +8801,14 @@
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C315" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D315" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>127</v>
@@ -8647,154 +8820,589 @@
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C316" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D316" s="4" t="str">
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F316" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" outlineLevel="1">
+      <c r="A317" s="2"/>
+      <c r="B317" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C317" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D317" s="4" t="str">
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F317" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" outlineLevel="1">
+      <c r="A318" s="2"/>
+      <c r="B318" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C318" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D318" s="4" t="str">
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F318" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" outlineLevel="1">
+      <c r="A319" s="2"/>
+      <c r="B319" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C319" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D319" s="4" t="str">
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F319" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" outlineLevel="1">
+      <c r="A320" s="2"/>
+      <c r="B320" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C320" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D320" s="4" t="str">
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F320" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" outlineLevel="1">
+      <c r="A321" s="2"/>
+      <c r="B321" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C321" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D321" s="4" t="str">
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F321" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" outlineLevel="1">
+      <c r="A322" s="2"/>
+      <c r="B322" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C322" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D322" s="4" t="str">
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F322" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" outlineLevel="1">
+      <c r="A323" s="2"/>
+      <c r="B323" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C323" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D323" s="4" t="str">
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F323" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" outlineLevel="1">
+      <c r="A324" s="2"/>
+      <c r="B324" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C324" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D324" s="4" t="str">
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F324" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" outlineLevel="1">
+      <c r="A325" s="2"/>
+      <c r="B325" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C325" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D325" s="4" t="str">
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F325" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" outlineLevel="1">
+      <c r="A326" s="2"/>
+      <c r="B326" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C316" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D316" s="4" t="str">
+      <c r="C326" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D326" s="4" t="str">
         <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Rows(行).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E316" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F316" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" outlineLevel="1">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2" t="s">
+      <c r="E326" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F326" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" outlineLevel="1">
+      <c r="A327" s="2"/>
+      <c r="B327" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C317" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D317" s="4" t="str">
+      <c r="C327" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D327" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E317" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F317" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" outlineLevel="1">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2" t="s">
+      <c r="E327" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F327" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" outlineLevel="1">
+      <c r="A328" s="2"/>
+      <c r="B328" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C318" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D318" s="4" t="str">
+      <c r="C328" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D328" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E318" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F318" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" outlineLevel="1">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2" t="s">
+      <c r="E328" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F328" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" outlineLevel="1">
+      <c r="A329" s="2"/>
+      <c r="B329" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C319" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D319" s="4" t="str">
+      <c r="C329" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D329" s="4" t="str">
         <f>"ActiveWindow.FreezePanes = False"</f>
         <v>ActiveWindow.FreezePanes = False</v>
       </c>
-      <c r="E319" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F319" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" outlineLevel="1">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2" t="s">
+      <c r="E329" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F329" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" outlineLevel="1">
+      <c r="A330" s="2"/>
+      <c r="B330" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C320" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D320" s="4" t="str">
+      <c r="C330" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D330" s="4" t="str">
         <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
         <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
       </c>
-      <c r="E320" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F320" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" outlineLevel="1">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2" t="s">
+      <c r="E330" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F330" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" outlineLevel="1">
+      <c r="A331" s="2"/>
+      <c r="B331" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C321" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D321" s="4" t="str">
+      <c r="C331" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D331" s="4" t="str">
         <f>"CreateObject(""WScript.Network"").UserName"</f>
         <v>CreateObject("WScript.Network").UserName</v>
       </c>
-      <c r="E321" s="5" t="s">
+      <c r="E331" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F321" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" outlineLevel="1">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2" t="s">
+      <c r="F331" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" outlineLevel="1">
+      <c r="A332" s="2"/>
+      <c r="B332" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C322" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D322" s="4" t="s">
+      <c r="C332" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D332" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E322" s="6" t="str">
+      <c r="E332" s="6" t="str">
         <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
         <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
       </c>
-      <c r="F322" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
-      <c r="A323" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>432</v>
+      <c r="F332" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B333" s="8"/>
+      <c r="C333" s="8"/>
+      <c r="D333" s="8"/>
+      <c r="E333" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F333" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" outlineLevel="1">
+      <c r="A334" s="2"/>
+      <c r="B334" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C334" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D334" s="2" t="str">
+        <f>"Dim bIsSheetExist As Boolean
+bIsSheetExist = False
+For Each wSheet In ThisWorkbook.Worksheets
+    If wSheet.Name = sTrgtSheetName Then
+        bIsSheetExist = True
+    Else
+        'Do Nothing
+    End If
+Next wSheet"</f>
+        <v>Dim bIsSheetExist As Boolean
+bIsSheetExist = False
+For Each wSheet In ThisWorkbook.Worksheets
+    If wSheet.Name = sTrgtSheetName Then
+        bIsSheetExist = True
+    Else
+        'Do Nothing
+    End If
+Next wSheet</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" outlineLevel="1">
+      <c r="A335" s="2"/>
+      <c r="B335" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C335" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D335" s="2" t="str">
+        <f>"Dim rFindResult As Range
+Dim sFindKeyword As String
+Dim shTrgtSht As Worksheet
+Set shTrgtSht = Activesheet
+sFindKeyword = ""test""
+Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)"</f>
+        <v>Dim rFindResult As Range
+Dim sFindKeyword As String
+Dim shTrgtSht As Worksheet
+Set shTrgtSht = Activesheet
+sFindKeyword = "test"
+Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" outlineLevel="1">
+      <c r="A336" s="2"/>
+      <c r="B336" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C336" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D336" s="2" t="str">
+        <f>"If rFindResult Is Nothing Then
+    MsgBox _
+        ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
+        ""　検索対象シート："" &amp; shTrgtSht.Name &amp; vbNewLine &amp; _
+        ""　検索対象キーワード："" &amp; sFindKeyword, _
+        vbCritical
+    End
+End If"</f>
+        <v>If rFindResult Is Nothing Then
+    MsgBox _
+        "セルが見つからなかったため、処理を中断します。" &amp; vbNewLine &amp; _
+        "　検索対象シート：" &amp; shTrgtSht.Name &amp; vbNewLine &amp; _
+        "　検索対象キーワード：" &amp; sFindKeyword, _
+        vbCritical
+    End
+End If</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" outlineLevel="1">
+      <c r="A337" s="2"/>
+      <c r="B337" s="2"/>
+      <c r="C337" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D337" s="10"/>
+      <c r="E337" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" outlineLevel="1">
+      <c r="A338" s="2"/>
+      <c r="B338" s="2"/>
+      <c r="C338" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D338" s="10"/>
+      <c r="E338" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" outlineLevel="1">
+      <c r="A339" s="2"/>
+      <c r="B339" s="2"/>
+      <c r="C339" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D339" s="10"/>
+      <c r="E339" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" outlineLevel="1">
+      <c r="A340" s="2"/>
+      <c r="B340" s="2"/>
+      <c r="C340" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D340" s="10"/>
+      <c r="E340" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" outlineLevel="1">
+      <c r="A341" s="2"/>
+      <c r="B341" s="2"/>
+      <c r="C341" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D341" s="10"/>
+      <c r="E341" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" outlineLevel="1">
+      <c r="A342" s="2"/>
+      <c r="B342" s="2"/>
+      <c r="C342" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D342" s="10"/>
+      <c r="E342" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" outlineLevel="1">
+      <c r="A343" s="2"/>
+      <c r="B343" s="2"/>
+      <c r="C343" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D343" s="10"/>
+      <c r="E343" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" outlineLevel="1">
+      <c r="A344" s="2"/>
+      <c r="B344" s="2"/>
+      <c r="C344" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D344" s="10"/>
+      <c r="E344" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" outlineLevel="1">
+      <c r="A345" s="2"/>
+      <c r="B345" s="2"/>
+      <c r="C345" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D345" s="10"/>
+      <c r="E345" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" outlineLevel="1">
+      <c r="A346" s="2"/>
+      <c r="B346" s="2"/>
+      <c r="C346" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D346" s="10"/>
+      <c r="E346" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" outlineLevel="1">
+      <c r="A347" s="2"/>
+      <c r="B347" s="2"/>
+      <c r="C347" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D347" s="10"/>
+      <c r="E347" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" outlineLevel="1">
+      <c r="A348" s="2"/>
+      <c r="B348" s="2"/>
+      <c r="C348" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D348" s="10"/>
+      <c r="E348" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" outlineLevel="1">
+      <c r="A349" s="2"/>
+      <c r="B349" s="2"/>
+      <c r="C349" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D349" s="10"/>
+      <c r="E349" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -8803,8 +9411,8 @@
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{51FF9B99-DDF0-482F-A859-99967CEF1640}"/>
     <hyperlink ref="E65" r:id="rId2" xr:uid="{1379D4F3-77ED-4F19-AE19-501879C3D708}"/>
-    <hyperlink ref="E146" r:id="rId3" xr:uid="{E05C5702-9A7D-43B3-950C-6EA66C521D18}"/>
-    <hyperlink ref="E170" r:id="rId4" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{647131FE-1804-4878-A961-C3C030D11B35}"/>
+    <hyperlink ref="E144" r:id="rId3" xr:uid="{E05C5702-9A7D-43B3-950C-6EA66C521D18}"/>
+    <hyperlink ref="E168" r:id="rId4" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{647131FE-1804-4878-A961-C3C030D11B35}"/>
     <hyperlink ref="E39" r:id="rId5" xr:uid="{82623296-AC5C-495D-B069-8D9557A73B3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lang_cheet_sheet.xlsx
+++ b/lang_cheet_sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DBE068-9DFE-4F0C-9995-4A3A13A04138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67130626-315E-48EA-948C-DB6FE479F30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,6 @@
     <definedName name="testname03">!$A$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -39,7 +31,7 @@
     <author>Tatsuya Endo</author>
   </authors>
   <commentList>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{51C00D28-30AA-4882-AB03-6E662978338B}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{51C00D28-30AA-4882-AB03-6E662978338B}">
       <text>
         <r>
           <rPr>
@@ -54,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C101" authorId="0" shapeId="0" xr:uid="{A28ED36A-D87E-4F2B-9BC4-F256870A96AA}">
+    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{A28ED36A-D87E-4F2B-9BC4-F256870A96AA}">
       <text>
         <r>
           <rPr>
@@ -74,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="502">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -2030,6 +2022,16 @@
     <t>正規表現検索</t>
     <rPh sb="4" eb="6">
       <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト入力(InputBox)時のキャンセル判定</t>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2682,13 +2684,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F351"/>
+  <dimension ref="A1:F352"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3305,17 +3307,46 @@
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>389</v>
+        <v>501</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>"MsgBox ""Hello world"", vbOKOnly, ""title"""</f>
-        <v>MsgBox "Hello world", vbOKOnly, "title"</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>388</v>
+        <f>"sStr = InputBox(""数値を入力してください。"")
+If IsEmpty(sStr) = True Then
+    msgbox ""キャンセル""
+ElseIf sStr = """" Then
+    msgbox ""空文字""
+Else
+    msgbox ""文字""
+End If"</f>
+        <v>sStr = InputBox("数値を入力してください。")
+If IsEmpty(sStr) = True Then
+    msgbox "キャンセル"
+ElseIf sStr = "" Then
+    msgbox "空文字"
+Else
+    msgbox "文字"
+End If</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>"sStr = InputBox(""数値を入力してください。"")
+If StrPtr(sStr) = 0 Then
+    MsgBox ""キャンセル""
+ElseIf sStr = """" Then
+    MsgBox ""空文字""
+Else
+    MsgBox ""文字""
+End If"</f>
+        <v>sStr = InputBox("数値を入力してください。")
+If StrPtr(sStr) = 0 Then
+    MsgBox "キャンセル"
+ElseIf sStr = "" Then
+    MsgBox "空文字"
+Else
+    MsgBox "文字"
+End If</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>127</v>
@@ -3324,18 +3355,17 @@
     <row r="30" spans="1:6" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>"WScript.Echo ""Hello world"""</f>
-        <v>WScript.Echo "Hello world"</v>
-      </c>
-      <c r="D30" s="4" t="str">
-        <f>"Debug.Print ""Hello world"""</f>
-        <v>Debug.Print "Hello world"</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>127</v>
+        <f>"MsgBox ""Hello world"", vbOKOnly, ""title"""</f>
+        <v>MsgBox "Hello world", vbOKOnly, "title"</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>388</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>127</v>
@@ -3344,17 +3374,18 @@
     <row r="31" spans="1:6" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>"Wscript.StdOut.WriteLine ""Hello world"""</f>
-        <v>Wscript.StdOut.WriteLine "Hello world"</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>406</v>
+        <f>"WScript.Echo ""Hello world"""</f>
+        <v>WScript.Echo "Hello world"</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f>"Debug.Print ""Hello world"""</f>
+        <v>Debug.Print "Hello world"</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>127</v>
@@ -3363,9 +3394,28 @@
     <row r="32" spans="1:6" outlineLevel="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f>"Wscript.StdOut.WriteLine ""Hello world"""</f>
+        <v>Wscript.StdOut.WriteLine "Hello world"</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" outlineLevel="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C32" s="4" t="str">
+      <c r="C33" s="4" t="str">
         <f>"Dim vAnswer" &amp; CHAR(10) &amp; "vAnswer = MsgBox(""処理を継続しますか？"", vbOkCancel, ""title"")" &amp; CHAR(10) &amp; "If vAnswer = vbCancel Then" &amp; CHAR(10) &amp; "    MsgBox ""キャンセルが押されたため、処理を中断します。"", vbExclamation, ""title""" &amp; CHAR(10) &amp; "    WScript.Quit" &amp; CHAR(10) &amp; "End If"</f>
         <v>Dim vAnswer
 vAnswer = MsgBox("処理を継続しますか？", vbOkCancel, "title")
@@ -3374,7 +3424,7 @@
     WScript.Quit
 End If</v>
       </c>
-      <c r="D32" s="10" t="str">
+      <c r="D33" s="10" t="str">
         <f>"Dim vAnswer As Variant" &amp; CHAR(10) &amp; "vAnswer = MsgBox(""処理を継続しますか？"", vbOKCancel, ""タイトル"")" &amp; CHAR(10) &amp; "If vAnswer = vbCancel Then" &amp; CHAR(10) &amp; "    MsgBox ""キャンセルが押されたため、処理を中断します。"", vbExclamation, ""タイトル""" &amp; CHAR(10) &amp; "    Exit Sub" &amp; CHAR(10) &amp; "End If"</f>
         <v>Dim vAnswer As Variant
 vAnswer = MsgBox("処理を継続しますか？", vbOKCancel, "タイトル")
@@ -3383,65 +3433,45 @@
     Exit Sub
 End If</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" outlineLevel="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
+      <c r="F33" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" outlineLevel="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D33" s="4" t="str">
+      <c r="C34" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D34" s="4" t="str">
         <f>"Debug.Assert 条件式"</f>
         <v>Debug.Assert 条件式</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" outlineLevel="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
+      <c r="F34" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" outlineLevel="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="4" t="str">
+      <c r="C35" s="4" t="str">
         <f>"Dim oLog"&amp;CHAR(10)&amp;"Set oLog = New LogMng"</f>
         <v>Dim oLog
 Set oLog = New LogMng</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D35" s="4" t="str">
         <f>"Dim cPrfrmMes As New PerformanceMeasurement"</f>
         <v>Dim cPrfrmMes As New PerformanceMeasurement</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" outlineLevel="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="4" t="str">
-        <f>"Set oLog = Nothing"</f>
-        <v>Set oLog = Nothing</v>
-      </c>
-      <c r="D35" s="4" t="str">
-        <f>"Set cPrfrmMes = Nothing"</f>
-        <v>Set cPrfrmMes = Nothing</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>127</v>
@@ -3453,111 +3483,111 @@
     <row r="36" spans="1:6" outlineLevel="1">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f>"Set oLog = Nothing"</f>
+        <v>Set oLog = Nothing</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f>"Set cPrfrmMes = Nothing"</f>
+        <v>Set cPrfrmMes = Nothing</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" outlineLevel="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="4" t="str">
+      <c r="C37" s="4" t="str">
         <f>"Dim sStr : sStr = ""abc"""</f>
         <v>Dim sStr : sStr = "abc"</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D37" s="4" t="str">
         <f>"Dim sStr As String : sStr = ""abc"""</f>
         <v>Dim sStr As String : sStr = "abc"</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" outlineLevel="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
+      <c r="E37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" outlineLevel="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D37" s="4" t="str">
+      <c r="C38" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D38" s="4" t="str">
         <f>"Stop"</f>
         <v>Stop</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" outlineLevel="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+      <c r="E38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" outlineLevel="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="4" t="str">
+      <c r="C39" s="4" t="str">
         <f>"WScript.Quit"</f>
         <v>WScript.Quit</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D39" s="4" t="str">
         <f>"End"</f>
         <v>End</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" outlineLevel="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
+      <c r="E39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" outlineLevel="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D39" s="4" t="str">
+      <c r="C40" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D40" s="4" t="str">
         <f>"Dim vRetVal As Variant
 vRetVal = CVErr(xlErrRef)"</f>
         <v>Dim vRetVal As Variant
 vRetVal = CVErr(xlErrRef)</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="20" t="s">
+      <c r="F40" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" outlineLevel="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="4" t="str">
-        <f>"Replace(文字列変数, ""  "", """")"</f>
-        <v>Replace(文字列変数, "  ", "")</v>
-      </c>
-      <c r="D41" s="4" t="str">
-        <f>"Replace(文字列変数, ""  "", """")"</f>
-        <v>Replace(文字列変数, "  ", "")</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F41" s="11" t="s">
@@ -3567,18 +3597,18 @@
     <row r="42" spans="1:6" outlineLevel="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>"InStr(""abcabc"", ""bc"")"</f>
-        <v>InStr("abcabc", "bc")</v>
+        <f>"Replace(文字列変数, ""  "", """")"</f>
+        <v>Replace(文字列変数, "  ", "")</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f>"InStr(""abcabc"", ""bc"")"</f>
-        <v>InStr("abcabc", "bc")</v>
+        <f>"Replace(文字列変数, ""  "", """")"</f>
+        <v>Replace(文字列変数, "  ", "")</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>423</v>
+        <v>127</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>127</v>
@@ -3587,18 +3617,18 @@
     <row r="43" spans="1:6" outlineLevel="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>"InStrRev(""abcabc"", ""bc"")"</f>
-        <v>InStrRev("abcabc", "bc")</v>
+        <f>"InStr(""abcabc"", ""bc"")"</f>
+        <v>InStr("abcabc", "bc")</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f>"InStrRev(""abcabc"", ""bc"")"</f>
-        <v>InStrRev("abcabc", "bc")</v>
+        <f>"InStr(""abcabc"", ""bc"")"</f>
+        <v>InStr("abcabc", "bc")</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>127</v>
@@ -3607,18 +3637,18 @@
     <row r="44" spans="1:6" outlineLevel="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>"Len(""リンゴ"""</f>
-        <v>Len("リンゴ"</v>
+        <f>"InStrRev(""abcabc"", ""bc"")"</f>
+        <v>InStrRev("abcabc", "bc")</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f>"Len(""リンゴ"")"</f>
-        <v>Len("リンゴ")</v>
-      </c>
-      <c r="E44" s="5">
-        <v>3</v>
+        <f>"InStrRev(""abcabc"", ""bc"")"</f>
+        <v>InStrRev("abcabc", "bc")</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>127</v>
@@ -3627,17 +3657,18 @@
     <row r="45" spans="1:6" outlineLevel="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>343</v>
+        <v>70</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>"Len(""リンゴ"""</f>
+        <v>Len("リンゴ"</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f>"LenB(""リンゴ"")"</f>
-        <v>LenB("リンゴ")</v>
+        <f>"Len(""リンゴ"")"</f>
+        <v>Len("リンゴ")</v>
       </c>
       <c r="E45" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>127</v>
@@ -3646,18 +3677,17 @@
     <row r="46" spans="1:6" outlineLevel="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="4" t="str">
-        <f>"""abcdef"" &amp; ""gh"""</f>
-        <v>"abcdef" &amp; "gh"</v>
+        <v>71</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f>"abcdef &amp; ""gh"""</f>
-        <v>abcdef &amp; "gh"</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>127</v>
+        <f>"LenB(""リンゴ"")"</f>
+        <v>LenB("リンゴ")</v>
+      </c>
+      <c r="E46" s="5">
+        <v>6</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>127</v>
@@ -3666,18 +3696,18 @@
     <row r="47" spans="1:6" outlineLevel="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>"Left(""abcd"", 3)"</f>
-        <v>Left("abcd", 3)</v>
+        <f>"""abcdef"" &amp; ""gh"""</f>
+        <v>"abcdef" &amp; "gh"</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f>"Left$(""abcd"", 3)"</f>
-        <v>Left$("abcd", 3)</v>
+        <f>"abcdef &amp; ""gh"""</f>
+        <v>abcdef &amp; "gh"</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>127</v>
@@ -3686,18 +3716,18 @@
     <row r="48" spans="1:6" outlineLevel="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>"Mid(""abcdefgh"", 3, 2)"</f>
-        <v>Mid("abcdefgh", 3, 2)</v>
+        <f>"Left(""abcd"", 3)"</f>
+        <v>Left("abcd", 3)</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f>"Mid$(""abcdefgh"", 3, 2)"</f>
-        <v>Mid$("abcdefgh", 3, 2)</v>
+        <f>"Left$(""abcd"", 3)"</f>
+        <v>Left$("abcd", 3)</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>127</v>
@@ -3706,18 +3736,18 @@
     <row r="49" spans="1:6" outlineLevel="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>"Right(""abcd"", 2)"</f>
-        <v>Right("abcd", 2)</v>
+        <f>"Mid(""abcdefgh"", 3, 2)"</f>
+        <v>Mid("abcdefgh", 3, 2)</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f>"Right$(""abcd"", 2)"</f>
-        <v>Right$("abcd", 2)</v>
+        <f>"Mid$(""abcdefgh"", 3, 2)"</f>
+        <v>Mid$("abcdefgh", 3, 2)</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>127</v>
@@ -3726,16 +3756,18 @@
     <row r="50" spans="1:6" outlineLevel="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>325</v>
+        <v>75</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f>"Right(""abcd"", 2)"</f>
+        <v>Right("abcd", 2)</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <f>"Right$(""abcd"", 2)"</f>
+        <v>Right$("abcd", 2)</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>127</v>
@@ -3744,16 +3776,16 @@
     <row r="51" spans="1:6" outlineLevel="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>127</v>
@@ -3762,16 +3794,16 @@
     <row r="52" spans="1:6" outlineLevel="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>127</v>
@@ -3780,18 +3812,16 @@
     <row r="53" spans="1:6" outlineLevel="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="4" t="str">
-        <f>"Asc(文字)"</f>
-        <v>Asc(文字)</v>
-      </c>
-      <c r="D53" s="4" t="str">
-        <f>"Asc(文字)"</f>
-        <v>Asc(文字)</v>
+        <v>341</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>127</v>
+        <v>416</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>127</v>
@@ -3800,18 +3830,18 @@
     <row r="54" spans="1:6" outlineLevel="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f>"IsNumeric( sStr )"</f>
-        <v>IsNumeric( sStr )</v>
+        <f>"Asc(文字)"</f>
+        <v>Asc(文字)</v>
       </c>
       <c r="D54" s="4" t="str">
-        <f>"IsNumeric( sStr )"</f>
-        <v>IsNumeric( sStr )</v>
+        <f>"Asc(文字)"</f>
+        <v>Asc(文字)</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>417</v>
+        <v>127</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>127</v>
@@ -3820,18 +3850,18 @@
     <row r="55" spans="1:6" outlineLevel="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>"Chr(ASCIIコード)"</f>
-        <v>Chr(ASCIIコード)</v>
+        <f>"IsNumeric( sStr )"</f>
+        <v>IsNumeric( sStr )</v>
       </c>
       <c r="D55" s="4" t="str">
-        <f>"Chr(ASCIIコード)"</f>
-        <v>Chr(ASCIIコード)</v>
+        <f>"IsNumeric( sStr )"</f>
+        <v>IsNumeric( sStr )</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>127</v>
@@ -3840,18 +3870,18 @@
     <row r="56" spans="1:6" outlineLevel="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f>"""a"" &amp; String(4, ""b"")"</f>
-        <v>"a" &amp; String(4, "b")</v>
+        <f>"Chr(ASCIIコード)"</f>
+        <v>Chr(ASCIIコード)</v>
       </c>
       <c r="D56" s="4" t="str">
-        <f>"""a"" &amp; String(4, ""b"")"</f>
-        <v>"a" &amp; String(4, "b")</v>
+        <f>"Chr(ASCIIコード)"</f>
+        <v>Chr(ASCIIコード)</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>127</v>
@@ -3860,18 +3890,18 @@
     <row r="57" spans="1:6" outlineLevel="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>"UCase(""aaa"")"</f>
-        <v>UCase("aaa")</v>
+        <f>"""a"" &amp; String(4, ""b"")"</f>
+        <v>"a" &amp; String(4, "b")</v>
       </c>
       <c r="D57" s="4" t="str">
-        <f>"UCase(""aaa"")"</f>
-        <v>UCase("aaa")</v>
+        <f>"""a"" &amp; String(4, ""b"")"</f>
+        <v>"a" &amp; String(4, "b")</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>127</v>
+        <v>299</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>127</v>
@@ -3880,15 +3910,15 @@
     <row r="58" spans="1:6" outlineLevel="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>"LCase(""AAA"")"</f>
-        <v>LCase("AAA")</v>
+        <f>"UCase(""aaa"")"</f>
+        <v>UCase("aaa")</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f>"LCase(""AAA"")"</f>
-        <v>LCase("AAA")</v>
+        <f>"UCase(""aaa"")"</f>
+        <v>UCase("aaa")</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>127</v>
@@ -3900,18 +3930,18 @@
     <row r="59" spans="1:6" outlineLevel="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>"ReDim Preserve 配列名(5)"</f>
-        <v>ReDim Preserve 配列名(5)</v>
+        <f>"LCase(""AAA"")"</f>
+        <v>LCase("AAA")</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f>"ReDim Preserve 配列名(5)"</f>
-        <v>ReDim Preserve 配列名(5)</v>
+        <f>"LCase(""AAA"")"</f>
+        <v>LCase("AAA")</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>127</v>
@@ -3920,18 +3950,18 @@
     <row r="60" spans="1:6" outlineLevel="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f>"UBound(配列名)"</f>
-        <v>UBound(配列名)</v>
+        <f>"ReDim Preserve 配列名(5)"</f>
+        <v>ReDim Preserve 配列名(5)</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f>"UBound(配列名)"</f>
-        <v>UBound(配列名)</v>
+        <f>"ReDim Preserve 配列名(5)"</f>
+        <v>ReDim Preserve 配列名(5)</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>127</v>
@@ -3940,9 +3970,29 @@
     <row r="61" spans="1:6" outlineLevel="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <f>"UBound(配列名)"</f>
+        <v>UBound(配列名)</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <f>"UBound(配列名)"</f>
+        <v>UBound(配列名)</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" outlineLevel="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="4" t="str">
+      <c r="C62" s="4" t="str">
         <f>"Dim asArray()"&amp;CHAR(10)&amp;"ReDim asArray(-1)"&amp;CHAR(10)&amp;"If Ubound(asArray) = -1 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'未定義配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'定義済み配列"&amp;CHAR(10)&amp;"End If"</f>
         <v>Dim asArray()
 ReDim asArray(-1)
@@ -3952,7 +4002,7 @@
 	'定義済み配列
 End If</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D62" s="4" t="str">
         <f>"If Sgn(asStr) = 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"未初期化配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"要素数１配列"&amp;CHAR(10)&amp;"End If"</f>
         <v>If Sgn(asStr) = 0 Then
 	未初期化配列
@@ -3960,26 +4010,6 @@
 	要素数１配列
 End If</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" outlineLevel="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="4" t="str">
-        <f>"Join(配列, "","")"</f>
-        <v>Join(配列, ",")</v>
-      </c>
-      <c r="D62" s="4" t="str">
-        <f>"Join(配列, "","")"</f>
-        <v>Join(配列, ",")</v>
-      </c>
       <c r="E62" s="5" t="s">
         <v>127</v>
       </c>
@@ -3990,18 +4020,18 @@
     <row r="63" spans="1:6" outlineLevel="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="4" t="str">
-        <f>"objWords = Split( sFilePath , ""\"" )"</f>
-        <v>objWords = Split( sFilePath , "\" )</v>
+        <f>"Join(配列, "","")"</f>
+        <v>Join(配列, ",")</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f>"文字列配列 = Split(""aaa,bbb,ccc"", "","")"</f>
-        <v>文字列配列 = Split("aaa,bbb,ccc", ",")</v>
+        <f>"Join(配列, "","")"</f>
+        <v>Join(配列, ",")</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>127</v>
@@ -4010,18 +4040,18 @@
     <row r="64" spans="1:6" outlineLevel="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f>"TypeName(""Test"")"</f>
-        <v>TypeName("Test")</v>
+        <f>"objWords = Split( sFilePath , ""\"" )"</f>
+        <v>objWords = Split( sFilePath , "\" )</v>
       </c>
       <c r="D64" s="4" t="str">
-        <f>"TypeName(""Test"")"</f>
-        <v>TypeName("Test")</v>
+        <f>"文字列配列 = Split(""aaa,bbb,ccc"", "","")"</f>
+        <v>文字列配列 = Split("aaa,bbb,ccc", ",")</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>127</v>
@@ -4030,18 +4060,18 @@
     <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="4" t="str">
-        <f>"VarType(""Test"")"</f>
-        <v>VarType("Test")</v>
+        <f>"TypeName(""Test"")"</f>
+        <v>TypeName("Test")</v>
       </c>
       <c r="D65" s="4" t="str">
-        <f>"VarType(""Test"")"</f>
-        <v>VarType("Test")</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>419</v>
+        <f>"TypeName(""Test"")"</f>
+        <v>TypeName("Test")</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>127</v>
@@ -4050,18 +4080,18 @@
     <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f>"Hex(734)"</f>
-        <v>Hex(734)</v>
+        <f>"VarType(""Test"")"</f>
+        <v>VarType("Test")</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f>"文字列変数 = Hex(734)"</f>
-        <v>文字列変数 = Hex(734)</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>127</v>
+        <f>"VarType(""Test"")"</f>
+        <v>VarType("Test")</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>127</v>
@@ -4070,14 +4100,15 @@
     <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="4" t="str">
-        <f>"CLng(""&amp;H"" &amp; ""FA"")"</f>
-        <v>CLng("&amp;H" &amp; "FA")</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>428</v>
+        <f>"Hex(734)"</f>
+        <v>Hex(734)</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <f>"文字列変数 = Hex(734)"</f>
+        <v>文字列変数 = Hex(734)</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>127</v>
@@ -4089,15 +4120,14 @@
     <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="4" t="str">
-        <f>"&amp;HFFF0"</f>
-        <v>&amp;HFFF0</v>
-      </c>
-      <c r="D68" s="4" t="str">
-        <f>"&amp;HFFF0"</f>
-        <v>&amp;HFFF0</v>
+        <f>"CLng(""&amp;H"" &amp; ""FA"")"</f>
+        <v>CLng("&amp;H" &amp; "FA")</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>127</v>
@@ -4109,15 +4139,15 @@
     <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="4" t="str">
-        <f>"&amp;HFFF0&amp;"</f>
-        <v>&amp;HFFF0&amp;</v>
+        <f>"&amp;HFFF0"</f>
+        <v>&amp;HFFF0</v>
       </c>
       <c r="D69" s="4" t="str">
-        <f>"&amp;HFFF0&amp;"</f>
-        <v>&amp;HFFF0&amp;</v>
+        <f>"&amp;HFFF0"</f>
+        <v>&amp;HFFF0</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>127</v>
@@ -4129,18 +4159,18 @@
     <row r="70" spans="1:6" outlineLevel="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="4" t="str">
-        <f>"CStr(234.5)"</f>
-        <v>CStr(234.5)</v>
+        <f>"&amp;HFFF0&amp;"</f>
+        <v>&amp;HFFF0&amp;</v>
       </c>
       <c r="D70" s="4" t="str">
-        <f>"Val(文字列式)"</f>
-        <v>Val(文字列式)</v>
+        <f>"&amp;HFFF0&amp;"</f>
+        <v>&amp;HFFF0&amp;</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>127</v>
@@ -4149,18 +4179,18 @@
     <row r="71" spans="1:6" outlineLevel="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="4" t="str">
-        <f>"CDbl(""234.5"")"</f>
-        <v>CDbl("234.5")</v>
+        <f>"CStr(234.5)"</f>
+        <v>CStr(234.5)</v>
       </c>
       <c r="D71" s="4" t="str">
-        <f>"Str(数値)"</f>
-        <v>Str(数値)</v>
-      </c>
-      <c r="E71" s="5">
-        <v>234.5</v>
+        <f>"Val(文字列式)"</f>
+        <v>Val(文字列式)</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>127</v>
@@ -4169,18 +4199,18 @@
     <row r="72" spans="1:6" outlineLevel="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f>"CLng(""234.5"")"</f>
-        <v>CLng("234.5")</v>
+        <f>"CDbl(""234.5"")"</f>
+        <v>CDbl("234.5")</v>
       </c>
       <c r="D72" s="4" t="str">
         <f>"Str(数値)"</f>
         <v>Str(数値)</v>
       </c>
       <c r="E72" s="5">
-        <v>234</v>
+        <v>234.5</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>127</v>
@@ -4189,17 +4219,18 @@
     <row r="73" spans="1:6" outlineLevel="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f>"vbNewLine"</f>
-        <v>vbNewLine</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>141</v>
+        <f>"CLng(""234.5"")"</f>
+        <v>CLng("234.5")</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f>"Str(数値)"</f>
+        <v>Str(数値)</v>
+      </c>
+      <c r="E73" s="5">
+        <v>234</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>127</v>
@@ -4208,18 +4239,17 @@
     <row r="74" spans="1:6" outlineLevel="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74" s="4" t="str">
-        <f>"Fix( 99.224 )"</f>
-        <v>Fix( 99.224 )</v>
-      </c>
-      <c r="D74" s="4" t="str">
-        <f>"Fix( 99.224 )"</f>
-        <v>Fix( 99.224 )</v>
-      </c>
-      <c r="E74" s="5">
-        <v>99</v>
+        <f>"vbNewLine"</f>
+        <v>vbNewLine</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>127</v>
@@ -4228,15 +4258,15 @@
     <row r="75" spans="1:6" outlineLevel="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f>"Int( 99.224 )"</f>
-        <v>Int( 99.224 )</v>
+        <f>"Fix( 99.224 )"</f>
+        <v>Fix( 99.224 )</v>
       </c>
       <c r="D75" s="4" t="str">
-        <f>"Int( 99.224 )"</f>
-        <v>Int( 99.224 )</v>
+        <f>"Fix( 99.224 )"</f>
+        <v>Fix( 99.224 )</v>
       </c>
       <c r="E75" s="5">
         <v>99</v>
@@ -4248,18 +4278,18 @@
     <row r="76" spans="1:6" outlineLevel="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <f>"Int( 99.224 )"</f>
+        <v>Int( 99.224 )</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f>"Int( 99.224 )"</f>
+        <v>Int( 99.224 )</v>
+      </c>
+      <c r="E76" s="5">
         <v>99</v>
-      </c>
-      <c r="C76" s="4" t="str">
-        <f>"Fix( -99.224 )"</f>
-        <v>Fix( -99.224 )</v>
-      </c>
-      <c r="D76" s="4" t="str">
-        <f>"Fix( -99.224 )"</f>
-        <v>Fix( -99.224 )</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>127</v>
@@ -4268,18 +4298,18 @@
     <row r="77" spans="1:6" outlineLevel="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="4" t="str">
-        <f>"Int( -99.224 )"</f>
-        <v>Int( -99.224 )</v>
+        <f>"Fix( -99.224 )"</f>
+        <v>Fix( -99.224 )</v>
       </c>
       <c r="D77" s="4" t="str">
-        <f>"Int( -99.224 )"</f>
-        <v>Int( -99.224 )</v>
+        <f>"Fix( -99.224 )"</f>
+        <v>Fix( -99.224 )</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>127</v>
@@ -4288,18 +4318,18 @@
     <row r="78" spans="1:6" outlineLevel="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="4" t="str">
-        <f>"Round( 99.555, 0 )"</f>
-        <v>Round( 99.555, 0 )</v>
+        <f>"Int( -99.224 )"</f>
+        <v>Int( -99.224 )</v>
       </c>
       <c r="D78" s="4" t="str">
-        <f>"Round( 99.555, 0 )"</f>
-        <v>Round( 99.555, 0 )</v>
-      </c>
-      <c r="E78" s="5">
-        <v>100</v>
+        <f>"Int( -99.224 )"</f>
+        <v>Int( -99.224 )</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>127</v>
@@ -4308,18 +4338,18 @@
     <row r="79" spans="1:6" outlineLevel="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="4" t="str">
-        <f>"Round( 99.555, 1 )"</f>
-        <v>Round( 99.555, 1 )</v>
+        <f>"Round( 99.555, 0 )"</f>
+        <v>Round( 99.555, 0 )</v>
       </c>
       <c r="D79" s="4" t="str">
-        <f>"Round( 99.555, 1 )"</f>
-        <v>Round( 99.555, 1 )</v>
+        <f>"Round( 99.555, 0 )"</f>
+        <v>Round( 99.555, 0 )</v>
       </c>
       <c r="E79" s="5">
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>127</v>
@@ -4328,18 +4358,18 @@
     <row r="80" spans="1:6" outlineLevel="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="4" t="str">
-        <f>"Round( 99.555, 2 )"</f>
-        <v>Round( 99.555, 2 )</v>
+        <f>"Round( 99.555, 1 )"</f>
+        <v>Round( 99.555, 1 )</v>
       </c>
       <c r="D80" s="4" t="str">
-        <f>"Round( 99.555, 2 )"</f>
-        <v>Round( 99.555, 2 )</v>
+        <f>"Round( 99.555, 1 )"</f>
+        <v>Round( 99.555, 1 )</v>
       </c>
       <c r="E80" s="5">
-        <v>99.56</v>
+        <v>99.6</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>127</v>
@@ -4348,18 +4378,18 @@
     <row r="81" spans="1:6" outlineLevel="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" s="4" t="str">
-        <f>"Round( -99.555, 0 )"</f>
-        <v>Round( -99.555, 0 )</v>
+        <f>"Round( 99.555, 2 )"</f>
+        <v>Round( 99.555, 2 )</v>
       </c>
       <c r="D81" s="4" t="str">
-        <f>"Round( -99.555, 0 )"</f>
-        <v>Round( -99.555, 0 )</v>
+        <f>"Round( 99.555, 2 )"</f>
+        <v>Round( 99.555, 2 )</v>
       </c>
       <c r="E81" s="5">
-        <v>-100</v>
+        <v>99.56</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>127</v>
@@ -4368,18 +4398,18 @@
     <row r="82" spans="1:6" outlineLevel="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82" s="4" t="str">
-        <f>"Round( -99.555, 1 )"</f>
-        <v>Round( -99.555, 1 )</v>
+        <f>"Round( -99.555, 0 )"</f>
+        <v>Round( -99.555, 0 )</v>
       </c>
       <c r="D82" s="4" t="str">
-        <f>"Round( -99.555, 1 )"</f>
-        <v>Round( -99.555, 1 )</v>
+        <f>"Round( -99.555, 0 )"</f>
+        <v>Round( -99.555, 0 )</v>
       </c>
       <c r="E82" s="5">
-        <v>-99.6</v>
+        <v>-100</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>127</v>
@@ -4388,18 +4418,18 @@
     <row r="83" spans="1:6" outlineLevel="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83" s="4" t="str">
-        <f>"Round( -99.555, 2 )"</f>
-        <v>Round( -99.555, 2 )</v>
+        <f>"Round( -99.555, 1 )"</f>
+        <v>Round( -99.555, 1 )</v>
       </c>
       <c r="D83" s="4" t="str">
-        <f>"Round( -99.555, 2 )"</f>
-        <v>Round( -99.555, 2 )</v>
+        <f>"Round( -99.555, 1 )"</f>
+        <v>Round( -99.555, 1 )</v>
       </c>
       <c r="E83" s="5">
-        <v>-99.56</v>
+        <v>-99.6</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>127</v>
@@ -4408,18 +4438,18 @@
     <row r="84" spans="1:6" outlineLevel="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" s="4" t="str">
-        <f>"Round( 99.224 + 0.5, 0 )"</f>
-        <v>Round( 99.224 + 0.5, 0 )</v>
+        <f>"Round( -99.555, 2 )"</f>
+        <v>Round( -99.555, 2 )</v>
       </c>
       <c r="D84" s="4" t="str">
-        <f>"Round( 99.224 + 0.5, 0 )"</f>
-        <v>Round( 99.224 + 0.5, 0 )</v>
+        <f>"Round( -99.555, 2 )"</f>
+        <v>Round( -99.555, 2 )</v>
       </c>
       <c r="E84" s="5">
-        <v>100</v>
+        <v>-99.56</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>127</v>
@@ -4428,18 +4458,18 @@
     <row r="85" spans="1:6" outlineLevel="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85" s="4" t="str">
-        <f>"Round( 99.224 + 0.05, 1 )"</f>
-        <v>Round( 99.224 + 0.05, 1 )</v>
+        <f>"Round( 99.224 + 0.5, 0 )"</f>
+        <v>Round( 99.224 + 0.5, 0 )</v>
       </c>
       <c r="D85" s="4" t="str">
-        <f>"Round( 99.224 + 0.05, 1 )"</f>
-        <v>Round( 99.224 + 0.05, 1 )</v>
+        <f>"Round( 99.224 + 0.5, 0 )"</f>
+        <v>Round( 99.224 + 0.5, 0 )</v>
       </c>
       <c r="E85" s="5">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>127</v>
@@ -4448,18 +4478,18 @@
     <row r="86" spans="1:6" outlineLevel="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86" s="4" t="str">
-        <f>"Round( -99.224 - 0.5, 0 )"</f>
-        <v>Round( -99.224 - 0.5, 0 )</v>
+        <f>"Round( 99.224 + 0.05, 1 )"</f>
+        <v>Round( 99.224 + 0.05, 1 )</v>
       </c>
       <c r="D86" s="4" t="str">
-        <f>"Round( -99.224 - 0.5, 0 )"</f>
-        <v>Round( -99.224 - 0.5, 0 )</v>
+        <f>"Round( 99.224 + 0.05, 1 )"</f>
+        <v>Round( 99.224 + 0.05, 1 )</v>
       </c>
       <c r="E86" s="5">
-        <v>-100</v>
+        <v>99.3</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>127</v>
@@ -4468,18 +4498,18 @@
     <row r="87" spans="1:6" outlineLevel="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" s="4" t="str">
-        <f>"Round( -99.224 - 0.05, 1 )"</f>
-        <v>Round( -99.224 - 0.05, 1 )</v>
+        <f>"Round( -99.224 - 0.5, 0 )"</f>
+        <v>Round( -99.224 - 0.5, 0 )</v>
       </c>
       <c r="D87" s="4" t="str">
-        <f>"Round( -99.224 - 0.05, 1 )"</f>
-        <v>Round( -99.224 - 0.05, 1 )</v>
+        <f>"Round( -99.224 - 0.5, 0 )"</f>
+        <v>Round( -99.224 - 0.5, 0 )</v>
       </c>
       <c r="E87" s="5">
-        <v>-99.3</v>
+        <v>-100</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>127</v>
@@ -4488,18 +4518,18 @@
     <row r="88" spans="1:6" outlineLevel="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" s="4" t="str">
-        <f>"Round( 99.224 - 0.5, 0 )"</f>
-        <v>Round( 99.224 - 0.5, 0 )</v>
+        <f>"Round( -99.224 - 0.05, 1 )"</f>
+        <v>Round( -99.224 - 0.05, 1 )</v>
       </c>
       <c r="D88" s="4" t="str">
-        <f>"Round( 99.224 - 0.5, 0 )"</f>
-        <v>Round( 99.224 - 0.5, 0 )</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>138</v>
+        <f>"Round( -99.224 - 0.05, 1 )"</f>
+        <v>Round( -99.224 - 0.05, 1 )</v>
+      </c>
+      <c r="E88" s="5">
+        <v>-99.3</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>127</v>
@@ -4508,18 +4538,18 @@
     <row r="89" spans="1:6" outlineLevel="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="4" t="str">
-        <f>"Round( 99.224 - 0.05, 1 )"</f>
-        <v>Round( 99.224 - 0.05, 1 )</v>
+        <f>"Round( 99.224 - 0.5, 0 )"</f>
+        <v>Round( 99.224 - 0.5, 0 )</v>
       </c>
       <c r="D89" s="4" t="str">
-        <f>"Round( 99.224 - 0.05, 1 )"</f>
-        <v>Round( 99.224 - 0.05, 1 )</v>
-      </c>
-      <c r="E89" s="5">
-        <v>99.2</v>
+        <f>"Round( 99.224 - 0.5, 0 )"</f>
+        <v>Round( 99.224 - 0.5, 0 )</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>127</v>
@@ -4528,18 +4558,18 @@
     <row r="90" spans="1:6" outlineLevel="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C90" s="4" t="str">
-        <f>"Round( -99.224 + 0.5, 0 )"</f>
-        <v>Round( -99.224 + 0.5, 0 )</v>
+        <f>"Round( 99.224 - 0.05, 1 )"</f>
+        <v>Round( 99.224 - 0.05, 1 )</v>
       </c>
       <c r="D90" s="4" t="str">
-        <f>"Round( -99.224 + 0.5, 0 )"</f>
-        <v>Round( -99.224 + 0.5, 0 )</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>139</v>
+        <f>"Round( 99.224 - 0.05, 1 )"</f>
+        <v>Round( 99.224 - 0.05, 1 )</v>
+      </c>
+      <c r="E90" s="5">
+        <v>99.2</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>127</v>
@@ -4548,50 +4578,51 @@
     <row r="91" spans="1:6" outlineLevel="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <f>"Round( -99.224 + 0.5, 0 )"</f>
+        <v>Round( -99.224 + 0.5, 0 )</v>
+      </c>
+      <c r="D91" s="4" t="str">
+        <f>"Round( -99.224 + 0.5, 0 )"</f>
+        <v>Round( -99.224 + 0.5, 0 )</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" outlineLevel="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="4" t="str">
+      <c r="C92" s="4" t="str">
         <f>"Round( -99.224 + 0.05, 1 )"</f>
         <v>Round( -99.224 + 0.05, 1 )</v>
       </c>
-      <c r="D91" s="4" t="str">
+      <c r="D92" s="4" t="str">
         <f>"Round( -99.224 + 0.05, 1 )"</f>
         <v>Round( -99.224 + 0.05, 1 )</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E92" s="5">
         <v>-99.2</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="20" t="s">
+      <c r="F92" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" outlineLevel="1">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="D93" s="4" t="str">
-        <f>"On Error Resume Next"</f>
-        <v>On Error Resume Next</v>
-      </c>
-      <c r="E93" s="5" t="s">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F93" s="11" t="s">
@@ -4601,15 +4632,14 @@
     <row r="94" spans="1:6" outlineLevel="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C94" s="4" t="str">
-        <f>"On Error Goto 0"</f>
-        <v>On Error Goto 0</v>
+        <v>30</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="D94" s="4" t="str">
-        <f>"On Error Goto 0"</f>
-        <v>On Error Goto 0</v>
+        <f>"On Error Resume Next"</f>
+        <v>On Error Resume Next</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>127</v>
@@ -4621,15 +4651,15 @@
     <row r="95" spans="1:6" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" s="4" t="str">
-        <f>"Err.Number"</f>
-        <v>Err.Number</v>
+        <f>"On Error Goto 0"</f>
+        <v>On Error Goto 0</v>
       </c>
       <c r="D95" s="4" t="str">
-        <f>"Err.Number"</f>
-        <v>Err.Number</v>
+        <f>"On Error Goto 0"</f>
+        <v>On Error Goto 0</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>127</v>
@@ -4641,15 +4671,15 @@
     <row r="96" spans="1:6" outlineLevel="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C96" s="4" t="str">
-        <f>"Err.Description"</f>
-        <v>Err.Description</v>
+        <f>"Err.Number"</f>
+        <v>Err.Number</v>
       </c>
       <c r="D96" s="4" t="str">
-        <f>"Err.Description"</f>
-        <v>Err.Description</v>
+        <f>"Err.Number"</f>
+        <v>Err.Number</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>127</v>
@@ -4661,17 +4691,18 @@
     <row r="97" spans="1:6" outlineLevel="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>406</v>
+        <v>33</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <f>"Err.Description"</f>
+        <v>Err.Description</v>
       </c>
       <c r="D97" s="4" t="str">
-        <f>"On Error GoTo ErrorLabel"</f>
-        <v>On Error GoTo ErrorLabel</v>
+        <f>"Err.Description"</f>
+        <v>Err.Description</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>127</v>
@@ -4680,49 +4711,49 @@
     <row r="98" spans="1:6" outlineLevel="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <f>"On Error GoTo ErrorLabel"</f>
+        <v>On Error GoTo ErrorLabel</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" outlineLevel="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C98" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D98" s="4" t="str">
+      <c r="C99" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D99" s="4" t="str">
         <f>"ErrorLabel:"</f>
         <v>ErrorLabel:</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="20" t="s">
+      <c r="E99" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" outlineLevel="1">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C100" s="4" t="str">
-        <f>"Dim objTxtFile"</f>
-        <v>Dim objTxtFile</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F100" s="11" t="s">
@@ -4732,14 +4763,14 @@
     <row r="101" spans="1:6" outlineLevel="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>414</v>
       </c>
       <c r="C101" s="4" t="str">
-        <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
-        <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>411</v>
+        <f>"Dim objTxtFile"</f>
+        <v>Dim objTxtFile</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>127</v>
@@ -4751,16 +4782,18 @@
     <row r="102" spans="1:6" outlineLevel="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C102" s="4" t="str">
-        <f>"objTxtFile.Close"</f>
-        <v>objTxtFile.Close</v>
+        <f>"Set objTxtFile = objFSO.OpenTextFile(""c:\codes\test\a.txt"", 1, True)"</f>
+        <v>Set objTxtFile = objFSO.OpenTextFile("c:\codes\test\a.txt", 1, True)</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E102" s="5"/>
+        <v>411</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F102" s="11" t="s">
         <v>127</v>
       </c>
@@ -4768,42 +4801,39 @@
     <row r="103" spans="1:6" outlineLevel="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="4" t="str">
+        <f>"objTxtFile.Close"</f>
+        <v>objTxtFile.Close</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" outlineLevel="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C103" s="4" t="str">
+      <c r="C104" s="4" t="str">
         <f>"Do Until objTxtFile.AtEndOfStream"&amp;CHAR(10)&amp;"strLine = objTxtFile.ReadLine"&amp;CHAR(10)&amp;"Loop"</f>
         <v>Do Until objTxtFile.AtEndOfStream
 strLine = objTxtFile.ReadLine
 Loop</v>
       </c>
-      <c r="D103" s="4" t="str">
+      <c r="D104" s="4" t="str">
         <f>"Do Until EOF(1)"&amp;CHAR(10)&amp;"    Line Input #1, 文字列変数"&amp;CHAR(10)&amp;"Loop"</f>
         <v>Do Until EOF(1)
     Line Input #1, 文字列変数
 Loop</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" outlineLevel="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" s="4" t="str">
-        <f>"sTextAll = objTxtFile.ReadAll"</f>
-        <v>sTextAll = objTxtFile.ReadAll</v>
-      </c>
-      <c r="D104" s="4" t="str">
-        <f>"sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll"</f>
-        <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
-      </c>
       <c r="E104" s="5" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>127</v>
@@ -4812,18 +4842,18 @@
     <row r="105" spans="1:6" outlineLevel="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C105" s="4" t="str">
-        <f>"objTxtFile.WriteLine strLine"</f>
-        <v>objTxtFile.WriteLine strLine</v>
+        <f>"sTextAll = objTxtFile.ReadAll"</f>
+        <v>sTextAll = objTxtFile.ReadAll</v>
       </c>
       <c r="D105" s="4" t="str">
-        <f>"Print #1, 文字列変数"</f>
-        <v>Print #1, 文字列変数</v>
+        <f>"sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll"</f>
+        <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>127</v>
@@ -4832,52 +4862,52 @@
     <row r="106" spans="1:6" outlineLevel="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <f>"objTxtFile.WriteLine strLine"</f>
+        <v>objTxtFile.WriteLine strLine</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <f>"Print #1, 文字列変数"</f>
+        <v>Print #1, 文字列変数</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" outlineLevel="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C106" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D106" s="4" t="str">
+      <c r="C107" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D107" s="4" t="str">
         <f>"Set wTargetBook = Workbooks.Open(sTargetBookName)"&amp;CHAR(10)&amp;"wTargetBook.Close SaveChanges:=True"</f>
         <v>Set wTargetBook = Workbooks.Open(sTargetBookName)
 wTargetBook.Close SaveChanges:=True</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="20" t="s">
+      <c r="E107" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" outlineLevel="1">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C108" s="4" t="str">
-        <f>"Now()"</f>
-        <v>Now()</v>
-      </c>
-      <c r="D108" s="4" t="str">
-        <f>"Now"</f>
-        <v>Now</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>302</v>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="F108" s="11" t="s">
         <v>127</v>
@@ -4886,18 +4916,18 @@
     <row r="109" spans="1:6" outlineLevel="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" s="4" t="str">
-        <f>"Date()"</f>
-        <v>Date()</v>
+        <f>"Now()"</f>
+        <v>Now()</v>
       </c>
       <c r="D109" s="4" t="str">
-        <f>"Date"</f>
-        <v>Date</v>
+        <f>"Now"</f>
+        <v>Now</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>127</v>
@@ -4906,18 +4936,18 @@
     <row r="110" spans="1:6" outlineLevel="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" s="4" t="str">
-        <f>"Timer()"</f>
-        <v>Timer()</v>
+        <f>"Date()"</f>
+        <v>Date()</v>
       </c>
       <c r="D110" s="4" t="str">
-        <f>"Timer"</f>
-        <v>Timer</v>
+        <f>"Date"</f>
+        <v>Date</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>127</v>
@@ -4926,9 +4956,29 @@
     <row r="111" spans="1:6" outlineLevel="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" s="4" t="str">
+        <f>"Timer()"</f>
+        <v>Timer()</v>
+      </c>
+      <c r="D111" s="4" t="str">
+        <f>"Timer"</f>
+        <v>Timer</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" outlineLevel="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="4" t="str">
+      <c r="C112" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
         <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
 	'sModDate が新しい
@@ -4938,7 +4988,7 @@
 	'sModDate = sCmpBaseTime
 End If</v>
       </c>
-      <c r="D111" s="4" t="str">
+      <c r="D112" s="4" t="str">
         <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
         <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
 	sModDate が新しい
@@ -4948,83 +4998,65 @@
 	sModDate = sCmpBaseTime
 End If</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" outlineLevel="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2" t="s">
+      <c r="F112" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" outlineLevel="1">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="4" t="str">
+      <c r="C113" s="4" t="str">
         <f>"WScript.sleep(3000)"</f>
         <v>WScript.sleep(3000)</v>
       </c>
-      <c r="D112" s="4" t="str">
+      <c r="D113" s="4" t="str">
         <f>"Public Declare Sub Sleep Lib ""kernel32"" (ByVal dwMilliseconds As Long)"&amp;CHAR(10)&amp;"Sleep 1000"</f>
         <v>Public Declare Sub Sleep Lib "kernel32" (ByVal dwMilliseconds As Long)
 Sleep 1000</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="F112" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="20" t="s">
+      <c r="F113" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" outlineLevel="1">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" outlineLevel="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C114" s="4" t="str">
+      <c r="C115" s="4" t="str">
         <f>"Dim cTrgtPaths
 Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
-      <c r="D114" s="4" t="str">
+      <c r="D115" s="4" t="str">
         <f>"Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
         <v>Dim cTrgtPaths As Variant
 Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" outlineLevel="1">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>444</v>
-      </c>
       <c r="E115" s="5" t="s">
         <v>127</v>
       </c>
@@ -5035,13 +5067,13 @@
     <row r="116" spans="1:6" outlineLevel="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>127</v>
@@ -5053,16 +5085,16 @@
     <row r="117" spans="1:6" outlineLevel="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>127</v>
@@ -5071,9 +5103,27 @@
     <row r="118" spans="1:6" outlineLevel="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" outlineLevel="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C118" s="4" t="str">
+      <c r="C119" s="4" t="str">
         <f>"Dim vTrgtPath
 For Each vTrgtPath In cTrgtPaths
     MsgBox vTrgtPath
@@ -5083,7 +5133,7 @@
     MsgBox vTrgtPath
 Next</v>
       </c>
-      <c r="D118" s="4" t="str">
+      <c r="D119" s="4" t="str">
         <f>"Dim vTrgtPath As Variant
 For Each vTrgtPath In cTrgtPaths
     MsgBox vTrgtPath
@@ -5093,26 +5143,8 @@
     MsgBox vTrgtPath
 Next</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" outlineLevel="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>447</v>
-      </c>
       <c r="E119" s="5" t="s">
-        <v>276</v>
+        <v>127</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>127</v>
@@ -5121,16 +5153,16 @@
     <row r="120" spans="1:6" outlineLevel="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>127</v>
@@ -5139,16 +5171,16 @@
     <row r="121" spans="1:6" outlineLevel="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>406</v>
+        <v>370</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>452</v>
+        <v>277</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>127</v>
@@ -5157,16 +5189,16 @@
     <row r="122" spans="1:6" outlineLevel="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>450</v>
+        <v>371</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>127</v>
+        <v>452</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>127</v>
@@ -5175,96 +5207,96 @@
     <row r="123" spans="1:6" outlineLevel="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" outlineLevel="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C123" s="4" t="str">
+      <c r="C124" s="4" t="str">
         <f>"Dim avTrgtPaths
 avTrgtPaths = cTrgtPaths.ToArray()"</f>
         <v>Dim avTrgtPaths
 avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D124" s="4" t="str">
         <f>"Dim avTrgtPaths As Variant
 avTrgtPaths = cTrgtPaths.ToArray()"</f>
         <v>Dim avTrgtPaths As Variant
 avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F123" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" outlineLevel="1">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2" t="s">
+      <c r="F124" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" outlineLevel="1">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D125" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="20" t="s">
+      <c r="E125" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" outlineLevel="1">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" outlineLevel="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C126" s="4" t="str">
+      <c r="C127" s="4" t="str">
         <f>"Dim oPriceOfFruit
 Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
-      <c r="D126" s="4" t="str">
+      <c r="D127" s="4" t="str">
         <f>"Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
         <v>Dim oPriceOfFruit As Object
 Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E127" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" outlineLevel="1">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>127</v>
@@ -5273,13 +5305,13 @@
     <row r="128" spans="1:6" outlineLevel="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>127</v>
@@ -5291,9 +5323,27 @@
     <row r="129" spans="1:6" outlineLevel="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" outlineLevel="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C129" s="4" t="str">
+      <c r="C130" s="4" t="str">
         <f>"For Each vKey In oPriceOfFruit
     MsgBox vKey
 Next"</f>
@@ -5301,7 +5351,7 @@
     MsgBox vKey
 Next</v>
       </c>
-      <c r="D129" s="4" t="str">
+      <c r="D130" s="4" t="str">
         <f>"For Each vKey In oPriceOfFruit
     Debug.print vKey
 Next"</f>
@@ -5309,26 +5359,8 @@
     Debug.print vKey
 Next</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E130" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" outlineLevel="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>127</v>
@@ -5337,16 +5369,16 @@
     <row r="131" spans="1:6" outlineLevel="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>127</v>
@@ -5355,13 +5387,13 @@
     <row r="132" spans="1:6" outlineLevel="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>280</v>
@@ -5373,16 +5405,16 @@
     <row r="133" spans="1:6" outlineLevel="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>127</v>
@@ -5391,13 +5423,13 @@
     <row r="134" spans="1:6" outlineLevel="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>127</v>
@@ -5409,13 +5441,13 @@
     <row r="135" spans="1:6" outlineLevel="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>127</v>
@@ -5427,16 +5459,16 @@
     <row r="136" spans="1:6" outlineLevel="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>127</v>
@@ -5445,16 +5477,16 @@
     <row r="137" spans="1:6" outlineLevel="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="F137" s="11" t="s">
         <v>127</v>
@@ -5463,16 +5495,16 @@
     <row r="138" spans="1:6" outlineLevel="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>282</v>
+        <v>127</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>127</v>
@@ -5481,13 +5513,13 @@
     <row r="139" spans="1:6" outlineLevel="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>282</v>
@@ -5499,72 +5531,71 @@
     <row r="140" spans="1:6" outlineLevel="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" outlineLevel="1">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C141" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E141" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F140" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="20" t="s">
+      <c r="F141" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" outlineLevel="1">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" outlineLevel="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C142" s="4" t="str">
+      <c r="C143" s="4" t="str">
         <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = WScript.CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = WScript.CreateObject("WScript.Shell")</v>
       </c>
-      <c r="D142" s="4" t="str">
+      <c r="D143" s="4" t="str">
         <f>"Dim objWshShell
 Set objWshShell = CreateObject(""WScript.Shell"")"</f>
         <v>Dim objWshShell
 Set objWshShell = CreateObject("WScript.Shell")</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" outlineLevel="1">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C143" s="4" t="str">
-        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
-        <v>objWshShell.Exec("C:\test.bat")</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="E143" s="5" t="s">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="F143" s="11" t="s">
         <v>127</v>
@@ -5573,17 +5604,17 @@
     <row r="144" spans="1:6" outlineLevel="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C144" s="4" t="str">
-        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
-        <v>objWshShell.Run "C:\test.bat", 0, True</v>
+        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
+        <v>objWshShell.Exec("C:\test.bat")</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>421</v>
+        <v>465</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="F144" s="11" t="s">
         <v>127</v>
@@ -5592,14 +5623,17 @@
     <row r="145" spans="1:6" outlineLevel="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C145" s="4" t="str">
-        <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
-        <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
+        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
+        <v>objWshShell.Run "C:\test.bat", 0, True</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="F145" s="11" t="s">
         <v>127</v>
@@ -5608,17 +5642,14 @@
     <row r="146" spans="1:6" outlineLevel="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C146" s="4" t="str">
-        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
-        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
+        <f>"objWshShell.Run ""cmd /c echo.&gt; """"C:\test.txt"""""", 0, True"</f>
+        <v>objWshShell.Run "cmd /c echo.&gt; ""C:\test.txt""", 0, True</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>127</v>
+        <v>467</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>127</v>
@@ -5627,17 +5658,17 @@
     <row r="147" spans="1:6" outlineLevel="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C147" s="4" t="str">
-        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
-        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
+        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
+        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="F147" s="11" t="s">
         <v>127</v>
@@ -5646,17 +5677,17 @@
     <row r="148" spans="1:6" outlineLevel="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C148" s="4" t="str">
-        <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
-        <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
+        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
+        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>422</v>
+        <v>286</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>127</v>
@@ -5665,16 +5696,18 @@
     <row r="149" spans="1:6" outlineLevel="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
-        <v>387</v>
+        <v>39</v>
       </c>
       <c r="C149" s="4" t="str">
-        <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
-        <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E149" s="5"/>
+        <f>"objWshShell.Environment(""User"").Item(""MYPATH\_CODES"")"</f>
+        <v>objWshShell.Environment("User").Item("MYPATH\_CODES")</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="F149" s="11" t="s">
         <v>127</v>
       </c>
@@ -5682,18 +5715,16 @@
     <row r="150" spans="1:6" outlineLevel="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C150" s="4" t="str">
-        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
-        <v>objWshShell.SpecialFolders("Desktop")</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>152</v>
-      </c>
+        <f>"objWshShell.Environment(""User"").Remove(""MYPATH\_CODES"")"</f>
+        <v>objWshShell.Environment("User").Remove("MYPATH\_CODES")</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E150" s="5"/>
       <c r="F150" s="11" t="s">
         <v>127</v>
       </c>
@@ -5701,16 +5732,35 @@
     <row r="151" spans="1:6" outlineLevel="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C151" s="4" t="str">
+        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
+        <v>objWshShell.SpecialFolders("Desktop")</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" outlineLevel="1">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C151" s="4" t="str">
+      <c r="C152" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst.txt"
 .Save
 End With</v>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D152" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
     .TargetPath = ""c:\test\dst.txt""
     .Save
@@ -5720,27 +5770,8 @@
     .Save
 End With</v>
       </c>
-      <c r="E151" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" outlineLevel="1">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C152" s="4" t="str">
-        <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
-        <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>472</v>
-      </c>
       <c r="E152" s="5" t="s">
-        <v>287</v>
+        <v>127</v>
       </c>
       <c r="F152" s="11" t="s">
         <v>127</v>
@@ -5749,16 +5780,35 @@
     <row r="153" spans="1:6" outlineLevel="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" s="4" t="str">
+        <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
+        <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" outlineLevel="1">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C153" s="4" t="str">
+      <c r="C154" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst2.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst2.txt"
 .Save
 End With</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D154" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )
     .TargetPath = ""c:\test\dst2.txt""
     .Save
@@ -5768,62 +5818,45 @@
     .Save
 End With</v>
       </c>
-      <c r="E153" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" outlineLevel="1">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2" t="s">
+      <c r="E154" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" outlineLevel="1">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C154" s="4" t="str">
+      <c r="C155" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".Description = ""テストコメント"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .Description = "テストコメント"
 .Save
 End With</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="D155" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" outlineLevel="1">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2" t="s">
+      <c r="E155" s="5"/>
+      <c r="F155" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" outlineLevel="1">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C155" s="4" t="str">
+      <c r="C156" s="4" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".Arguments = "" /b"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .Arguments = " /b"
 .Save
 End With</v>
       </c>
-      <c r="D155" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E155" s="5"/>
-      <c r="F155" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" outlineLevel="1">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C156" s="4" t="str">
-        <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
-        <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
-      </c>
       <c r="D156" s="12" t="s">
         <v>430</v>
       </c>
@@ -5835,11 +5868,11 @@
     <row r="157" spans="1:6" outlineLevel="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="C157" s="4" t="str">
-        <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
-        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
+        <f>"objWshShell.Popup ""メッセージ"", lSecond, ""タイトル"", vbInformation"</f>
+        <v>objWshShell.Popup "メッセージ", lSecond, "タイトル", vbInformation</v>
       </c>
       <c r="D157" s="12" t="s">
         <v>430</v>
@@ -5852,89 +5885,86 @@
     <row r="158" spans="1:6" outlineLevel="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C158" s="4" t="str">
+        <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
+        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E158" s="5"/>
+      <c r="F158" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" outlineLevel="1">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C158" s="4" t="str">
+      <c r="C159" s="4" t="str">
         <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="D159" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="E158" s="5"/>
-      <c r="F158" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="20" t="s">
+      <c r="E159" s="5"/>
+      <c r="F159" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" outlineLevel="1">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" outlineLevel="1">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C160" s="4" t="str">
+      <c r="C161" s="4" t="str">
         <f>"Dim objFSO"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
         <v>Dim objFSO
 Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D161" s="4" t="str">
         <f>"Dim objFSO As Object"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
         <v>Dim objFSO As Object
 Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
       </c>
-      <c r="E160" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" outlineLevel="1">
-      <c r="B161" s="2" t="s">
+      <c r="E161" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" outlineLevel="1">
+      <c r="B162" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C161" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="D161" s="4" t="str">
+      <c r="C162" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D162" s="4" t="str">
         <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
         <v>objFSO.CopyFile ThisWorkbook.FullName, "c:\temp\test.xlsm"</v>
       </c>
-      <c r="E161" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" outlineLevel="1">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C162" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
-      </c>
-      <c r="D162" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
-      </c>
       <c r="E162" s="5" t="s">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>127</v>
@@ -5943,18 +5973,18 @@
     <row r="163" spans="1:6" outlineLevel="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C163" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
       <c r="D163" s="4" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F163" s="11" t="s">
         <v>127</v>
@@ -5963,18 +5993,18 @@
     <row r="164" spans="1:6" outlineLevel="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C164" s="4" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
       <c r="D164" s="4" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F164" s="11" t="s">
         <v>127</v>
@@ -5983,15 +6013,15 @@
     <row r="165" spans="1:6" outlineLevel="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C165" s="4" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="D165" s="4" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>127</v>
@@ -6003,18 +6033,18 @@
     <row r="166" spans="1:6" outlineLevel="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="C166" s="4" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt") 'True</v>
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="D166" s="4" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt")</v>
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F166" s="11" t="s">
         <v>127</v>
@@ -6023,12 +6053,32 @@
     <row r="167" spans="1:6" outlineLevel="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C167" s="4" t="str">
+        <f>"objFSO.FileExists(""c:\codes\a.txt"") 'True"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt") 'True</v>
+      </c>
+      <c r="D167" s="4" t="str">
+        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt")</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" outlineLevel="1">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C167" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D167" s="4" t="str">
+      <c r="C168" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D168" s="4" t="str">
         <f>"If Dir(""C:\Book1.xlsx"") &lt;&gt; """" Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"存在"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"非存在"&amp;CHAR(10)&amp;"End If"</f>
         <v>If Dir("C:\Book1.xlsx") &lt;&gt; "" Then
 	存在
@@ -6036,28 +6086,8 @@
 	非存在
 End If</v>
       </c>
-      <c r="E167" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" outlineLevel="1">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C168" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
-      </c>
-      <c r="D168" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>142</v>
+      <c r="E168" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="F168" s="11" t="s">
         <v>127</v>
@@ -6066,18 +6096,18 @@
     <row r="169" spans="1:6" outlineLevel="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C169" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
       </c>
       <c r="D169" s="4" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>127</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="F169" s="11" t="s">
         <v>127</v>
@@ -6086,18 +6116,18 @@
     <row r="170" spans="1:6" outlineLevel="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C170" s="4" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
       </c>
       <c r="D170" s="4" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>270</v>
+        <v>127</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>127</v>
@@ -6106,18 +6136,18 @@
     <row r="171" spans="1:6" outlineLevel="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C171" s="4" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D171" s="4" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F171" s="11" t="s">
         <v>127</v>
@@ -6126,18 +6156,18 @@
     <row r="172" spans="1:6" outlineLevel="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C172" s="4" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D172" s="4" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F172" s="11" t="s">
         <v>127</v>
@@ -6146,18 +6176,18 @@
     <row r="173" spans="1:6" outlineLevel="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C173" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D173" s="4" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F173" s="11" t="s">
         <v>127</v>
@@ -6166,18 +6196,18 @@
     <row r="174" spans="1:6" outlineLevel="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C174" s="4" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D174" s="4" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F174" s="11" t="s">
         <v>127</v>
@@ -6186,18 +6216,18 @@
     <row r="175" spans="1:6" outlineLevel="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C175" s="4" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D175" s="4" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F175" s="11" t="s">
         <v>127</v>
@@ -6206,18 +6236,18 @@
     <row r="176" spans="1:6" outlineLevel="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C176" s="4" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="D176" s="4" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F176" s="11" t="s">
         <v>127</v>
@@ -6226,18 +6256,18 @@
     <row r="177" spans="1:6" outlineLevel="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C177" s="4" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="D177" s="4" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F177" s="11" t="s">
         <v>127</v>
@@ -6246,18 +6276,18 @@
     <row r="178" spans="1:6" outlineLevel="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C178" s="4" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="D178" s="4" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F178" s="11" t="s">
         <v>127</v>
@@ -6266,18 +6296,18 @@
     <row r="179" spans="1:6" outlineLevel="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C179" s="4" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="D179" s="4" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F179" s="11" t="s">
         <v>127</v>
@@ -6286,17 +6316,18 @@
     <row r="180" spans="1:6" outlineLevel="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>400</v>
+        <v>61</v>
+      </c>
+      <c r="C180" s="4" t="str">
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="D180" s="4" t="str">
-        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
-        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F180" s="11" t="s">
         <v>127</v>
@@ -6305,18 +6336,17 @@
     <row r="181" spans="1:6" outlineLevel="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C181" s="4" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
+        <v>62</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="D181" s="4" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
-      </c>
-      <c r="E181" s="5" t="b">
-        <v>1</v>
+        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
+        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F181" s="11" t="s">
         <v>127</v>
@@ -6325,82 +6355,86 @@
     <row r="182" spans="1:6" outlineLevel="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C182" s="4" t="str">
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
+      </c>
+      <c r="D182" s="4" t="str">
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
+      </c>
+      <c r="E182" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" outlineLevel="1">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C182" s="4" t="str">
+      <c r="C183" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
         <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
       </c>
-      <c r="D182" s="4" t="str">
+      <c r="D183" s="4" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
         <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E183" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F182" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" outlineLevel="1">
-      <c r="B183" s="2" t="s">
+      <c r="F183" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" outlineLevel="1">
+      <c r="B184" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C184" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D184" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="E184" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F183" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="20" t="s">
+      <c r="F184" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F184" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" outlineLevel="1">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" outlineLevel="1">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C185" s="26"/>
-      <c r="D185" s="10" t="str">
+      <c r="C186" s="26"/>
+      <c r="D186" s="10" t="str">
         <f>"Dim oRegExp As Object
 Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
         <v>Dim oRegExp As Object
 Set oRegExp = CreateObject("VBScript.RegExp")</v>
       </c>
-      <c r="E185" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F185" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" outlineLevel="1">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C186" s="26"/>
-      <c r="D186" s="10" t="s">
-        <v>489</v>
-      </c>
       <c r="E186" s="5" t="s">
         <v>127</v>
       </c>
@@ -6411,33 +6445,33 @@
     <row r="187" spans="1:6" outlineLevel="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C187" s="26"/>
+      <c r="D187" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" outlineLevel="1">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C187" s="26"/>
-      <c r="D187" s="10" t="str">
+      <c r="C188" s="26"/>
+      <c r="D188" s="10" t="str">
         <f>"sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
 oRegExp.Pattern = sSearchPattern"</f>
         <v>sSearchPattern = "(\w+)\((\w+) (\w+)\)"
 oRegExp.Pattern = sSearchPattern</v>
       </c>
-      <c r="E187" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F187" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" outlineLevel="1">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C188" s="26"/>
-      <c r="D188" s="10" t="s">
-        <v>478</v>
-      </c>
       <c r="E188" s="5" t="s">
-        <v>499</v>
+        <v>127</v>
       </c>
       <c r="F188" s="11" t="s">
         <v>127</v>
@@ -6446,14 +6480,14 @@
     <row r="189" spans="1:6" outlineLevel="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C189" s="26"/>
       <c r="D189" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>127</v>
+        <v>499</v>
       </c>
       <c r="F189" s="11" t="s">
         <v>127</v>
@@ -6462,33 +6496,33 @@
     <row r="190" spans="1:6" outlineLevel="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C190" s="26"/>
+      <c r="D190" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" outlineLevel="1">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C190" s="26"/>
-      <c r="D190" s="10" t="str">
+      <c r="C191" s="26"/>
+      <c r="D191" s="10" t="str">
         <f>"Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
         <v>Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
       </c>
-      <c r="E190" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F190" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" outlineLevel="1">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C191" s="26"/>
-      <c r="D191" s="10" t="s">
-        <v>480</v>
-      </c>
       <c r="E191" s="5" t="s">
-        <v>490</v>
+        <v>127</v>
       </c>
       <c r="F191" s="11" t="s">
         <v>127</v>
@@ -6497,14 +6531,14 @@
     <row r="192" spans="1:6" outlineLevel="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C192" s="26"/>
       <c r="D192" s="10" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F192" s="11" t="s">
         <v>127</v>
@@ -6513,14 +6547,14 @@
     <row r="193" spans="1:6" outlineLevel="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C193" s="26"/>
       <c r="D193" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F193" s="11" t="s">
         <v>127</v>
@@ -6533,10 +6567,10 @@
       </c>
       <c r="C194" s="26"/>
       <c r="D194" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F194" s="11" t="s">
         <v>127</v>
@@ -6545,46 +6579,45 @@
     <row r="195" spans="1:6" outlineLevel="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C195" s="26"/>
       <c r="D195" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F195" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" outlineLevel="1">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C196" s="26"/>
+      <c r="D196" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E196" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="F195" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="20" t="s">
+      <c r="F196" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F196" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" outlineLevel="1">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C197" s="4" t="str">
-        <f>"WScript.ScriptFullName"</f>
-        <v>WScript.ScriptFullName</v>
-      </c>
-      <c r="D197" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="E197" s="5"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="F197" s="11" t="s">
         <v>127</v>
       </c>
@@ -6592,14 +6625,14 @@
     <row r="198" spans="1:6" outlineLevel="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C198" s="4" t="str">
-        <f>"WScript.ScriptName"</f>
-        <v>WScript.ScriptName</v>
+        <f>"WScript.ScriptFullName"</f>
+        <v>WScript.ScriptFullName</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="11" t="s">
@@ -6609,14 +6642,14 @@
     <row r="199" spans="1:6" outlineLevel="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C199" s="4" t="str">
-        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
-        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>406</v>
+        <f>"WScript.ScriptName"</f>
+        <v>WScript.ScriptName</v>
+      </c>
+      <c r="D199" s="25" t="s">
+        <v>431</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="11" t="s">
@@ -6626,11 +6659,11 @@
     <row r="200" spans="1:6" outlineLevel="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C200" s="4" t="str">
-        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
-        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
+        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
       </c>
       <c r="D200" s="22" t="s">
         <v>406</v>
@@ -6643,14 +6676,14 @@
     <row r="201" spans="1:6" outlineLevel="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C201" s="4" t="str">
-        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
-        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>432</v>
+        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
+        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="11" t="s">
@@ -6660,68 +6693,66 @@
     <row r="202" spans="1:6" outlineLevel="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C202" s="4" t="str">
+        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
+        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E202" s="5"/>
+      <c r="F202" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" outlineLevel="1">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C202" s="4" t="str">
+      <c r="C203" s="4" t="str">
         <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
         <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
       </c>
-      <c r="D202" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="E202" s="5"/>
-      <c r="F202" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="20" t="s">
+      <c r="D203" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="E203" s="5"/>
+      <c r="F203" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" outlineLevel="1">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F204" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" outlineLevel="1">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C204" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D204" s="4" t="str">
+      <c r="C205" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D205" s="4" t="str">
         <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
         <v>Dim oChartObj As ChartObject
 Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
       </c>
-      <c r="E204" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F204" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" outlineLevel="1">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C205" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D205" s="4" t="str">
-        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
-        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
-      </c>
       <c r="E205" s="5" t="s">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="F205" s="11" t="s">
         <v>127</v>
@@ -6730,17 +6761,17 @@
     <row r="206" spans="1:6" outlineLevel="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C206" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D206" s="4" t="str">
-        <f>"oChartObj.Delete"</f>
-        <v>oChartObj.Delete</v>
+        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
+        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="F206" s="11" t="s">
         <v>127</v>
@@ -6749,14 +6780,14 @@
     <row r="207" spans="1:6" outlineLevel="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C207" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D207" s="4" t="str">
-        <f>"oChartObj.Chart.ChartArea.Copy"</f>
-        <v>oChartObj.Chart.ChartArea.Copy</v>
+        <f>"oChartObj.Delete"</f>
+        <v>oChartObj.Delete</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>127</v>
@@ -6768,14 +6799,14 @@
     <row r="208" spans="1:6" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C208" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D208" s="4" t="str">
-        <f>"oChartObj.Top = 10"</f>
-        <v>oChartObj.Top = 10</v>
+        <f>"oChartObj.Chart.ChartArea.Copy"</f>
+        <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>127</v>
@@ -6787,14 +6818,14 @@
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C209" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D209" s="4" t="str">
-        <f>"oChartObj.Left = 20"</f>
-        <v>oChartObj.Left = 20</v>
+        <f>"oChartObj.Top = 10"</f>
+        <v>oChartObj.Top = 10</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>127</v>
@@ -6806,14 +6837,14 @@
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C210" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D210" s="4" t="str">
-        <f>"oChartObj.Width = 200"</f>
-        <v>oChartObj.Width = 200</v>
+        <f>"oChartObj.Left = 20"</f>
+        <v>oChartObj.Left = 20</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>127</v>
@@ -6825,14 +6856,14 @@
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C211" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D211" s="4" t="str">
-        <f>"oChartObj.Height = 300"</f>
-        <v>oChartObj.Height = 300</v>
+        <f>"oChartObj.Width = 200"</f>
+        <v>oChartObj.Width = 200</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>127</v>
@@ -6844,17 +6875,17 @@
     <row r="212" spans="1:6" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C212" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D212" s="4" t="str">
-        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
-        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
+        <f>"oChartObj.Height = 300"</f>
+        <v>oChartObj.Height = 300</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>315</v>
+        <v>127</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>127</v>
@@ -6863,17 +6894,17 @@
     <row r="213" spans="1:6" outlineLevel="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C213" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D213" s="4" t="str">
-        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
-        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
+        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
+        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>127</v>
@@ -6882,17 +6913,17 @@
     <row r="214" spans="1:6" outlineLevel="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C214" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D214" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
+        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
+        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="F214" s="11" t="s">
         <v>127</v>
@@ -6901,14 +6932,14 @@
     <row r="215" spans="1:6" outlineLevel="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C215" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D215" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
-        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>127</v>
@@ -6920,14 +6951,14 @@
     <row r="216" spans="1:6" outlineLevel="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C216" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D216" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
+        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>127</v>
@@ -6939,14 +6970,14 @@
     <row r="217" spans="1:6" outlineLevel="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C217" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D217" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>127</v>
@@ -6958,14 +6989,14 @@
     <row r="218" spans="1:6" outlineLevel="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C218" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D218" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>127</v>
@@ -6977,14 +7008,14 @@
     <row r="219" spans="1:6" outlineLevel="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C219" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D219" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>127</v>
@@ -6996,13 +7027,14 @@
     <row r="220" spans="1:6" outlineLevel="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C220" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>266</v>
+        <v>238</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D220" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>127</v>
@@ -7014,14 +7046,13 @@
     <row r="221" spans="1:6" outlineLevel="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D221" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
+        <v>239</v>
+      </c>
+      <c r="C221" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>127</v>
@@ -7033,14 +7064,14 @@
     <row r="222" spans="1:6" outlineLevel="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C222" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D222" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>127</v>
@@ -7052,14 +7083,14 @@
     <row r="223" spans="1:6" outlineLevel="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C223" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D223" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>127</v>
@@ -7071,14 +7102,14 @@
     <row r="224" spans="1:6" outlineLevel="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C224" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D224" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>127</v>
@@ -7090,14 +7121,14 @@
     <row r="225" spans="1:6" outlineLevel="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C225" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D225" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>127</v>
@@ -7109,13 +7140,14 @@
     <row r="226" spans="1:6" outlineLevel="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C226" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>267</v>
+      <c r="D226" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>127</v>
@@ -7127,14 +7159,13 @@
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C227" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D227" s="4" t="str">
-        <f>"oChartObj.Chart.HasTitle = True"</f>
-        <v>oChartObj.Chart.HasTitle = True</v>
+      <c r="D227" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>127</v>
@@ -7146,14 +7177,14 @@
     <row r="228" spans="1:6" outlineLevel="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C228" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D228" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
-        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+        <f>"oChartObj.Chart.HasTitle = True"</f>
+        <v>oChartObj.Chart.HasTitle = True</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>127</v>
@@ -7165,17 +7196,17 @@
     <row r="229" spans="1:6" outlineLevel="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C229" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D229" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
+        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="F229" s="11" t="s">
         <v>127</v>
@@ -7184,17 +7215,17 @@
     <row r="230" spans="1:6" outlineLevel="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C230" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D230" s="4" t="str">
-        <f>"oChartObj.Chart.HasLegend = True"</f>
-        <v>oChartObj.Chart.HasLegend = True</v>
+        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>127</v>
@@ -7203,17 +7234,17 @@
     <row r="231" spans="1:6" outlineLevel="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C231" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D231" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
-        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+        <f>"oChartObj.Chart.HasLegend = True"</f>
+        <v>oChartObj.Chart.HasLegend = True</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>127</v>
@@ -7222,17 +7253,17 @@
     <row r="232" spans="1:6" outlineLevel="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C232" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D232" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
+        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>127</v>
@@ -7241,105 +7272,105 @@
     <row r="233" spans="1:6" outlineLevel="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D233" s="4" t="str">
+        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" outlineLevel="1">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C233" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D233" s="10" t="str">
+      <c r="C234" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D234" s="10" t="str">
         <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
         <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
       </c>
-      <c r="E233" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F233" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" outlineLevel="1">
-      <c r="A234" s="8" t="s">
+      <c r="E234" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" outlineLevel="1">
+      <c r="A235" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F234" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" outlineLevel="1">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+      <c r="D235" s="8"/>
+      <c r="E235" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" outlineLevel="1">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C235" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D235" s="4" t="str">
+      <c r="C236" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D236" s="4" t="str">
         <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
         <v>Dim goPrgrsBar As New ProgressBar
 goPrgrsBar.Show vbModeless</v>
       </c>
-      <c r="E235" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" outlineLevel="1">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2" t="s">
+      <c r="E236" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" outlineLevel="1">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C236" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D236" s="4" t="str">
+      <c r="C237" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D237" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
         <v>goPrgrsBar.Hide
 Unload goPrgrsBar
 Set goPrgrsBar = Nothing</v>
       </c>
-      <c r="E236" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F236" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" outlineLevel="1">
-      <c r="A237" s="8" t="s">
+      <c r="E237" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F237" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" outlineLevel="1">
+      <c r="A238" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F237" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" outlineLevel="1">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C238" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D238" s="4" t="str">
-        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
-        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>318</v>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="F238" s="11" t="s">
         <v>127</v>
@@ -7348,275 +7379,294 @@
     <row r="239" spans="1:6" outlineLevel="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C239" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D239" s="4" t="str">
+        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
+        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F239" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" outlineLevel="1">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C239" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D239" s="4" t="str">
+      <c r="C240" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D240" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
         <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
 End Sub</v>
       </c>
-      <c r="E239" s="5" t="s">
+      <c r="E240" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F239" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" outlineLevel="1">
-      <c r="A240" s="8" t="s">
+      <c r="F240" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" outlineLevel="1">
+      <c r="A241" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F240" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" outlineLevel="1">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F241" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" outlineLevel="1">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C241" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D241" s="4" t="s">
+      <c r="C242" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D242" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E241" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F241" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" outlineLevel="1">
-      <c r="A242" s="8" t="s">
+      <c r="E242" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F242" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" outlineLevel="1">
+      <c r="A243" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F242" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" outlineLevel="1">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+      <c r="D243" s="8"/>
+      <c r="E243" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" outlineLevel="1">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C243" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D243" s="4" t="str">
+      <c r="C244" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D244" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.GetFromClipboard
 	sText = .GetText
 End With</v>
       </c>
-      <c r="E243" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F243" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" outlineLevel="1">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2" t="s">
+      <c r="E244" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" outlineLevel="1">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C244" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D244" s="4" t="str">
+      <c r="C245" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D245" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.SetText sText
 	.PutInClipboard
 End With</v>
       </c>
-      <c r="E244" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F244" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" outlineLevel="1">
-      <c r="A245" s="8" t="s">
+      <c r="E245" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F245" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" outlineLevel="1">
+      <c r="A246" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F245" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" outlineLevel="1">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+      <c r="D246" s="8"/>
+      <c r="E246" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" outlineLevel="1">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C246" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D246" s="4" t="str">
+      <c r="C247" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D247" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
         <v>Dim wWord As Object
 Set wWord = CreateObject("Word.Application")
 wWord.Visible = False</v>
       </c>
-      <c r="E246" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F246" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" outlineLevel="1">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2" t="s">
+      <c r="E247" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F247" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" outlineLevel="1">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C247" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D247" s="4" t="str">
+      <c r="C248" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D248" s="4" t="str">
         <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
         <v>dDoc.Close
 Set dDoc = Nothing</v>
       </c>
-      <c r="E247" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F247" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" outlineLevel="1">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2" t="s">
+      <c r="E248" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" outlineLevel="1">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C248" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D248" s="4" t="str">
+      <c r="C249" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D249" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
         <v>wWord.Visible = False
 wWord.Quit
 Set wWord = Nothing</v>
       </c>
-      <c r="E248" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F248" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" outlineLevel="1">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2" t="s">
+      <c r="E249" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F249" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" outlineLevel="1">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C249" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D249" s="4" t="str">
+      <c r="C250" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D250" s="4" t="str">
         <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
         <v>Dim dDoc As Object
 Set dDoc = wWord.Documents.Open("sFilePath")</v>
       </c>
-      <c r="E249" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F249" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" outlineLevel="1">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2" t="s">
+      <c r="E250" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" outlineLevel="1">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C250" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D250" s="4" t="str">
+      <c r="C251" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D251" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
         <v>Dim sParagraph As Object
 For Each sParagraph In dDoc.Paragraphs
 	'～処理～
 Next sParagraph</v>
       </c>
-      <c r="E250" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" outlineLevel="1">
-      <c r="A251" s="8" t="s">
+      <c r="E251" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" outlineLevel="1">
+      <c r="A252" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F251" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" outlineLevel="1">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" outlineLevel="1">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C252" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D252" s="4" t="str">
+      <c r="C253" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D253" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
         <v>Dim wTrgtBook As Workbook
 Application.SheetsInNewWorkbook = 1
 Set wTrgtBook = Workbooks.Add</v>
       </c>
-      <c r="E252" s="5" t="s">
+      <c r="E253" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F252" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" outlineLevel="1">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2" t="s">
+      <c r="F253" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" outlineLevel="1">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C253" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D253" s="4" t="str">
+      <c r="C254" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D254" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
         <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
 	処理
@@ -7624,45 +7674,26 @@
 	エラー
 End If</v>
       </c>
-      <c r="E253" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2" t="s">
+      <c r="E254" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" outlineLevel="1">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C254" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D254" s="4" t="str">
+      <c r="C255" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D255" s="4" t="str">
         <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
         <v>Dim bAddBook As Workbook
 Set bAddBook = Workbooks.Add</v>
       </c>
-      <c r="E254" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" outlineLevel="1">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C255" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D255" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
-        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
-      </c>
       <c r="E255" s="5" t="s">
         <v>127</v>
       </c>
@@ -7673,14 +7704,14 @@
     <row r="256" spans="1:6" outlineLevel="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C256" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D256" s="4" t="str">
-        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
-        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
+        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
+        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
       <c r="E256" s="5" t="s">
         <v>127</v>
@@ -7692,14 +7723,14 @@
     <row r="257" spans="1:6" outlineLevel="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C257" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D257" s="4" t="str">
-        <f>".Sheets.Count"</f>
-        <v>.Sheets.Count</v>
+        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
+        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
       </c>
       <c r="E257" s="5" t="s">
         <v>127</v>
@@ -7711,35 +7742,35 @@
     <row r="258" spans="1:6" outlineLevel="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D258" s="4" t="str">
+        <f>".Sheets.Count"</f>
+        <v>.Sheets.Count</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" outlineLevel="1">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C258" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D258" s="4" t="str">
+      <c r="C259" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D259" s="4" t="str">
         <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
         <v>Dim shAddSht As Worksheet
 Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
-      <c r="E258" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" outlineLevel="1">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C259" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D259" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
-        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
-      </c>
       <c r="E259" s="5" t="s">
         <v>127</v>
       </c>
@@ -7750,36 +7781,36 @@
     <row r="260" spans="1:6" outlineLevel="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D260" s="4" t="str">
+        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
+        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" outlineLevel="1">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C260" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D260" s="4" t="str">
+      <c r="C261" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D261" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
         <v>Application.DisplayAlerts = False
 .Sheets(シート名).Delete
 Application.DisplayAlerts = True</v>
       </c>
-      <c r="E260" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F260" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" outlineLevel="1">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C261" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D261" s="4" t="str">
-        <f>".Sheets(シート名).Visible = (True\|False)"</f>
-        <v>.Sheets(シート名).Visible = (True\|False)</v>
-      </c>
       <c r="E261" s="5" t="s">
         <v>127</v>
       </c>
@@ -7790,14 +7821,14 @@
     <row r="262" spans="1:6" outlineLevel="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C262" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D262" s="4" t="str">
-        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
-        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
+        <f>".Sheets(シート名).Visible = (True\|False)"</f>
+        <v>.Sheets(シート名).Visible = (True\|False)</v>
       </c>
       <c r="E262" s="5" t="s">
         <v>127</v>
@@ -7809,14 +7840,14 @@
     <row r="263" spans="1:6" outlineLevel="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C263" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D263" s="4" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
+        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
+        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
       <c r="E263" s="5" t="s">
         <v>127</v>
@@ -7828,14 +7859,14 @@
     <row r="264" spans="1:6" outlineLevel="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C264" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D264" s="4" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>127</v>
@@ -7847,14 +7878,14 @@
     <row r="265" spans="1:6" outlineLevel="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C265" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D265" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>127</v>
@@ -7866,14 +7897,14 @@
     <row r="266" spans="1:6" outlineLevel="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C266" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D266" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>127</v>
@@ -7885,14 +7916,14 @@
     <row r="267" spans="1:6" outlineLevel="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C267" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D267" s="4" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>127</v>
@@ -7904,49 +7935,49 @@
     <row r="268" spans="1:6" outlineLevel="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D268" s="4" t="str">
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F268" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" outlineLevel="1">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C268" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D268" s="4" t="str">
+      <c r="C269" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D269" s="4" t="str">
         <f>"Application.CalculateFull"</f>
         <v>Application.CalculateFull</v>
       </c>
-      <c r="E268" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F268" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="A269" s="20" t="s">
+      <c r="E269" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F269" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="B269" s="8"/>
-      <c r="C269" s="8"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" outlineLevel="1">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C270" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D270" s="4" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
-      </c>
-      <c r="E270" s="5" t="s">
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F270" s="11" t="s">
@@ -7956,14 +7987,14 @@
     <row r="271" spans="1:6" outlineLevel="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C271" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D271" s="4" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="E271" s="5" t="s">
         <v>127</v>
@@ -7975,14 +8006,14 @@
     <row r="272" spans="1:6" outlineLevel="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="C272" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D272" s="4" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E272" s="5" t="s">
         <v>127</v>
@@ -7994,14 +8025,14 @@
     <row r="273" spans="1:6" outlineLevel="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C273" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D273" s="4" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>127</v>
@@ -8013,14 +8044,14 @@
     <row r="274" spans="1:6" outlineLevel="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C274" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D274" s="4" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>127</v>
@@ -8032,14 +8063,14 @@
     <row r="275" spans="1:6" outlineLevel="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C275" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D275" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>127</v>
@@ -8051,14 +8082,14 @@
     <row r="276" spans="1:6" outlineLevel="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C276" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D276" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>127</v>
@@ -8076,8 +8107,8 @@
         <v>406</v>
       </c>
       <c r="D277" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="E277" s="5" t="s">
         <v>127</v>
@@ -8089,17 +8120,17 @@
     <row r="278" spans="1:6" outlineLevel="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C278" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D278" s="4" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="F278" s="11" t="s">
         <v>127</v>
@@ -8108,17 +8139,17 @@
     <row r="279" spans="1:6" outlineLevel="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C279" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D279" s="4" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F279" s="11" t="s">
         <v>127</v>
@@ -8127,17 +8158,17 @@
     <row r="280" spans="1:6" outlineLevel="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C280" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D280" s="4" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F280" s="11" t="s">
         <v>127</v>
@@ -8146,17 +8177,17 @@
     <row r="281" spans="1:6" outlineLevel="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C281" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D281" s="4" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
       <c r="F281" s="11" t="s">
         <v>127</v>
@@ -8165,35 +8196,35 @@
     <row r="282" spans="1:6" outlineLevel="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D282" s="4" t="str">
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F282" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" outlineLevel="1">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C282" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D282" s="4" t="str">
+      <c r="C283" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D283" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
         <v>Application.CutCopyMode = False
 .Range("2:4").Insert</v>
       </c>
-      <c r="E282" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F282" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" outlineLevel="1">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C283" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D283" s="4" t="str">
-        <f>".Cells(行, 列).Font.Strikethrough"</f>
-        <v>.Cells(行, 列).Font.Strikethrough</v>
-      </c>
       <c r="E283" s="5" t="s">
         <v>127</v>
       </c>
@@ -8204,35 +8235,35 @@
     <row r="284" spans="1:6" outlineLevel="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D284" s="4" t="str">
+        <f>".Cells(行, 列).Font.Strikethrough"</f>
+        <v>.Cells(行, 列).Font.Strikethrough</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F284" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" outlineLevel="1">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C284" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D284" s="4" t="str">
+      <c r="C285" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D285" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
         <v>wTrgtBook.Sheets(シート名).Activate
 ActiveWindow.DisplayGridlines = False</v>
       </c>
-      <c r="E284" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F284" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" outlineLevel="1">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C285" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D285" s="4" t="str">
-        <f>".Range(""A1"").EntireRow.Hidden"</f>
-        <v>.Range("A1").EntireRow.Hidden</v>
-      </c>
       <c r="E285" s="5" t="s">
         <v>127</v>
       </c>
@@ -8243,14 +8274,14 @@
     <row r="286" spans="1:6" outlineLevel="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C286" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D286" s="4" t="str">
-        <f>".Range(""A1"").EntireColumn.Hidden"</f>
-        <v>.Range("A1").EntireColumn.Hidden</v>
+        <f>".Range(""A1"").EntireRow.Hidden"</f>
+        <v>.Range("A1").EntireRow.Hidden</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>127</v>
@@ -8262,12 +8293,31 @@
     <row r="287" spans="1:6" outlineLevel="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C287" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D287" s="4" t="str">
+        <f>".Range(""A1"").EntireColumn.Hidden"</f>
+        <v>.Range("A1").EntireColumn.Hidden</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F287" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" outlineLevel="1">
+      <c r="A288" s="2"/>
+      <c r="B288" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C287" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D287" s="4" t="str">
+      <c r="C288" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D288" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -8281,25 +8331,6 @@
 End If
 </v>
       </c>
-      <c r="E287" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F287" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" outlineLevel="1">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C288" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D288" s="4" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
-      </c>
       <c r="E288" s="5" t="s">
         <v>127</v>
       </c>
@@ -8310,14 +8341,14 @@
     <row r="289" spans="1:6" outlineLevel="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C289" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D289" s="4" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>127</v>
@@ -8329,14 +8360,14 @@
     <row r="290" spans="1:6" outlineLevel="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C290" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D290" s="4" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>127</v>
@@ -8348,14 +8379,14 @@
     <row r="291" spans="1:6" outlineLevel="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C291" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D291" s="4" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>127</v>
@@ -8367,14 +8398,14 @@
     <row r="292" spans="1:6" outlineLevel="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C292" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D292" s="4" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>127</v>
@@ -8386,14 +8417,14 @@
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C293" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D293" s="4" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>127</v>
@@ -8405,14 +8436,14 @@
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C294" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D294" s="4" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>127</v>
@@ -8424,14 +8455,14 @@
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C295" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D295" s="4" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>127</v>
@@ -8443,17 +8474,17 @@
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C296" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D296" s="4" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="F296" s="11" t="s">
         <v>127</v>
@@ -8462,17 +8493,17 @@
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C297" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D297" s="4" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="F297" s="11" t="s">
         <v>127</v>
@@ -8481,17 +8512,17 @@
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C298" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D298" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="F298" s="11" t="s">
         <v>127</v>
@@ -8500,14 +8531,14 @@
     <row r="299" spans="1:6" outlineLevel="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C299" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D299" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>127</v>
@@ -8519,14 +8550,14 @@
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C300" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D300" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>127</v>
@@ -8538,14 +8569,14 @@
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C301" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D301" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E301" s="5" t="s">
         <v>127</v>
@@ -8557,14 +8588,14 @@
     <row r="302" spans="1:6" outlineLevel="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C302" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D302" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>127</v>
@@ -8576,14 +8607,14 @@
     <row r="303" spans="1:6" outlineLevel="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C303" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D303" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E303" s="5" t="s">
         <v>127</v>
@@ -8595,14 +8626,14 @@
     <row r="304" spans="1:6" outlineLevel="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C304" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D304" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>127</v>
@@ -8614,14 +8645,14 @@
     <row r="305" spans="1:6" outlineLevel="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C305" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D305" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>127</v>
@@ -8633,16 +8664,17 @@
     <row r="306" spans="1:6" outlineLevel="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>332</v>
+        <v>204</v>
       </c>
       <c r="C306" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D306" s="4" t="s">
-        <v>330</v>
+      <c r="D306" s="4" t="str">
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>338</v>
+        <v>127</v>
       </c>
       <c r="F306" s="11" t="s">
         <v>127</v>
@@ -8651,16 +8683,16 @@
     <row r="307" spans="1:6" outlineLevel="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C307" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F307" s="11" t="s">
         <v>127</v>
@@ -8669,16 +8701,16 @@
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C308" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F308" s="11" t="s">
         <v>127</v>
@@ -8687,17 +8719,16 @@
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>205</v>
+        <v>334</v>
       </c>
       <c r="C309" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D309" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+      <c r="D309" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="F309" s="11" t="s">
         <v>127</v>
@@ -8706,14 +8737,14 @@
     <row r="310" spans="1:6" outlineLevel="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C310" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D310" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>127</v>
@@ -8725,14 +8756,14 @@
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C311" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D311" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>127</v>
@@ -8744,14 +8775,14 @@
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C312" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D312" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>127</v>
@@ -8763,14 +8794,14 @@
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C313" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D313" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>127</v>
@@ -8782,17 +8813,17 @@
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C314" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D314" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F314" s="11" t="s">
         <v>127</v>
@@ -8801,17 +8832,17 @@
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C315" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D315" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="F315" s="11" t="s">
         <v>127</v>
@@ -8820,17 +8851,17 @@
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C316" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D316" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>311</v>
+        <v>127</v>
       </c>
       <c r="F316" s="11" t="s">
         <v>127</v>
@@ -8839,17 +8870,17 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D317" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F317" s="11" t="s">
         <v>127</v>
@@ -8858,14 +8889,14 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D318" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E318" s="5" t="s">
         <v>312</v>
@@ -8877,17 +8908,17 @@
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D319" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="F319" s="11" t="s">
         <v>127</v>
@@ -8896,17 +8927,17 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C320" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D320" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="F320" s="11" t="s">
         <v>127</v>
@@ -8921,8 +8952,8 @@
         <v>406</v>
       </c>
       <c r="D321" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>313</v>
@@ -8934,17 +8965,17 @@
     <row r="322" spans="1:6" outlineLevel="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C322" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D322" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="F322" s="11" t="s">
         <v>127</v>
@@ -8953,14 +8984,14 @@
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C323" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D323" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>127</v>
@@ -8972,14 +9003,14 @@
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C324" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D324" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>127</v>
@@ -8991,14 +9022,14 @@
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C325" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D325" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
       </c>
       <c r="E325" s="5" t="s">
         <v>127</v>
@@ -9010,15 +9041,14 @@
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C326" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D326" s="4" t="str">
-        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Rows(行).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>127</v>
@@ -9036,49 +9066,50 @@
         <v>406</v>
       </c>
       <c r="D327" s="4" t="str">
+        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Rows(行).Select
+ActiveWindow.FreezePanes = True</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F327" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" outlineLevel="1">
+      <c r="A328" s="2"/>
+      <c r="B328" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C328" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D328" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E327" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F327" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" outlineLevel="1">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2" t="s">
+      <c r="E328" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F328" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" outlineLevel="1">
+      <c r="A329" s="2"/>
+      <c r="B329" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C328" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D328" s="4" t="str">
+      <c r="C329" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D329" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E328" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F328" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" outlineLevel="1">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C329" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D329" s="4" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
-      </c>
       <c r="E329" s="5" t="s">
         <v>127</v>
       </c>
@@ -9089,14 +9120,14 @@
     <row r="330" spans="1:6" outlineLevel="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="C330" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D330" s="4" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>127</v>
@@ -9108,17 +9139,17 @@
     <row r="331" spans="1:6" outlineLevel="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="C331" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D331" s="4" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F331" s="11" t="s">
         <v>127</v>
@@ -9127,45 +9158,64 @@
     <row r="332" spans="1:6" outlineLevel="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C332" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D332" s="4" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F332" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" outlineLevel="1">
+      <c r="A333" s="2"/>
+      <c r="B333" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C332" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D332" s="4" t="s">
+      <c r="C333" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D333" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E332" s="6" t="str">
+      <c r="E333" s="6" t="str">
         <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
         <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
       </c>
-      <c r="F332" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
-      <c r="A333" s="20" t="s">
+      <c r="F333" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="B333" s="8"/>
-      <c r="C333" s="8"/>
-      <c r="D333" s="8"/>
-      <c r="E333" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F333" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" outlineLevel="1">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="8"/>
+      <c r="C334" s="8"/>
+      <c r="D334" s="8"/>
+      <c r="E334" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F334" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" outlineLevel="1">
+      <c r="A335" s="2"/>
+      <c r="B335" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C334" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D334" s="2" t="str">
+      <c r="C335" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D335" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -9185,19 +9235,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E334" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" outlineLevel="1">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2" t="s">
+      <c r="E335" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" outlineLevel="1">
+      <c r="A336" s="2"/>
+      <c r="B336" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C335" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D335" s="2" t="str">
+      <c r="C336" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D336" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -9211,19 +9261,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E335" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" outlineLevel="1">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2" t="s">
+      <c r="E336" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" outlineLevel="1">
+      <c r="A337" s="2"/>
+      <c r="B337" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C336" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D336" s="2" t="str">
+      <c r="C337" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D337" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -9241,17 +9291,6 @@
     End
 End If</v>
       </c>
-      <c r="E336" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" outlineLevel="1">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
-      <c r="C337" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D337" s="10"/>
       <c r="E337" s="5" t="s">
         <v>127</v>
       </c>
@@ -9388,20 +9427,31 @@
         <v>127</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="7" t="s">
+    <row r="350" spans="1:5" outlineLevel="1">
+      <c r="A350" s="2"/>
+      <c r="B350" s="2"/>
+      <c r="C350" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D350" s="10"/>
+      <c r="E350" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B352" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="C352" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="D352" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E351" s="1" t="s">
+      <c r="E352" s="1" t="s">
         <v>430</v>
       </c>
     </row>
@@ -9409,11 +9459,11 @@
   <autoFilter ref="A2:E2" xr:uid="{8778A135-8AEC-4627-8764-24E51DD70D16}"/>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="E29" r:id="rId1" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{51FF9B99-DDF0-482F-A859-99967CEF1640}"/>
-    <hyperlink ref="E65" r:id="rId2" xr:uid="{1379D4F3-77ED-4F19-AE19-501879C3D708}"/>
-    <hyperlink ref="E144" r:id="rId3" xr:uid="{E05C5702-9A7D-43B3-950C-6EA66C521D18}"/>
-    <hyperlink ref="E168" r:id="rId4" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{647131FE-1804-4878-A961-C3C030D11B35}"/>
-    <hyperlink ref="E39" r:id="rId5" xr:uid="{82623296-AC5C-495D-B069-8D9557A73B3A}"/>
+    <hyperlink ref="E30" r:id="rId1" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{51FF9B99-DDF0-482F-A859-99967CEF1640}"/>
+    <hyperlink ref="E66" r:id="rId2" xr:uid="{1379D4F3-77ED-4F19-AE19-501879C3D708}"/>
+    <hyperlink ref="E145" r:id="rId3" xr:uid="{E05C5702-9A7D-43B3-950C-6EA66C521D18}"/>
+    <hyperlink ref="E169" r:id="rId4" display="32 (※)値の意味は [【ファイル・フォルダ情報取得】](https://github.com/draemonash2/codes/blob/master/vbs/lib/FileSystem.vbs) 参照" xr:uid="{647131FE-1804-4878-A961-C3C030D11B35}"/>
+    <hyperlink ref="E40" r:id="rId5" xr:uid="{82623296-AC5C-495D-B069-8D9557A73B3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId6"/>

--- a/lang_cheet_sheet.xlsx
+++ b/lang_cheet_sheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67130626-315E-48EA-948C-DB6FE479F30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A449F7A-348F-483D-BBAE-21486DE1FC89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="508">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1972,10 +1972,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1987,14 +1983,6 @@
   </si>
   <si>
     <t>oMatchResult(1).SubMatches(1)</t>
-  </si>
-  <si>
-    <t>sReplacedStr = oRegExp.Replace(sTargetStr, "★$1")</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>★TestFunc01 ★TestFunc02 ★TestFunc03</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>3（0オリジン）</t>
@@ -2033,6 +2021,54 @@
     <rPh sb="23" eb="25">
       <t>ハンテイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>型名:int 型名:char 型名:int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>置換結果 結果取得</t>
+    <rPh sb="0" eb="2">
+      <t>チカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oRegExp.IgnoreCase = True</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oRegExp.Global = True</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oMatchResult.Count</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oMatchResult(0).SubMatches.Count</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oMatchResult(2)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oMatchResult(1).SubMatches(1)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2258,7 +2294,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -2337,8 +2373,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2684,13 +2723,13 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F352"/>
+  <dimension ref="A1:F353"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3307,7 +3346,7 @@
     <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>"sStr = InputBox(""数値を入力してください。"")
@@ -5888,11 +5927,11 @@
         <v>143</v>
       </c>
       <c r="C158" s="4" t="str">
-        <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
+        <f>C245</f>
         <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
       </c>
-      <c r="D158" s="12" t="s">
-        <v>430</v>
+      <c r="D158" s="23" t="s">
+        <v>406</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="11" t="s">
@@ -5905,11 +5944,11 @@
         <v>144</v>
       </c>
       <c r="C159" s="4" t="str">
-        <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
+        <f>C246</f>
         <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
       </c>
-      <c r="D159" s="12" t="s">
-        <v>430</v>
+      <c r="D159" s="23" t="s">
+        <v>406</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="11" t="s">
@@ -6411,7 +6450,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="20" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -6428,7 +6467,12 @@
       <c r="B186" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C186" s="26"/>
+      <c r="C186" s="26" t="str">
+        <f>"Dim oRegExp
+Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
+        <v>Dim oRegExp
+Set oRegExp = CreateObject("VBScript.RegExp")</v>
+      </c>
       <c r="D186" s="10" t="str">
         <f>"Dim oRegExp As Object
 Set oRegExp = CreateObject(""VBScript.RegExp"")"</f>
@@ -6447,12 +6491,20 @@
       <c r="B187" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C187" s="26"/>
-      <c r="D187" s="10" t="s">
-        <v>489</v>
+      <c r="C187" s="26" t="str">
+        <f>"Dim sTargetStr
+sTargetStr = ""TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"""</f>
+        <v>Dim sTargetStr
+sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
+      </c>
+      <c r="D187" s="10" t="str">
+        <f>"Dim sTargetStr As String
+sTargetStr = ""TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"""</f>
+        <v>Dim sTargetStr As String
+sTargetStr = "TestFunc(int bbb) TestFunc01(char aaa) TestFunc02(int bbb)"</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>127</v>
+        <v>501</v>
       </c>
       <c r="F187" s="11" t="s">
         <v>127</v>
@@ -6463,15 +6515,24 @@
       <c r="B188" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C188" s="26"/>
+      <c r="C188" s="26" t="str">
+        <f>"Dim sSearchPattern
+sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
+oRegExp.Pattern = sSearchPattern"</f>
+        <v>Dim sSearchPattern
+sSearchPattern = "(\w+)\((\w+) (\w+)\)"
+oRegExp.Pattern = sSearchPattern</v>
+      </c>
       <c r="D188" s="10" t="str">
-        <f>"sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
+        <f>"Dim sSearchPattern As String
+sSearchPattern = ""(\w+)\((\w+) (\w+)\)""
 oRegExp.Pattern = sSearchPattern"</f>
-        <v>sSearchPattern = "(\w+)\((\w+) (\w+)\)"
+        <v>Dim sSearchPattern As String
+sSearchPattern = "(\w+)\((\w+) (\w+)\)"
 oRegExp.Pattern = sSearchPattern</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>127</v>
+        <v>501</v>
       </c>
       <c r="F188" s="11" t="s">
         <v>127</v>
@@ -6482,12 +6543,14 @@
       <c r="B189" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C189" s="26"/>
+      <c r="C189" s="27" t="s">
+        <v>502</v>
+      </c>
       <c r="D189" s="10" t="s">
         <v>478</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F189" s="11" t="s">
         <v>127</v>
@@ -6498,7 +6561,9 @@
       <c r="B190" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C190" s="26"/>
+      <c r="C190" s="26" t="s">
+        <v>503</v>
+      </c>
       <c r="D190" s="10" t="s">
         <v>479</v>
       </c>
@@ -6514,7 +6579,12 @@
       <c r="B191" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C191" s="26"/>
+      <c r="C191" s="26" t="str">
+        <f>"Dim oMatchResult
+Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
+        <v>Dim oMatchResult
+Set oMatchResult = oRegExp.Execute(sTargetStr)</v>
+      </c>
       <c r="D191" s="10" t="str">
         <f>"Dim oMatchResult As Object
 Set oMatchResult = oRegExp.Execute(sTargetStr)"</f>
@@ -6533,12 +6603,14 @@
       <c r="B192" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C192" s="26"/>
+      <c r="C192" s="26" t="s">
+        <v>504</v>
+      </c>
       <c r="D192" s="10" t="s">
         <v>480</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F192" s="11" t="s">
         <v>127</v>
@@ -6549,12 +6621,14 @@
       <c r="B193" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C193" s="26"/>
+      <c r="C193" s="26" t="s">
+        <v>505</v>
+      </c>
       <c r="D193" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F193" s="11" t="s">
         <v>127</v>
@@ -6565,12 +6639,14 @@
       <c r="B194" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C194" s="26"/>
+      <c r="C194" s="26" t="s">
+        <v>506</v>
+      </c>
       <c r="D194" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F194" s="11" t="s">
         <v>127</v>
@@ -6581,12 +6657,14 @@
       <c r="B195" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C195" s="26"/>
+      <c r="C195" s="26" t="s">
+        <v>507</v>
+      </c>
       <c r="D195" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F195" s="11" t="s">
         <v>127</v>
@@ -6597,44 +6675,57 @@
       <c r="B196" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C196" s="26"/>
-      <c r="D196" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>495</v>
-      </c>
+      <c r="C196" s="26" t="str">
+        <f>"Dim sReplacePattern
+sReplacePattern = ""型名:$2"""</f>
+        <v>Dim sReplacePattern
+sReplacePattern = "型名:$2"</v>
+      </c>
+      <c r="D196" s="10" t="str">
+        <f>"Dim sReplacePattern As String
+sReplacePattern = ""型名:$2"""</f>
+        <v>Dim sReplacePattern As String
+sReplacePattern = "型名:$2"</v>
+      </c>
+      <c r="E196" s="5"/>
       <c r="F196" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="20" t="s">
+    <row r="197" spans="1:6" outlineLevel="1">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C197" s="26" t="str">
+        <f>"Dim sReplaceResult
+oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
+        <v>Dim sReplaceResult
+oRegExp.Replace(sTargetStr, sReplacePattern)</v>
+      </c>
+      <c r="D197" s="10" t="str">
+        <f>"Dim sReplaceResult As String
+sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)"</f>
+        <v>Dim sReplaceResult As String
+sReplaceResult = oRegExp.Replace(sTargetStr, sReplacePattern)</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" outlineLevel="1">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C198" s="4" t="str">
-        <f>"WScript.ScriptFullName"</f>
-        <v>WScript.ScriptFullName</v>
-      </c>
-      <c r="D198" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="E198" s="5"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="F198" s="11" t="s">
         <v>127</v>
       </c>
@@ -6642,14 +6733,14 @@
     <row r="199" spans="1:6" outlineLevel="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C199" s="4" t="str">
-        <f>"WScript.ScriptName"</f>
-        <v>WScript.ScriptName</v>
+        <f>"WScript.ScriptFullName"</f>
+        <v>WScript.ScriptFullName</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="11" t="s">
@@ -6659,14 +6750,14 @@
     <row r="200" spans="1:6" outlineLevel="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C200" s="4" t="str">
-        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
-        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>406</v>
+        <f>"WScript.ScriptName"</f>
+        <v>WScript.ScriptName</v>
+      </c>
+      <c r="D200" s="25" t="s">
+        <v>431</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="11" t="s">
@@ -6676,11 +6767,11 @@
     <row r="201" spans="1:6" outlineLevel="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C201" s="4" t="str">
-        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
-        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
+        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
       </c>
       <c r="D201" s="22" t="s">
         <v>406</v>
@@ -6693,14 +6784,14 @@
     <row r="202" spans="1:6" outlineLevel="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C202" s="4" t="str">
-        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
-        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
-      </c>
-      <c r="D202" s="10" t="s">
-        <v>432</v>
+        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
+        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="11" t="s">
@@ -6710,68 +6801,66 @@
     <row r="203" spans="1:6" outlineLevel="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C203" s="4" t="str">
+        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
+        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E203" s="5"/>
+      <c r="F203" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" outlineLevel="1">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C203" s="4" t="str">
+      <c r="C204" s="4" t="str">
         <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
         <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
       </c>
-      <c r="D203" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="E203" s="5"/>
-      <c r="F203" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="20" t="s">
+      <c r="D204" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="E204" s="5"/>
+      <c r="F204" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F204" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" outlineLevel="1">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F205" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" outlineLevel="1">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C205" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D205" s="4" t="str">
+      <c r="C206" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D206" s="4" t="str">
         <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
         <v>Dim oChartObj As ChartObject
 Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
       </c>
-      <c r="E205" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F205" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" outlineLevel="1">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C206" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D206" s="4" t="str">
-        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
-        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
-      </c>
       <c r="E206" s="5" t="s">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="F206" s="11" t="s">
         <v>127</v>
@@ -6780,17 +6869,17 @@
     <row r="207" spans="1:6" outlineLevel="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C207" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D207" s="4" t="str">
-        <f>"oChartObj.Delete"</f>
-        <v>oChartObj.Delete</v>
+        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
+        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="F207" s="11" t="s">
         <v>127</v>
@@ -6799,14 +6888,14 @@
     <row r="208" spans="1:6" outlineLevel="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C208" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D208" s="4" t="str">
-        <f>"oChartObj.Chart.ChartArea.Copy"</f>
-        <v>oChartObj.Chart.ChartArea.Copy</v>
+        <f>"oChartObj.Delete"</f>
+        <v>oChartObj.Delete</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>127</v>
@@ -6818,14 +6907,14 @@
     <row r="209" spans="1:6" outlineLevel="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C209" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D209" s="4" t="str">
-        <f>"oChartObj.Top = 10"</f>
-        <v>oChartObj.Top = 10</v>
+        <f>"oChartObj.Chart.ChartArea.Copy"</f>
+        <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>127</v>
@@ -6837,14 +6926,14 @@
     <row r="210" spans="1:6" outlineLevel="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C210" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D210" s="4" t="str">
-        <f>"oChartObj.Left = 20"</f>
-        <v>oChartObj.Left = 20</v>
+        <f>"oChartObj.Top = 10"</f>
+        <v>oChartObj.Top = 10</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>127</v>
@@ -6856,14 +6945,14 @@
     <row r="211" spans="1:6" outlineLevel="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C211" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D211" s="4" t="str">
-        <f>"oChartObj.Width = 200"</f>
-        <v>oChartObj.Width = 200</v>
+        <f>"oChartObj.Left = 20"</f>
+        <v>oChartObj.Left = 20</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>127</v>
@@ -6875,14 +6964,14 @@
     <row r="212" spans="1:6" outlineLevel="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C212" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D212" s="4" t="str">
-        <f>"oChartObj.Height = 300"</f>
-        <v>oChartObj.Height = 300</v>
+        <f>"oChartObj.Width = 200"</f>
+        <v>oChartObj.Width = 200</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>127</v>
@@ -6894,17 +6983,17 @@
     <row r="213" spans="1:6" outlineLevel="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C213" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D213" s="4" t="str">
-        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
-        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
+        <f>"oChartObj.Height = 300"</f>
+        <v>oChartObj.Height = 300</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>315</v>
+        <v>127</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>127</v>
@@ -6913,17 +7002,17 @@
     <row r="214" spans="1:6" outlineLevel="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C214" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D214" s="4" t="str">
-        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
-        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
+        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
+        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F214" s="11" t="s">
         <v>127</v>
@@ -6932,17 +7021,17 @@
     <row r="215" spans="1:6" outlineLevel="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C215" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D215" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
+        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
+        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="F215" s="11" t="s">
         <v>127</v>
@@ -6951,14 +7040,14 @@
     <row r="216" spans="1:6" outlineLevel="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C216" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D216" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
-        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>127</v>
@@ -6970,14 +7059,14 @@
     <row r="217" spans="1:6" outlineLevel="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C217" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D217" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
+        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>127</v>
@@ -6989,14 +7078,14 @@
     <row r="218" spans="1:6" outlineLevel="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C218" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D218" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>127</v>
@@ -7008,14 +7097,14 @@
     <row r="219" spans="1:6" outlineLevel="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C219" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D219" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>127</v>
@@ -7027,14 +7116,14 @@
     <row r="220" spans="1:6" outlineLevel="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C220" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D220" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>127</v>
@@ -7046,13 +7135,14 @@
     <row r="221" spans="1:6" outlineLevel="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C221" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>266</v>
+        <v>238</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D221" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>127</v>
@@ -7064,14 +7154,13 @@
     <row r="222" spans="1:6" outlineLevel="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C222" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D222" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
+        <v>239</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>127</v>
@@ -7083,14 +7172,14 @@
     <row r="223" spans="1:6" outlineLevel="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C223" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D223" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>127</v>
@@ -7102,14 +7191,14 @@
     <row r="224" spans="1:6" outlineLevel="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C224" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D224" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>127</v>
@@ -7121,14 +7210,14 @@
     <row r="225" spans="1:6" outlineLevel="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C225" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D225" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>127</v>
@@ -7140,14 +7229,14 @@
     <row r="226" spans="1:6" outlineLevel="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C226" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D226" s="4" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>127</v>
@@ -7159,13 +7248,14 @@
     <row r="227" spans="1:6" outlineLevel="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C227" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D227" s="4" t="s">
-        <v>267</v>
+      <c r="D227" s="4" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>127</v>
@@ -7177,14 +7267,13 @@
     <row r="228" spans="1:6" outlineLevel="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C228" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D228" s="4" t="str">
-        <f>"oChartObj.Chart.HasTitle = True"</f>
-        <v>oChartObj.Chart.HasTitle = True</v>
+      <c r="D228" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>127</v>
@@ -7196,14 +7285,14 @@
     <row r="229" spans="1:6" outlineLevel="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C229" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D229" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
-        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+        <f>"oChartObj.Chart.HasTitle = True"</f>
+        <v>oChartObj.Chart.HasTitle = True</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>127</v>
@@ -7215,17 +7304,17 @@
     <row r="230" spans="1:6" outlineLevel="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C230" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D230" s="4" t="str">
-        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
+        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>127</v>
@@ -7234,17 +7323,17 @@
     <row r="231" spans="1:6" outlineLevel="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C231" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D231" s="4" t="str">
-        <f>"oChartObj.Chart.HasLegend = True"</f>
-        <v>oChartObj.Chart.HasLegend = True</v>
+        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>127</v>
@@ -7253,17 +7342,17 @@
     <row r="232" spans="1:6" outlineLevel="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C232" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D232" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
-        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+        <f>"oChartObj.Chart.HasLegend = True"</f>
+        <v>oChartObj.Chart.HasLegend = True</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>127</v>
@@ -7272,17 +7361,17 @@
     <row r="233" spans="1:6" outlineLevel="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C233" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D233" s="4" t="str">
-        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
+        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>127</v>
@@ -7291,105 +7380,105 @@
     <row r="234" spans="1:6" outlineLevel="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C234" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D234" s="4" t="str">
+        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" outlineLevel="1">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C234" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D234" s="10" t="str">
+      <c r="C235" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D235" s="10" t="str">
         <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
         <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
       </c>
-      <c r="E234" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F234" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" outlineLevel="1">
-      <c r="A235" s="8" t="s">
+      <c r="E235" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" outlineLevel="1">
+      <c r="A236" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" outlineLevel="1">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" outlineLevel="1">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C236" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D236" s="4" t="str">
+      <c r="C237" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D237" s="4" t="str">
         <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
         <v>Dim goPrgrsBar As New ProgressBar
 goPrgrsBar.Show vbModeless</v>
       </c>
-      <c r="E236" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F236" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" outlineLevel="1">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2" t="s">
+      <c r="E237" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F237" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" outlineLevel="1">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C237" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D237" s="4" t="str">
+      <c r="C238" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D238" s="4" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
         <v>goPrgrsBar.Hide
 Unload goPrgrsBar
 Set goPrgrsBar = Nothing</v>
       </c>
-      <c r="E237" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F237" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" outlineLevel="1">
-      <c r="A238" s="8" t="s">
+      <c r="E238" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" outlineLevel="1">
+      <c r="A239" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F238" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" outlineLevel="1">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C239" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D239" s="4" t="str">
-        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
-        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
-      </c>
-      <c r="E239" s="5" t="s">
-        <v>318</v>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="F239" s="11" t="s">
         <v>127</v>
@@ -7398,275 +7487,296 @@
     <row r="240" spans="1:6" outlineLevel="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D240" s="4" t="str">
+        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
+        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" outlineLevel="1">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C240" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D240" s="4" t="str">
+      <c r="C241" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D241" s="4" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
         <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
 End Sub</v>
       </c>
-      <c r="E240" s="5" t="s">
+      <c r="E241" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F240" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" outlineLevel="1">
-      <c r="A241" s="8" t="s">
+      <c r="F241" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" outlineLevel="1">
+      <c r="A242" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F241" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" outlineLevel="1">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+      <c r="D242" s="8"/>
+      <c r="E242" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F242" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" outlineLevel="1">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C242" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D242" s="4" t="s">
+      <c r="C243" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D243" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E242" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F242" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" outlineLevel="1">
-      <c r="A243" s="8" t="s">
+      <c r="E243" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" outlineLevel="1">
+      <c r="A244" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F243" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" outlineLevel="1">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" outlineLevel="1">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C244" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D244" s="4" t="str">
+      <c r="C245" s="4" t="str">
+        <f>"objWshShell.Exec( ""clip"" ).StdIn.Write( ""テキスト"" )"</f>
+        <v>objWshShell.Exec( "clip" ).StdIn.Write( "テキスト" )</v>
+      </c>
+      <c r="D245" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.GetFromClipboard
 	sText = .GetText
 End With</v>
       </c>
-      <c r="E244" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F244" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" outlineLevel="1">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2" t="s">
+      <c r="E245" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F245" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" outlineLevel="1">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C245" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D245" s="4" t="str">
+      <c r="C246" s="4" t="str">
+        <f>"CreateObject(""htmlfile"").ParentWindow.Clipboarddata.GetData(""text"")"</f>
+        <v>CreateObject("htmlfile").ParentWindow.Clipboarddata.GetData("text")</v>
+      </c>
+      <c r="D246" s="4" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.SetText sText
 	.PutInClipboard
 End With</v>
       </c>
-      <c r="E245" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F245" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" outlineLevel="1">
-      <c r="A246" s="8" t="s">
+      <c r="E246" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" outlineLevel="1">
+      <c r="A247" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F246" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" outlineLevel="1">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8"/>
+      <c r="E247" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F247" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" outlineLevel="1">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C247" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D247" s="4" t="str">
+      <c r="C248" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D248" s="4" t="str">
         <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
         <v>Dim wWord As Object
 Set wWord = CreateObject("Word.Application")
 wWord.Visible = False</v>
       </c>
-      <c r="E247" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F247" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" outlineLevel="1">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2" t="s">
+      <c r="E248" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" outlineLevel="1">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C248" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D248" s="4" t="str">
+      <c r="C249" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D249" s="4" t="str">
         <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
         <v>dDoc.Close
 Set dDoc = Nothing</v>
       </c>
-      <c r="E248" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F248" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" outlineLevel="1">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2" t="s">
+      <c r="E249" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F249" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" outlineLevel="1">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C249" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D249" s="4" t="str">
+      <c r="C250" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D250" s="4" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
         <v>wWord.Visible = False
 wWord.Quit
 Set wWord = Nothing</v>
       </c>
-      <c r="E249" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F249" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" outlineLevel="1">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2" t="s">
+      <c r="E250" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" outlineLevel="1">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C250" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D250" s="4" t="str">
+      <c r="C251" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D251" s="4" t="str">
         <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
         <v>Dim dDoc As Object
 Set dDoc = wWord.Documents.Open("sFilePath")</v>
       </c>
-      <c r="E250" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" outlineLevel="1">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2" t="s">
+      <c r="E251" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" outlineLevel="1">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C251" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D251" s="4" t="str">
+      <c r="C252" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D252" s="4" t="str">
         <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
         <v>Dim sParagraph As Object
 For Each sParagraph In dDoc.Paragraphs
 	'～処理～
 Next sParagraph</v>
       </c>
-      <c r="E251" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F251" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" outlineLevel="1">
-      <c r="A252" s="8" t="s">
+      <c r="E252" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" outlineLevel="1">
+      <c r="A253" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B252" s="8"/>
-      <c r="C252" s="8"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F252" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" outlineLevel="1">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
+      <c r="D253" s="8"/>
+      <c r="E253" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" outlineLevel="1">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C253" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D253" s="4" t="str">
+      <c r="C254" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D254" s="4" t="str">
         <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
         <v>Dim wTrgtBook As Workbook
 Application.SheetsInNewWorkbook = 1
 Set wTrgtBook = Workbooks.Add</v>
       </c>
-      <c r="E253" s="5" t="s">
+      <c r="E254" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F253" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" outlineLevel="1">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2" t="s">
+      <c r="F254" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" outlineLevel="1">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C254" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D254" s="4" t="str">
+      <c r="C255" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D255" s="4" t="str">
         <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
         <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
 	処理
@@ -7674,45 +7784,26 @@
 	エラー
 End If</v>
       </c>
-      <c r="E254" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" outlineLevel="1">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2" t="s">
+      <c r="E255" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" outlineLevel="1">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C255" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D255" s="4" t="str">
+      <c r="C256" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D256" s="4" t="str">
         <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
         <v>Dim bAddBook As Workbook
 Set bAddBook = Workbooks.Add</v>
       </c>
-      <c r="E255" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" outlineLevel="1">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C256" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D256" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
-        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
-      </c>
       <c r="E256" s="5" t="s">
         <v>127</v>
       </c>
@@ -7723,14 +7814,14 @@
     <row r="257" spans="1:6" outlineLevel="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C257" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D257" s="4" t="str">
-        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
-        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
+        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
+        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
       <c r="E257" s="5" t="s">
         <v>127</v>
@@ -7742,14 +7833,14 @@
     <row r="258" spans="1:6" outlineLevel="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C258" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D258" s="4" t="str">
-        <f>".Sheets.Count"</f>
-        <v>.Sheets.Count</v>
+        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
+        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
       </c>
       <c r="E258" s="5" t="s">
         <v>127</v>
@@ -7761,35 +7852,35 @@
     <row r="259" spans="1:6" outlineLevel="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C259" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D259" s="4" t="str">
+        <f>".Sheets.Count"</f>
+        <v>.Sheets.Count</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F259" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" outlineLevel="1">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C259" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D259" s="4" t="str">
+      <c r="C260" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D260" s="4" t="str">
         <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
         <v>Dim shAddSht As Worksheet
 Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
-      <c r="E259" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F259" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" outlineLevel="1">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C260" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D260" s="4" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
-        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
-      </c>
       <c r="E260" s="5" t="s">
         <v>127</v>
       </c>
@@ -7800,36 +7891,36 @@
     <row r="261" spans="1:6" outlineLevel="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D261" s="4" t="str">
+        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
+        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" outlineLevel="1">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C261" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D261" s="4" t="str">
+      <c r="C262" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D262" s="4" t="str">
         <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
         <v>Application.DisplayAlerts = False
 .Sheets(シート名).Delete
 Application.DisplayAlerts = True</v>
       </c>
-      <c r="E261" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" outlineLevel="1">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C262" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D262" s="4" t="str">
-        <f>".Sheets(シート名).Visible = (True\|False)"</f>
-        <v>.Sheets(シート名).Visible = (True\|False)</v>
-      </c>
       <c r="E262" s="5" t="s">
         <v>127</v>
       </c>
@@ -7840,14 +7931,14 @@
     <row r="263" spans="1:6" outlineLevel="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C263" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D263" s="4" t="str">
-        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
-        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
+        <f>".Sheets(シート名).Visible = (True\|False)"</f>
+        <v>.Sheets(シート名).Visible = (True\|False)</v>
       </c>
       <c r="E263" s="5" t="s">
         <v>127</v>
@@ -7859,14 +7950,14 @@
     <row r="264" spans="1:6" outlineLevel="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C264" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D264" s="4" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
+        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
+        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>127</v>
@@ -7878,14 +7969,14 @@
     <row r="265" spans="1:6" outlineLevel="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C265" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D265" s="4" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>127</v>
@@ -7897,14 +7988,14 @@
     <row r="266" spans="1:6" outlineLevel="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C266" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D266" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>127</v>
@@ -7916,14 +8007,14 @@
     <row r="267" spans="1:6" outlineLevel="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C267" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D267" s="4" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>127</v>
@@ -7935,14 +8026,14 @@
     <row r="268" spans="1:6" outlineLevel="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C268" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D268" s="4" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>127</v>
@@ -7954,49 +8045,49 @@
     <row r="269" spans="1:6" outlineLevel="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C269" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D269" s="4" t="str">
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F269" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" outlineLevel="1">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C269" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D269" s="4" t="str">
+      <c r="C270" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D270" s="4" t="str">
         <f>"Application.CalculateFull"</f>
         <v>Application.CalculateFull</v>
       </c>
-      <c r="E269" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="20" t="s">
+      <c r="E270" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F270" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F270" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" outlineLevel="1">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C271" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D271" s="4" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
-      </c>
-      <c r="E271" s="5" t="s">
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F271" s="11" t="s">
@@ -8006,14 +8097,14 @@
     <row r="272" spans="1:6" outlineLevel="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C272" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D272" s="4" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="E272" s="5" t="s">
         <v>127</v>
@@ -8025,14 +8116,14 @@
     <row r="273" spans="1:6" outlineLevel="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="C273" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D273" s="4" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>127</v>
@@ -8044,14 +8135,14 @@
     <row r="274" spans="1:6" outlineLevel="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C274" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D274" s="4" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>127</v>
@@ -8063,14 +8154,14 @@
     <row r="275" spans="1:6" outlineLevel="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C275" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D275" s="4" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>127</v>
@@ -8082,14 +8173,14 @@
     <row r="276" spans="1:6" outlineLevel="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C276" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D276" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>127</v>
@@ -8101,14 +8192,14 @@
     <row r="277" spans="1:6" outlineLevel="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C277" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D277" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="E277" s="5" t="s">
         <v>127</v>
@@ -8126,8 +8217,8 @@
         <v>406</v>
       </c>
       <c r="D278" s="4" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>127</v>
@@ -8139,17 +8230,17 @@
     <row r="279" spans="1:6" outlineLevel="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C279" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D279" s="4" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="F279" s="11" t="s">
         <v>127</v>
@@ -8158,17 +8249,17 @@
     <row r="280" spans="1:6" outlineLevel="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C280" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D280" s="4" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F280" s="11" t="s">
         <v>127</v>
@@ -8177,17 +8268,17 @@
     <row r="281" spans="1:6" outlineLevel="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C281" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D281" s="4" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F281" s="11" t="s">
         <v>127</v>
@@ -8196,17 +8287,17 @@
     <row r="282" spans="1:6" outlineLevel="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C282" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D282" s="4" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
       <c r="F282" s="11" t="s">
         <v>127</v>
@@ -8215,35 +8306,35 @@
     <row r="283" spans="1:6" outlineLevel="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C283" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D283" s="4" t="str">
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F283" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" outlineLevel="1">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C283" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D283" s="4" t="str">
+      <c r="C284" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D284" s="4" t="str">
         <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
         <v>Application.CutCopyMode = False
 .Range("2:4").Insert</v>
       </c>
-      <c r="E283" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F283" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" outlineLevel="1">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C284" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D284" s="4" t="str">
-        <f>".Cells(行, 列).Font.Strikethrough"</f>
-        <v>.Cells(行, 列).Font.Strikethrough</v>
-      </c>
       <c r="E284" s="5" t="s">
         <v>127</v>
       </c>
@@ -8254,35 +8345,35 @@
     <row r="285" spans="1:6" outlineLevel="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D285" s="4" t="str">
+        <f>".Cells(行, 列).Font.Strikethrough"</f>
+        <v>.Cells(行, 列).Font.Strikethrough</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F285" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" outlineLevel="1">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C285" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D285" s="4" t="str">
+      <c r="C286" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D286" s="4" t="str">
         <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
         <v>wTrgtBook.Sheets(シート名).Activate
 ActiveWindow.DisplayGridlines = False</v>
       </c>
-      <c r="E285" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F285" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" outlineLevel="1">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C286" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D286" s="4" t="str">
-        <f>".Range(""A1"").EntireRow.Hidden"</f>
-        <v>.Range("A1").EntireRow.Hidden</v>
-      </c>
       <c r="E286" s="5" t="s">
         <v>127</v>
       </c>
@@ -8293,14 +8384,14 @@
     <row r="287" spans="1:6" outlineLevel="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C287" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D287" s="4" t="str">
-        <f>".Range(""A1"").EntireColumn.Hidden"</f>
-        <v>.Range("A1").EntireColumn.Hidden</v>
+        <f>".Range(""A1"").EntireRow.Hidden"</f>
+        <v>.Range("A1").EntireRow.Hidden</v>
       </c>
       <c r="E287" s="5" t="s">
         <v>127</v>
@@ -8312,12 +8403,31 @@
     <row r="288" spans="1:6" outlineLevel="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D288" s="4" t="str">
+        <f>".Range(""A1"").EntireColumn.Hidden"</f>
+        <v>.Range("A1").EntireColumn.Hidden</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F288" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" outlineLevel="1">
+      <c r="A289" s="2"/>
+      <c r="B289" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C288" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D288" s="4" t="str">
+      <c r="C289" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D289" s="4" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -8331,25 +8441,6 @@
 End If
 </v>
       </c>
-      <c r="E288" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F288" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" outlineLevel="1">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C289" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D289" s="4" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
-      </c>
       <c r="E289" s="5" t="s">
         <v>127</v>
       </c>
@@ -8360,14 +8451,14 @@
     <row r="290" spans="1:6" outlineLevel="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C290" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D290" s="4" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>127</v>
@@ -8379,14 +8470,14 @@
     <row r="291" spans="1:6" outlineLevel="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C291" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D291" s="4" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>127</v>
@@ -8398,14 +8489,14 @@
     <row r="292" spans="1:6" outlineLevel="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C292" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D292" s="4" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>127</v>
@@ -8417,14 +8508,14 @@
     <row r="293" spans="1:6" outlineLevel="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C293" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D293" s="4" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>127</v>
@@ -8436,14 +8527,14 @@
     <row r="294" spans="1:6" outlineLevel="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C294" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D294" s="4" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>127</v>
@@ -8455,14 +8546,14 @@
     <row r="295" spans="1:6" outlineLevel="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C295" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D295" s="4" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>127</v>
@@ -8474,14 +8565,14 @@
     <row r="296" spans="1:6" outlineLevel="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C296" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D296" s="4" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>127</v>
@@ -8493,17 +8584,17 @@
     <row r="297" spans="1:6" outlineLevel="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C297" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D297" s="4" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="F297" s="11" t="s">
         <v>127</v>
@@ -8512,17 +8603,17 @@
     <row r="298" spans="1:6" outlineLevel="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C298" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D298" s="4" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="F298" s="11" t="s">
         <v>127</v>
@@ -8531,17 +8622,17 @@
     <row r="299" spans="1:6" outlineLevel="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C299" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D299" s="4" t="str">
-        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="F299" s="11" t="s">
         <v>127</v>
@@ -8550,14 +8641,14 @@
     <row r="300" spans="1:6" outlineLevel="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C300" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D300" s="4" t="str">
-        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>.Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>127</v>
@@ -8569,14 +8660,14 @@
     <row r="301" spans="1:6" outlineLevel="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C301" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D301" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>.Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="E301" s="5" t="s">
         <v>127</v>
@@ -8588,14 +8679,14 @@
     <row r="302" spans="1:6" outlineLevel="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C302" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D302" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>127</v>
@@ -8607,14 +8698,14 @@
     <row r="303" spans="1:6" outlineLevel="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C303" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D303" s="4" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>".Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="E303" s="5" t="s">
         <v>127</v>
@@ -8626,14 +8717,14 @@
     <row r="304" spans="1:6" outlineLevel="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C304" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D304" s="4" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>127</v>
@@ -8645,14 +8736,14 @@
     <row r="305" spans="1:6" outlineLevel="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C305" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D305" s="4" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>127</v>
@@ -8664,14 +8755,14 @@
     <row r="306" spans="1:6" outlineLevel="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C306" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D306" s="4" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="E306" s="5" t="s">
         <v>127</v>
@@ -8683,16 +8774,17 @@
     <row r="307" spans="1:6" outlineLevel="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
-        <v>332</v>
+        <v>204</v>
       </c>
       <c r="C307" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D307" s="4" t="s">
-        <v>330</v>
+      <c r="D307" s="4" t="str">
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>338</v>
+        <v>127</v>
       </c>
       <c r="F307" s="11" t="s">
         <v>127</v>
@@ -8701,16 +8793,16 @@
     <row r="308" spans="1:6" outlineLevel="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C308" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F308" s="11" t="s">
         <v>127</v>
@@ -8719,16 +8811,16 @@
     <row r="309" spans="1:6" outlineLevel="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C309" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F309" s="11" t="s">
         <v>127</v>
@@ -8737,17 +8829,16 @@
     <row r="310" spans="1:6" outlineLevel="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2" t="s">
-        <v>205</v>
+        <v>334</v>
       </c>
       <c r="C310" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D310" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+      <c r="D310" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="F310" s="11" t="s">
         <v>127</v>
@@ -8756,14 +8847,14 @@
     <row r="311" spans="1:6" outlineLevel="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C311" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D311" s="4" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>127</v>
@@ -8775,14 +8866,14 @@
     <row r="312" spans="1:6" outlineLevel="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C312" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D312" s="4" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>127</v>
@@ -8794,14 +8885,14 @@
     <row r="313" spans="1:6" outlineLevel="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C313" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D313" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>127</v>
@@ -8813,14 +8904,14 @@
     <row r="314" spans="1:6" outlineLevel="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C314" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D314" s="4" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>127</v>
@@ -8832,17 +8923,17 @@
     <row r="315" spans="1:6" outlineLevel="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C315" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D315" s="4" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F315" s="11" t="s">
         <v>127</v>
@@ -8851,17 +8942,17 @@
     <row r="316" spans="1:6" outlineLevel="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C316" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D316" s="4" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="F316" s="11" t="s">
         <v>127</v>
@@ -8870,17 +8961,17 @@
     <row r="317" spans="1:6" outlineLevel="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D317" s="4" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>311</v>
+        <v>127</v>
       </c>
       <c r="F317" s="11" t="s">
         <v>127</v>
@@ -8889,17 +8980,17 @@
     <row r="318" spans="1:6" outlineLevel="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D318" s="4" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F318" s="11" t="s">
         <v>127</v>
@@ -8908,14 +8999,14 @@
     <row r="319" spans="1:6" outlineLevel="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D319" s="4" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="E319" s="5" t="s">
         <v>312</v>
@@ -8927,17 +9018,17 @@
     <row r="320" spans="1:6" outlineLevel="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C320" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D320" s="4" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="F320" s="11" t="s">
         <v>127</v>
@@ -8946,17 +9037,17 @@
     <row r="321" spans="1:6" outlineLevel="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C321" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D321" s="4" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="F321" s="11" t="s">
         <v>127</v>
@@ -8971,8 +9062,8 @@
         <v>406</v>
       </c>
       <c r="D322" s="4" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>313</v>
@@ -8984,17 +9075,17 @@
     <row r="323" spans="1:6" outlineLevel="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C323" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D323" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="F323" s="11" t="s">
         <v>127</v>
@@ -9003,14 +9094,14 @@
     <row r="324" spans="1:6" outlineLevel="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C324" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D324" s="4" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>127</v>
@@ -9022,14 +9113,14 @@
     <row r="325" spans="1:6" outlineLevel="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C325" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D325" s="4" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="E325" s="5" t="s">
         <v>127</v>
@@ -9041,14 +9132,14 @@
     <row r="326" spans="1:6" outlineLevel="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C326" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D326" s="4" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>127</v>
@@ -9060,15 +9151,14 @@
     <row r="327" spans="1:6" outlineLevel="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C327" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D327" s="4" t="str">
-        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Rows(行).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
       </c>
       <c r="E327" s="5" t="s">
         <v>127</v>
@@ -9086,49 +9176,50 @@
         <v>406</v>
       </c>
       <c r="D328" s="4" t="str">
+        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Rows(行).Select
+ActiveWindow.FreezePanes = True</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F328" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" outlineLevel="1">
+      <c r="A329" s="2"/>
+      <c r="B329" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C329" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D329" s="4" t="str">
         <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E328" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F328" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" outlineLevel="1">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2" t="s">
+      <c r="E329" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F329" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" outlineLevel="1">
+      <c r="A330" s="2"/>
+      <c r="B330" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C329" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D329" s="4" t="str">
+      <c r="C330" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D330" s="4" t="str">
         <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
         <v>.Cells(行,列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
-      <c r="E329" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F329" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" outlineLevel="1">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C330" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D330" s="4" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
-      </c>
       <c r="E330" s="5" t="s">
         <v>127</v>
       </c>
@@ -9139,14 +9230,14 @@
     <row r="331" spans="1:6" outlineLevel="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="C331" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D331" s="4" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="E331" s="5" t="s">
         <v>127</v>
@@ -9158,17 +9249,17 @@
     <row r="332" spans="1:6" outlineLevel="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="C332" s="22" t="s">
         <v>406</v>
       </c>
       <c r="D332" s="4" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F332" s="11" t="s">
         <v>127</v>
@@ -9177,45 +9268,64 @@
     <row r="333" spans="1:6" outlineLevel="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C333" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D333" s="4" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F333" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" outlineLevel="1">
+      <c r="A334" s="2"/>
+      <c r="B334" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C333" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D333" s="4" t="s">
+      <c r="C334" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D334" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E333" s="6" t="str">
+      <c r="E334" s="6" t="str">
         <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
         <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
       </c>
-      <c r="F333" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
-      <c r="A334" s="20" t="s">
+      <c r="F334" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="B334" s="8"/>
-      <c r="C334" s="8"/>
-      <c r="D334" s="8"/>
-      <c r="E334" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F334" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" outlineLevel="1">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="8"/>
+      <c r="C335" s="8"/>
+      <c r="D335" s="8"/>
+      <c r="E335" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F335" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" outlineLevel="1">
+      <c r="A336" s="2"/>
+      <c r="B336" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C335" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D335" s="2" t="str">
+      <c r="C336" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D336" s="2" t="str">
         <f>"Dim bIsSheetExist As Boolean
 bIsSheetExist = False
 For Each wSheet In ThisWorkbook.Worksheets
@@ -9235,19 +9345,19 @@
     End If
 Next wSheet</v>
       </c>
-      <c r="E335" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" outlineLevel="1">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2" t="s">
+      <c r="E336" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" outlineLevel="1">
+      <c r="A337" s="2"/>
+      <c r="B337" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C336" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D336" s="2" t="str">
+      <c r="C337" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D337" s="2" t="str">
         <f>"Dim rFindResult As Range
 Dim sFindKeyword As String
 Dim shTrgtSht As Worksheet
@@ -9261,19 +9371,19 @@
 sFindKeyword = "test"
 Set rFindResult = shTrgtSht.Cells.Find(sFindKeyword, LookAt:=xlWhole)</v>
       </c>
-      <c r="E336" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" outlineLevel="1">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2" t="s">
+      <c r="E337" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" outlineLevel="1">
+      <c r="A338" s="2"/>
+      <c r="B338" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C337" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D337" s="2" t="str">
+      <c r="C338" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D338" s="2" t="str">
         <f>"If rFindResult Is Nothing Then
     MsgBox _
         ""セルが見つからなかったため、処理を中断します。"" &amp; vbNewLine &amp; _
@@ -9291,17 +9401,6 @@
     End
 End If</v>
       </c>
-      <c r="E337" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" outlineLevel="1">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
-      <c r="C338" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D338" s="10"/>
       <c r="E338" s="5" t="s">
         <v>127</v>
       </c>
@@ -9309,9 +9408,7 @@
     <row r="339" spans="1:5" outlineLevel="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
-      <c r="C339" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C339" s="10"/>
       <c r="D339" s="10"/>
       <c r="E339" s="5" t="s">
         <v>127</v>
@@ -9320,9 +9417,7 @@
     <row r="340" spans="1:5" outlineLevel="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
-      <c r="C340" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C340" s="10"/>
       <c r="D340" s="10"/>
       <c r="E340" s="5" t="s">
         <v>127</v>
@@ -9331,9 +9426,7 @@
     <row r="341" spans="1:5" outlineLevel="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
-      <c r="C341" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C341" s="10"/>
       <c r="D341" s="10"/>
       <c r="E341" s="5" t="s">
         <v>127</v>
@@ -9342,9 +9435,7 @@
     <row r="342" spans="1:5" outlineLevel="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
-      <c r="C342" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C342" s="10"/>
       <c r="D342" s="10"/>
       <c r="E342" s="5" t="s">
         <v>127</v>
@@ -9353,9 +9444,7 @@
     <row r="343" spans="1:5" outlineLevel="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
-      <c r="C343" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C343" s="10"/>
       <c r="D343" s="10"/>
       <c r="E343" s="5" t="s">
         <v>127</v>
@@ -9364,9 +9453,7 @@
     <row r="344" spans="1:5" outlineLevel="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
-      <c r="C344" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C344" s="10"/>
       <c r="D344" s="10"/>
       <c r="E344" s="5" t="s">
         <v>127</v>
@@ -9375,9 +9462,7 @@
     <row r="345" spans="1:5" outlineLevel="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
-      <c r="C345" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C345" s="10"/>
       <c r="D345" s="10"/>
       <c r="E345" s="5" t="s">
         <v>127</v>
@@ -9386,9 +9471,7 @@
     <row r="346" spans="1:5" outlineLevel="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
-      <c r="C346" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C346" s="10"/>
       <c r="D346" s="10"/>
       <c r="E346" s="5" t="s">
         <v>127</v>
@@ -9397,9 +9480,7 @@
     <row r="347" spans="1:5" outlineLevel="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
-      <c r="C347" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C347" s="10"/>
       <c r="D347" s="10"/>
       <c r="E347" s="5" t="s">
         <v>127</v>
@@ -9408,9 +9489,7 @@
     <row r="348" spans="1:5" outlineLevel="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
-      <c r="C348" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C348" s="10"/>
       <c r="D348" s="10"/>
       <c r="E348" s="5" t="s">
         <v>127</v>
@@ -9419,9 +9498,7 @@
     <row r="349" spans="1:5" outlineLevel="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
-      <c r="C349" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C349" s="10"/>
       <c r="D349" s="10"/>
       <c r="E349" s="5" t="s">
         <v>127</v>
@@ -9430,28 +9507,35 @@
     <row r="350" spans="1:5" outlineLevel="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
-      <c r="C350" s="22" t="s">
-        <v>406</v>
-      </c>
+      <c r="C350" s="10"/>
       <c r="D350" s="10"/>
       <c r="E350" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="7" t="s">
+    <row r="351" spans="1:5" outlineLevel="1">
+      <c r="A351" s="2"/>
+      <c r="B351" s="2"/>
+      <c r="C351" s="10"/>
+      <c r="D351" s="10"/>
+      <c r="E351" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B353" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="C353" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D352" s="1" t="s">
+      <c r="D353" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E352" s="1" t="s">
+      <c r="E353" s="1" t="s">
         <v>430</v>
       </c>
     </row>
